--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD301"/>
+  <dimension ref="A1:AD303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24661,9 +24661,7 @@
       <c r="AB300" t="n">
         <v>309.7744444444444</v>
       </c>
-      <c r="AC300" t="n">
-        <v>325.4244444444445</v>
-      </c>
+      <c r="AC300" t="inlineStr"/>
       <c r="AD300" t="inlineStr">
         <is>
           <t>L9</t>
@@ -24691,7 +24689,9 @@
       <c r="F301" t="n">
         <v>343.6781818181818</v>
       </c>
-      <c r="G301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>345.03</v>
+      </c>
       <c r="H301" t="n">
         <v>331.2281818181818</v>
       </c>
@@ -24704,8 +24704,12 @@
       <c r="K301" t="n">
         <v>346.5981818181818</v>
       </c>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>358.43</v>
+      </c>
+      <c r="M301" t="n">
+        <v>367.6</v>
+      </c>
       <c r="N301" t="n">
         <v>347.1981818181818</v>
       </c>
@@ -24733,13 +24737,21 @@
       <c r="V301" t="n">
         <v>369.4788888888889</v>
       </c>
-      <c r="W301" t="inlineStr"/>
-      <c r="X301" t="inlineStr"/>
-      <c r="Y301" t="inlineStr"/>
+      <c r="W301" t="n">
+        <v>375.37</v>
+      </c>
+      <c r="X301" t="n">
+        <v>357.04</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>351.8</v>
+      </c>
       <c r="Z301" t="n">
         <v>345.1888888888889</v>
       </c>
-      <c r="AA301" t="inlineStr"/>
+      <c r="AA301" t="n">
+        <v>348.52</v>
+      </c>
       <c r="AB301" t="n">
         <v>321.8088888888889</v>
       </c>
@@ -24747,6 +24759,172 @@
       <c r="AD301" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>345.955</v>
+      </c>
+      <c r="C302" t="n">
+        <v>337.1035294117647</v>
+      </c>
+      <c r="D302" t="n">
+        <v>330.315</v>
+      </c>
+      <c r="E302" t="n">
+        <v>324.6285714285714</v>
+      </c>
+      <c r="F302" t="n">
+        <v>311.3372727272728</v>
+      </c>
+      <c r="G302" t="n">
+        <v>308.41</v>
+      </c>
+      <c r="H302" t="n">
+        <v>318.8572727272727</v>
+      </c>
+      <c r="I302" t="n">
+        <v>315.44</v>
+      </c>
+      <c r="J302" t="n">
+        <v>329.69</v>
+      </c>
+      <c r="K302" t="n">
+        <v>336.8172727272727</v>
+      </c>
+      <c r="L302" t="n">
+        <v>342.62</v>
+      </c>
+      <c r="M302" t="n">
+        <v>351.57</v>
+      </c>
+      <c r="N302" t="n">
+        <v>345.8072727272727</v>
+      </c>
+      <c r="O302" t="n">
+        <v>369.695</v>
+      </c>
+      <c r="P302" t="n">
+        <v>383.01</v>
+      </c>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>341.8071428571428</v>
+      </c>
+      <c r="S302" t="n">
+        <v>376.11</v>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
+      <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
+      <c r="Y302" t="inlineStr"/>
+      <c r="Z302" t="inlineStr"/>
+      <c r="AA302" t="inlineStr"/>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>358.55</v>
+      </c>
+      <c r="C303" t="n">
+        <v>347.2664705882353</v>
+      </c>
+      <c r="D303" t="n">
+        <v>334.48</v>
+      </c>
+      <c r="E303" t="n">
+        <v>330.4171428571428</v>
+      </c>
+      <c r="F303" t="n">
+        <v>326.5254545454546</v>
+      </c>
+      <c r="G303" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="H303" t="n">
+        <v>338.4554545454546</v>
+      </c>
+      <c r="I303" t="n">
+        <v>344.11</v>
+      </c>
+      <c r="J303" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="K303" t="n">
+        <v>359.4554545454546</v>
+      </c>
+      <c r="L303" t="n">
+        <v>372.35</v>
+      </c>
+      <c r="M303" t="n">
+        <v>382.09</v>
+      </c>
+      <c r="N303" t="n">
+        <v>367.8254545454545</v>
+      </c>
+      <c r="O303" t="n">
+        <v>350.46</v>
+      </c>
+      <c r="P303" t="n">
+        <v>383.27</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>385.2042857142857</v>
+      </c>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="n">
+        <v>390.39</v>
+      </c>
+      <c r="T303" t="n">
+        <v>376.3954545454546</v>
+      </c>
+      <c r="U303" t="n">
+        <v>378.59</v>
+      </c>
+      <c r="V303" t="n">
+        <v>378.4644444444445</v>
+      </c>
+      <c r="W303" t="n">
+        <v>386.09</v>
+      </c>
+      <c r="X303" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>369.77</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>359.9244444444445</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>356.61</v>
+      </c>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="n">
+        <v>375.8544444444445</v>
+      </c>
+      <c r="AD303" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24761,7 +24939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27809,6 +27987,26 @@
       </c>
       <c r="B304" t="n">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>
@@ -27977,28 +28175,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7644816134601704</v>
+        <v>-0.7598434335170069</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2460704222952932</v>
+        <v>0.2459713469650074</v>
       </c>
       <c r="M2" t="n">
-        <v>7.462723031527558</v>
+        <v>7.453011513613835</v>
       </c>
       <c r="N2" t="n">
-        <v>92.25933046398742</v>
+        <v>91.88887628257423</v>
       </c>
       <c r="O2" t="n">
-        <v>9.60517206842165</v>
+        <v>9.585868572152146</v>
       </c>
       <c r="P2" t="n">
-        <v>368.496144939641</v>
+        <v>368.4501325228358</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28054,28 +28252,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5487767011344541</v>
+        <v>-0.5425345234660663</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1747484008791824</v>
+        <v>0.1731692779434376</v>
       </c>
       <c r="M3" t="n">
-        <v>6.481261183514851</v>
+        <v>6.468690087405351</v>
       </c>
       <c r="N3" t="n">
-        <v>75.3097812550928</v>
+        <v>75.00020149130093</v>
       </c>
       <c r="O3" t="n">
-        <v>8.678120836626602</v>
+        <v>8.660265670942255</v>
       </c>
       <c r="P3" t="n">
-        <v>352.12176711325</v>
+        <v>352.0609903643306</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28131,28 +28329,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3876697350538909</v>
+        <v>-0.3843629847662139</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1161488183011805</v>
+        <v>0.1159326799174856</v>
       </c>
       <c r="M4" t="n">
-        <v>5.981987535161816</v>
+        <v>5.948391396868807</v>
       </c>
       <c r="N4" t="n">
-        <v>59.36299716808517</v>
+        <v>58.92564769459962</v>
       </c>
       <c r="O4" t="n">
-        <v>7.70473861776538</v>
+        <v>7.676304299244501</v>
       </c>
       <c r="P4" t="n">
-        <v>340.0675089494076</v>
+        <v>340.0348276647292</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28208,28 +28406,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2323063450980153</v>
+        <v>-0.2257903389623188</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03748633014300073</v>
+        <v>0.03596572683198096</v>
       </c>
       <c r="M5" t="n">
-        <v>6.551331272968513</v>
+        <v>6.52964633653881</v>
       </c>
       <c r="N5" t="n">
-        <v>68.81908342388598</v>
+        <v>68.44527465424507</v>
       </c>
       <c r="O5" t="n">
-        <v>8.295726817096016</v>
+        <v>8.273165939000926</v>
       </c>
       <c r="P5" t="n">
-        <v>329.3936756690586</v>
+        <v>329.3282345021732</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28285,28 +28483,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3116554987317253</v>
+        <v>-0.3091041963222399</v>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04250382161500998</v>
+        <v>0.04233089033884696</v>
       </c>
       <c r="M6" t="n">
-        <v>8.404346667609051</v>
+        <v>8.396853189188219</v>
       </c>
       <c r="N6" t="n">
-        <v>111.0179851058769</v>
+        <v>110.5857741914882</v>
       </c>
       <c r="O6" t="n">
-        <v>10.53650725363376</v>
+        <v>10.51597709162055</v>
       </c>
       <c r="P6" t="n">
-        <v>325.2026779504444</v>
+        <v>325.1772530734809</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28362,28 +28560,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6364170258747532</v>
+        <v>-0.591442687732055</v>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1130068808236719</v>
+        <v>0.09704038110267166</v>
       </c>
       <c r="M7" t="n">
-        <v>9.752827815534953</v>
+        <v>9.891331511317352</v>
       </c>
       <c r="N7" t="n">
-        <v>160.507343457083</v>
+        <v>166.2219474471721</v>
       </c>
       <c r="O7" t="n">
-        <v>12.669149279138</v>
+        <v>12.89270908099504</v>
       </c>
       <c r="P7" t="n">
-        <v>328.5760065129123</v>
+        <v>328.1293974313417</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28439,28 +28637,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6623031474574441</v>
+        <v>-0.6405095429860623</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1060810090157417</v>
+        <v>0.1002257084105697</v>
       </c>
       <c r="M8" t="n">
-        <v>10.15927808128417</v>
+        <v>10.18190613988318</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5420021578968</v>
+        <v>182.2646384909764</v>
       </c>
       <c r="O8" t="n">
-        <v>13.4737523414191</v>
+        <v>13.50054215544607</v>
       </c>
       <c r="P8" t="n">
-        <v>332.0191682685215</v>
+        <v>331.7949476018887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28516,28 +28714,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6817152181216344</v>
+        <v>-0.6683331642142467</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08843922044220343</v>
+        <v>0.08577879628367235</v>
       </c>
       <c r="M9" t="n">
-        <v>12.03876036828805</v>
+        <v>12.0657413347274</v>
       </c>
       <c r="N9" t="n">
-        <v>233.1018728090061</v>
+        <v>233.4278884304286</v>
       </c>
       <c r="O9" t="n">
-        <v>15.26767411261473</v>
+        <v>15.27834704509714</v>
       </c>
       <c r="P9" t="n">
-        <v>338.5442556477947</v>
+        <v>338.4061544332333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28593,28 +28791,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7338199240326397</v>
+        <v>-0.714766012754962</v>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09516866494431142</v>
+        <v>0.091090624054464</v>
       </c>
       <c r="M10" t="n">
-        <v>12.41331624714006</v>
+        <v>12.43327859595391</v>
       </c>
       <c r="N10" t="n">
-        <v>247.7085838460276</v>
+        <v>248.4943821756397</v>
       </c>
       <c r="O10" t="n">
-        <v>15.73876055622003</v>
+        <v>15.76370458285868</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0975128994916</v>
+        <v>350.8990642233604</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28670,28 +28868,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5638212477914191</v>
+        <v>-0.5524210367841116</v>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K11" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05208231913418193</v>
+        <v>0.05066293122732002</v>
       </c>
       <c r="M11" t="n">
-        <v>12.93750779382536</v>
+        <v>12.92063025933404</v>
       </c>
       <c r="N11" t="n">
-        <v>280.6175218699171</v>
+        <v>279.6485945870002</v>
       </c>
       <c r="O11" t="n">
-        <v>16.75164236335999</v>
+        <v>16.72269698903261</v>
       </c>
       <c r="P11" t="n">
-        <v>355.7003185650839</v>
+        <v>355.5825902529195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28747,28 +28945,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6949855219326275</v>
+        <v>-0.6647093901837481</v>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07731801826938001</v>
+        <v>0.07199419012996766</v>
       </c>
       <c r="M12" t="n">
-        <v>13.04717176815163</v>
+        <v>13.06098761657886</v>
       </c>
       <c r="N12" t="n">
-        <v>275.8860391110422</v>
+        <v>275.9058161103338</v>
       </c>
       <c r="O12" t="n">
-        <v>16.60981755200948</v>
+        <v>16.61041288199465</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5380688865958</v>
+        <v>363.224112641647</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28824,28 +29022,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7818368279462867</v>
+        <v>-0.7375828384652415</v>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K13" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07853447221613286</v>
+        <v>0.07108116526544472</v>
       </c>
       <c r="M13" t="n">
-        <v>14.65261107151898</v>
+        <v>14.68116299310079</v>
       </c>
       <c r="N13" t="n">
-        <v>349.1877297278043</v>
+        <v>350.2819613140783</v>
       </c>
       <c r="O13" t="n">
-        <v>18.68656548774558</v>
+        <v>18.7158211498742</v>
       </c>
       <c r="P13" t="n">
-        <v>369.7182725567102</v>
+        <v>369.2631882861999</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28901,28 +29099,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.616728635182784</v>
+        <v>-0.6129443797824489</v>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K14" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0495088441619479</v>
+        <v>0.04961732493633353</v>
       </c>
       <c r="M14" t="n">
-        <v>14.87710805104423</v>
+        <v>14.84343065969214</v>
       </c>
       <c r="N14" t="n">
-        <v>361.6788687700467</v>
+        <v>359.582149985921</v>
       </c>
       <c r="O14" t="n">
-        <v>19.01785657665045</v>
+        <v>18.96265144925469</v>
       </c>
       <c r="P14" t="n">
-        <v>370.1250379728336</v>
+        <v>370.0867032111589</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28978,28 +29176,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.8269311829528618</v>
+        <v>-0.8167688929878354</v>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K15" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05721830684399198</v>
+        <v>0.05675136754812893</v>
       </c>
       <c r="M15" t="n">
-        <v>17.0638849328026</v>
+        <v>16.97931457943733</v>
       </c>
       <c r="N15" t="n">
-        <v>540.5385047726224</v>
+        <v>536.6816465492591</v>
       </c>
       <c r="O15" t="n">
-        <v>23.24948396787813</v>
+        <v>23.16639045145486</v>
       </c>
       <c r="P15" t="n">
-        <v>375.2595691538139</v>
+        <v>375.1542889464407</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29055,28 +29253,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.602433604856882</v>
+        <v>-0.5646738041973591</v>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K16" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03759508787324428</v>
+        <v>0.03348187248303136</v>
       </c>
       <c r="M16" t="n">
-        <v>16.8618663468038</v>
+        <v>16.86824743134627</v>
       </c>
       <c r="N16" t="n">
-        <v>457.0868393086371</v>
+        <v>456.7861851437223</v>
       </c>
       <c r="O16" t="n">
-        <v>21.37958931571505</v>
+        <v>21.37255682279783</v>
       </c>
       <c r="P16" t="n">
-        <v>377.3444006828391</v>
+        <v>376.9587647263131</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29132,28 +29330,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5286020545474408</v>
+        <v>-0.5066740125113129</v>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02645759068893994</v>
+        <v>0.02449813988648841</v>
       </c>
       <c r="M17" t="n">
-        <v>18.13245680163347</v>
+        <v>18.1331168886814</v>
       </c>
       <c r="N17" t="n">
-        <v>510.2474138890109</v>
+        <v>510.0583644842905</v>
       </c>
       <c r="O17" t="n">
-        <v>22.58865675264935</v>
+        <v>22.58447175570619</v>
       </c>
       <c r="P17" t="n">
-        <v>376.5650491162912</v>
+        <v>376.3465261171395</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29209,28 +29407,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4599602580586203</v>
+        <v>-0.4835847481003158</v>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02506890752476365</v>
+        <v>0.02772153510054221</v>
       </c>
       <c r="M18" t="n">
-        <v>15.84853968545105</v>
+        <v>15.89921317649146</v>
       </c>
       <c r="N18" t="n">
-        <v>395.1110851826746</v>
+        <v>395.9310294854583</v>
       </c>
       <c r="O18" t="n">
-        <v>19.87740136895853</v>
+        <v>19.89801571728846</v>
       </c>
       <c r="P18" t="n">
-        <v>377.3333787125755</v>
+        <v>377.5742659209894</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29286,28 +29484,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2442546249994071</v>
+        <v>-0.2109472018516453</v>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K19" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00667518345241469</v>
+        <v>0.005047046512058118</v>
       </c>
       <c r="M19" t="n">
-        <v>16.67315909955024</v>
+        <v>16.666454865893</v>
       </c>
       <c r="N19" t="n">
-        <v>419.0168304049985</v>
+        <v>418.3367928780942</v>
       </c>
       <c r="O19" t="n">
-        <v>20.46990059587488</v>
+        <v>20.45328318090018</v>
       </c>
       <c r="P19" t="n">
-        <v>371.986923103252</v>
+        <v>371.6445938897235</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29363,28 +29561,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.06588867153225782</v>
+        <v>-0.05128506982937672</v>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K20" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005198833449904239</v>
+        <v>0.0003173151120130502</v>
       </c>
       <c r="M20" t="n">
-        <v>16.82789146601218</v>
+        <v>16.81294923660988</v>
       </c>
       <c r="N20" t="n">
-        <v>406.9538926518183</v>
+        <v>406.0265564560319</v>
       </c>
       <c r="O20" t="n">
-        <v>20.17309824126721</v>
+        <v>20.15010065622581</v>
       </c>
       <c r="P20" t="n">
-        <v>363.2118016745824</v>
+        <v>363.0626564458047</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29440,28 +29638,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.06287737784050776</v>
+        <v>-0.04572735760180071</v>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K21" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004575107730209194</v>
+        <v>0.0002432555542388748</v>
       </c>
       <c r="M21" t="n">
-        <v>17.05320729109647</v>
+        <v>17.04556446356149</v>
       </c>
       <c r="N21" t="n">
-        <v>426.4022398647712</v>
+        <v>426.1024609270846</v>
       </c>
       <c r="O21" t="n">
-        <v>20.64950943399797</v>
+        <v>20.64224941538796</v>
       </c>
       <c r="P21" t="n">
-        <v>361.0598599441667</v>
+        <v>360.885276308732</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29517,28 +29715,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08042226067112793</v>
+        <v>0.09965085216547484</v>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K22" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006835452840577849</v>
+        <v>0.001054419034080767</v>
       </c>
       <c r="M22" t="n">
-        <v>17.49423629636584</v>
+        <v>17.49927011532214</v>
       </c>
       <c r="N22" t="n">
-        <v>468.0775396779812</v>
+        <v>467.8720257798847</v>
       </c>
       <c r="O22" t="n">
-        <v>21.63509971499973</v>
+        <v>21.63034964534519</v>
       </c>
       <c r="P22" t="n">
-        <v>355.7166221962763</v>
+        <v>355.5219300882031</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29594,28 +29792,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06673164420601402</v>
+        <v>0.1122922996392549</v>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K23" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004757459625275295</v>
+        <v>0.001351799461021264</v>
       </c>
       <c r="M23" t="n">
-        <v>17.65520912449455</v>
+        <v>17.72338431276126</v>
       </c>
       <c r="N23" t="n">
-        <v>472.1018566562481</v>
+        <v>474.0748756128073</v>
       </c>
       <c r="O23" t="n">
-        <v>21.72790502225762</v>
+        <v>21.7732605645734</v>
       </c>
       <c r="P23" t="n">
-        <v>352.9634766822779</v>
+        <v>352.5115907208565</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -29671,28 +29869,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.213922106003669</v>
+        <v>-0.1844353812183102</v>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K24" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005418844093779018</v>
+        <v>0.004073692287978159</v>
       </c>
       <c r="M24" t="n">
-        <v>16.36232305880228</v>
+        <v>16.35778871663683</v>
       </c>
       <c r="N24" t="n">
-        <v>412.7211222537578</v>
+        <v>411.9774136758734</v>
       </c>
       <c r="O24" t="n">
-        <v>20.31553893584312</v>
+        <v>20.29722674839776</v>
       </c>
       <c r="P24" t="n">
-        <v>351.6070637565488</v>
+        <v>351.3078163073115</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29748,28 +29946,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2201854176474437</v>
+        <v>-0.1821166195414938</v>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K25" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005347538940549956</v>
+        <v>0.003686132301151224</v>
       </c>
       <c r="M25" t="n">
-        <v>16.57599520979464</v>
+        <v>16.60212324443798</v>
       </c>
       <c r="N25" t="n">
-        <v>430.3365118589104</v>
+        <v>431.2286744193676</v>
       </c>
       <c r="O25" t="n">
-        <v>20.744553787896</v>
+        <v>20.76604619130391</v>
       </c>
       <c r="P25" t="n">
-        <v>344.8161620031759</v>
+        <v>344.419625400169</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29825,28 +30023,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08732243440206955</v>
+        <v>-0.06673900907603803</v>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001280131029328113</v>
+        <v>0.0007501246716381527</v>
       </c>
       <c r="M26" t="n">
-        <v>13.40907607461885</v>
+        <v>13.44450594039748</v>
       </c>
       <c r="N26" t="n">
-        <v>295.8341849242089</v>
+        <v>296.4991538822978</v>
       </c>
       <c r="O26" t="n">
-        <v>17.1998309562684</v>
+        <v>17.21915078865092</v>
       </c>
       <c r="P26" t="n">
-        <v>341.2338352413342</v>
+        <v>341.0257767804885</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29902,28 +30100,28 @@
         <v>0.0465</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.3355437742513981</v>
+        <v>-0.2971850045825011</v>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K27" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L27" t="n">
-        <v>0.009911814139328068</v>
+        <v>0.007898870277582737</v>
       </c>
       <c r="M27" t="n">
-        <v>15.84908808179425</v>
+        <v>15.85743494342026</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2157953250331</v>
+        <v>573.1463261632587</v>
       </c>
       <c r="O27" t="n">
-        <v>23.98365683804355</v>
+        <v>23.94047464365021</v>
       </c>
       <c r="P27" t="n">
-        <v>341.7505269421027</v>
+        <v>341.3761776905763</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29982,7 +30180,7 @@
         <v>-0.3579940863553302</v>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K28" t="n">
         <v>174</v>
@@ -30050,28 +30248,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02926944221542091</v>
+        <v>0.04354194886068143</v>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K29" t="n">
         <v>138</v>
       </c>
       <c r="L29" t="n">
-        <v>5.792435664553341e-05</v>
+        <v>0.0001282150535584226</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8875455211885</v>
+        <v>15.82900152420755</v>
       </c>
       <c r="N29" t="n">
-        <v>760.0926285577174</v>
+        <v>760.5529387449716</v>
       </c>
       <c r="O29" t="n">
-        <v>27.56977744846188</v>
+        <v>27.57812427894565</v>
       </c>
       <c r="P29" t="n">
-        <v>350.1828365588506</v>
+        <v>349.4806931047914</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -30108,7 +30306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD301"/>
+  <dimension ref="A1:AD303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66461,11 +66659,7 @@
           <t>-38.36764857817959,174.6640015366526</t>
         </is>
       </c>
-      <c r="AC300" t="inlineStr">
-        <is>
-          <t>-38.36693646796126,174.6641154595296</t>
-        </is>
-      </c>
+      <c r="AC300" t="inlineStr"/>
       <c r="AD300" t="inlineStr">
         <is>
           <t>L9</t>
@@ -66503,7 +66697,11 @@
           <t>-38.382068095340394,174.6567514990353</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr"/>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-38.38142934482591,174.6571295663622</t>
+        </is>
+      </c>
       <c r="H301" t="inlineStr">
         <is>
           <t>-38.380848655261374,174.65766461991407</t>
@@ -66524,8 +66722,16 @@
           <t>-38.37885345133696,174.65860663319646</t>
         </is>
       </c>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>-38.37814691016055,174.65873596947193</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>-38.37744961992268,174.65889322234045</t>
+        </is>
+      </c>
       <c r="N301" t="inlineStr">
         <is>
           <t>-38.37682576691047,174.65937583560967</t>
@@ -66571,15 +66777,31 @@
           <t>-38.37144663707574,174.66149791808888</t>
         </is>
       </c>
-      <c r="W301" t="inlineStr"/>
-      <c r="X301" t="inlineStr"/>
-      <c r="Y301" t="inlineStr"/>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>-38.370769360133316,174.66174749311486</t>
+        </is>
+      </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>-38.37016497678571,174.66225827803373</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>-38.369520818454504,174.66262802354186</t>
+        </is>
+      </c>
       <c r="Z301" t="inlineStr">
         <is>
           <t>-38.36888081936711,174.6630125408363</t>
         </is>
       </c>
-      <c r="AA301" t="inlineStr"/>
+      <c r="AA301" t="inlineStr">
+        <is>
+          <t>-38.368209615614596,174.66329055586365</t>
+        </is>
+      </c>
       <c r="AB301" t="inlineStr">
         <is>
           <t>-38.36761529897955,174.66387045839815</t>
@@ -66589,6 +66811,258 @@
       <c r="AD301" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-38.384593597181855,174.6551596239557</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-38.38399396737523,174.65564339729127</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-38.383386426532,174.65610579733917</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-38.382774656667635,174.65655677873218</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-38.382192021847885,174.65708654426717</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-38.381569667492116,174.65750893924235</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-38.380896058554065,174.6577927780909</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-38.38027557074064,174.6582202493641</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>-38.379576670191284,174.65847132973283</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>-38.378880360125315,174.65871323940976</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>-38.378186175477424,174.65890991934484</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>-38.37748943155301,174.65906959109392</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>-38.37682922129214,174.65939113884912</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>-38.37609536654148,174.65938646452463</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>-38.37538776355772,174.6594981175244</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>-38.37415838739323,174.66050046058584</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>-38.37339574843641,174.6604553603417</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
+      <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
+      <c r="Y302" t="inlineStr"/>
+      <c r="Z302" t="inlineStr"/>
+      <c r="AA302" t="inlineStr"/>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-38.384545333276186,174.65502913867346</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-38.38395502340609,174.65553810904103</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-38.38337046655191,174.65606264815105</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-38.38275247542872,174.65649680985382</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-38.38213382266896,174.6569291976576</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-38.381441721780426,174.65716302819436</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-38.38082096147199,174.65758974803893</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-38.38016571249028,174.65792324086672</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>-38.379477021468105,174.65816373560583</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>-38.37881807884765,174.65846649652642</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>-38.378112338582454,174.6585828145142</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>-38.37741363275802,174.6587337974688</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>-38.376774537965865,174.65914888773153</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>-38.37614313748279,174.65959809225194</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>-38.375387117833995,174.6594952569766</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>-38.374702457291164,174.65973389682003</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>-38.37335082518447,174.66030220899347</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>-38.37273798565371,174.66077628860998</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>-38.3720742412419,174.66107673023996</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>-38.37141886560252,174.66140131920787</t>
+        </is>
+      </c>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>-38.3707367915511,174.6616319903613</t>
+        </is>
+      </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>-38.37012621089408,174.6621207962493</t>
+        </is>
+      </c>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>-38.369466224526896,174.66243440855015</t>
+        </is>
+      </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>-38.36883605225015,174.66285377610455</t>
+        </is>
+      </c>
+      <c r="AA303" t="inlineStr">
+        <is>
+          <t>-38.36818605273595,174.6632029419165</t>
+        </is>
+      </c>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr">
+        <is>
+          <t>-38.366798078607424,174.66356575068136</t>
+        </is>
+      </c>
+      <c r="AD303" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -28020,7 +28020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28111,35 +28111,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28198,27 +28203,28 @@
       <c r="P2" t="n">
         <v>368.4501325228358</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.65874381370642 -38.385919234555054, 174.64927861563694 -38.38241811858771)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6587438137064</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.38591923455505</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6492786156369</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.38241811858771</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6540112146717</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.38416867657138</v>
       </c>
     </row>
@@ -28275,27 +28281,28 @@
       <c r="P3" t="n">
         <v>352.0609903643306</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.65913585831052 -38.38528567891451, 174.64967070384338 -38.38178457184706)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6591358583105</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.38528567891451</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6496707038434</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.38178457184706</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.654403281077</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.38353512538078</v>
       </c>
     </row>
@@ -28352,27 +28359,28 @@
       <c r="P4" t="n">
         <v>340.0348276647292</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.65952790291465 -38.38465211772466, 174.65006279204957 -38.38115101955665)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6595279029146</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.38465211772466</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6500627920496</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.38115101955665</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6547953474821</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.38290156864065</v>
       </c>
     </row>
@@ -28429,27 +28437,28 @@
       <c r="P5" t="n">
         <v>329.3282345021732</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.65991994751894 -38.38401855098563, 174.6504548802556 -38.38051746171653)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6599199475189</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.38401855098563</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6504548802556</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.38051746171653</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6551874138873</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.38226800635108</v>
       </c>
     </row>
@@ -28506,27 +28515,28 @@
       <c r="P6" t="n">
         <v>325.1772530734809</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.66031199212333 -38.38338497869729, 174.65084696846122 -38.37988389832682)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6603119921233</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.38338497869729</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6508469684612</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.37988389832682</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6555794802923</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.38163443851205</v>
       </c>
     </row>
@@ -28583,27 +28593,28 @@
       <c r="P7" t="n">
         <v>328.1293974313417</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.66070403672785 -38.3827514008598, 174.65123905666667 -38.37925032938744)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6607040367279</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.3827514008598</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6512390566667</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.37925032938744</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6559715466973</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.38100086512362</v>
       </c>
     </row>
@@ -28660,27 +28671,28 @@
       <c r="P8" t="n">
         <v>331.7949476018887</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.66109608133246 -38.38211781747319, 174.65163114487189 -38.37861675489839)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6610960813325</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.38211781747319</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6516311448719</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.37861675489839</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6563636131022</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.38036728618579</v>
       </c>
     </row>
@@ -28737,27 +28749,28 @@
       <c r="P9" t="n">
         <v>338.4061544332333</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.66148812593727 -38.38148422853743, 174.65202323307685 -38.3779831748598)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6614881259373</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.38148422853743</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6520232330768</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.3779831748598</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6567556795071</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.37973370169861</v>
       </c>
     </row>
@@ -28814,27 +28827,28 @@
       <c r="P10" t="n">
         <v>350.8990642233604</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.6619610880297 -38.380707141700725, 174.6522898538558 -38.37757389873778)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6619610880297</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.38070714170073</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6522898538558</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.37757389873778</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6571254709427</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.37914052021925</v>
       </c>
     </row>
@@ -28891,27 +28905,28 @@
       <c r="P11" t="n">
         <v>355.5825902529195</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.6623843978119 -38.37980693600942, 174.65242490486867 -38.37729290120039)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6623843978119</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.37980693600942</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6524249048687</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.37729290120039</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6574046513403</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.3785499186049</v>
       </c>
     </row>
@@ -28968,27 +28983,28 @@
       <c r="P12" t="n">
         <v>363.224112641647</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.6626796475214 -38.37903703331405, 174.65262564433246 -38.376767447670076)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6626796475214</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.37903703331405</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6526256443325</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.37676744767008</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6576526459269</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.37790224049206</v>
       </c>
     </row>
@@ -29045,27 +29061,28 @@
       <c r="P13" t="n">
         <v>369.2631882861999</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.6629377574292 -38.37836251240395, 174.65288381150162 -38.37609293234678)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6629377574292</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.37836251240395</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6528838115016</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.37609293234678</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6579107844654</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.37722772237537</v>
       </c>
     </row>
@@ -29122,27 +29139,28 @@
       <c r="P14" t="n">
         <v>370.0867032111589</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.66319586733738 -38.377687985205135, 174.65314197866996 -38.375418410734476)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6631958673374</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.37768798520514</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.65314197867</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.37541841073448</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6581689230037</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.37655319796981</v>
       </c>
     </row>
@@ -29199,27 +29217,28 @@
       <c r="P15" t="n">
         <v>375.1542889464407</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.66345397724578 -38.37701345171772, 174.65340014583762 -38.37474388283291)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6634539772458</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.37701345171772</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6534001458376</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.37474388283291</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6584270615417</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.37587866727532</v>
       </c>
     </row>
@@ -29276,27 +29295,28 @@
       <c r="P16" t="n">
         <v>376.9587647263131</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.66371208715464 -38.376338911941694, 174.6536583130046 -38.37406934864237)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6637120871546</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.37633891194169</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6536583130046</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.37406934864237</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.6586852000796</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.37520413029203</v>
       </c>
     </row>
@@ -29353,27 +29373,28 @@
       <c r="P17" t="n">
         <v>376.3465261171395</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.66394492908967 -38.37573039930072, 174.65395554416995 -38.37329162520489)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6639449290897</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.37573039930072</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6539555441699</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.37329162520489</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.6589502366298</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.37451101225281</v>
       </c>
     </row>
@@ -29430,27 +29451,28 @@
       <c r="P18" t="n">
         <v>377.5742659209894</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.66418939804979 -38.37518369789351, 174.65432781749186 -38.37244242302696)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6641893980498</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.37518369789351</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6543278174919</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.37244242302696</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6592586077708</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.37381306046024</v>
       </c>
     </row>
@@ -29507,27 +29529,28 @@
       <c r="P19" t="n">
         <v>371.6445938897235</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.66448916253128 -38.37457887388449, 174.65468928501164 -38.37170423103297)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.6644891625313</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.37457887388449</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6546892850116</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.37170423103297</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.6595892237715</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.37314155245873</v>
       </c>
     </row>
@@ -29584,27 +29607,28 @@
       <c r="P20" t="n">
         <v>363.0626564458047</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.66481311851697 -38.37392200241218, 174.65501329229772 -38.371047366832784)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.664813118517</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.37392200241218</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6550132922977</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.37104736683278</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.6599132054073</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.37248468462248</v>
       </c>
     </row>
@@ -29661,27 +29685,28 @@
       <c r="P21" t="n">
         <v>360.885276308732</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.66513730467042 -38.373264642647435, 174.6553369431056 -38.37039125050199)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.6651373046704</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.37326464264743</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.6553369431056</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.37039125050199</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.660237123888</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.37182794657471</v>
       </c>
     </row>
@@ -29738,27 +29763,28 @@
       <c r="P22" t="n">
         <v>355.5219300882031</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.66547004893488 -38.372588507418484, 174.65564665340105 -38.36976425724707)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.6654700489349</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.37258850741848</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.655646653401</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.36976425724707</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.660558351168</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.37117638233278</v>
       </c>
     </row>
@@ -29815,27 +29841,28 @@
       <c r="P23" t="n">
         <v>352.5115907208565</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.66579198418415 -38.37190970360802, 174.65594652091707 -38.36913346771457)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.6657919841842</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.37190970360802</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.6559465209171</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.36913346771457</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.6608692525506</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.37052158566129</v>
       </c>
     </row>
@@ -29892,27 +29919,28 @@
       <c r="P24" t="n">
         <v>351.3078163073115</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.6661052395499 -38.371249625759184, 174.65625982864736 -38.368473396868914)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.6661052395499</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.37124962575918</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.6562598286474</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.36847339686891</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.6611825340986</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.36986151131405</v>
       </c>
     </row>
@@ -29969,27 +29997,28 @@
       <c r="P25" t="n">
         <v>344.419625400169</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.66641849491603 -38.370589541889636, 174.6565731363771 -38.36781332000225)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.666418494916</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-38.37058954188964</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.6565731363771</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-38.36781332000225</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.6614958156466</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-38.36920143094594</v>
       </c>
     </row>
@@ -30046,27 +30075,28 @@
       <c r="P26" t="n">
         <v>341.0257767804885</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.66673175028234 -38.36992945199943, 174.65688644410614 -38.36715323711457)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.6667317502823</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-38.36992945199943</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.6568864441061</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-38.36715323711457</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.6618090971942</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-38.368541344557</v>
       </c>
     </row>
@@ -30123,27 +30153,28 @@
       <c r="P27" t="n">
         <v>341.3761776905763</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.6670650469893 -38.36922464907037, 174.65716872749502 -38.366563015874895)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.6670650469893</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-38.36922464907037</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.657168727495</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-38.3665630158749</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.6621168872422</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-38.36789383247263</v>
       </c>
     </row>
@@ -30200,27 +30231,28 @@
       <c r="P28" t="n">
         <v>349.9015833381852</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.66737561604168 -38.368505155017395, 174.65742246872932 -38.36597801083714)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.6673756160417</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-38.3685051550174</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.6574224687293</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-38.36597801083714</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.6623990423855</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-38.36724158292726</v>
       </c>
     </row>
@@ -30271,27 +30303,28 @@
       <c r="P29" t="n">
         <v>349.4806931047914</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.66766277528689 -38.367829430282534, 174.6577017738717 -38.36532162571628)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.6676627752869</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-38.36782943028253</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.6577017738717</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-38.36532162571628</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.6626822745793</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-38.3665755279994</v>
       </c>
     </row>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD303"/>
+  <dimension ref="A1:AD307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24890,7 +24890,9 @@
       <c r="Q303" t="n">
         <v>385.2042857142857</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>385.0542857142857</v>
+      </c>
       <c r="S303" t="n">
         <v>390.39</v>
       </c>
@@ -24918,13 +24920,399 @@
       <c r="AA303" t="n">
         <v>356.61</v>
       </c>
-      <c r="AB303" t="inlineStr"/>
+      <c r="AB303" t="n">
+        <v>361.9744444444444</v>
+      </c>
       <c r="AC303" t="n">
         <v>375.8544444444445</v>
       </c>
       <c r="AD303" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>351.445</v>
+      </c>
+      <c r="C304" t="n">
+        <v>345.7458823529412</v>
+      </c>
+      <c r="D304" t="n">
+        <v>334.615</v>
+      </c>
+      <c r="E304" t="n">
+        <v>321.9385714285714</v>
+      </c>
+      <c r="F304" t="n">
+        <v>320.43</v>
+      </c>
+      <c r="G304" t="n">
+        <v>325.9</v>
+      </c>
+      <c r="H304" t="n">
+        <v>337.89</v>
+      </c>
+      <c r="I304" t="n">
+        <v>350.49</v>
+      </c>
+      <c r="J304" t="n">
+        <v>354.16</v>
+      </c>
+      <c r="K304" t="n">
+        <v>367.19</v>
+      </c>
+      <c r="L304" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="M304" t="n">
+        <v>378.23</v>
+      </c>
+      <c r="N304" t="n">
+        <v>387.27</v>
+      </c>
+      <c r="O304" t="n">
+        <v>377.435</v>
+      </c>
+      <c r="P304" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>388.1571428571429</v>
+      </c>
+      <c r="R304" t="n">
+        <v>380.3871428571428</v>
+      </c>
+      <c r="S304" t="n">
+        <v>381.38</v>
+      </c>
+      <c r="T304" t="n">
+        <v>378.07</v>
+      </c>
+      <c r="U304" t="n">
+        <v>380.38</v>
+      </c>
+      <c r="V304" t="n">
+        <v>374.0155555555555</v>
+      </c>
+      <c r="W304" t="n">
+        <v>378.23</v>
+      </c>
+      <c r="X304" t="n">
+        <v>382.17</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>377.89</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>373.4255555555556</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>356.87</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>357.7255555555556</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>375.9255555555556</v>
+      </c>
+      <c r="AD304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>352.345</v>
+      </c>
+      <c r="C305" t="n">
+        <v>340.0205882352942</v>
+      </c>
+      <c r="D305" t="n">
+        <v>333.725</v>
+      </c>
+      <c r="E305" t="n">
+        <v>324.3442857142857</v>
+      </c>
+      <c r="F305" t="n">
+        <v>324.8018181818182</v>
+      </c>
+      <c r="G305" t="n">
+        <v>326.89</v>
+      </c>
+      <c r="H305" t="n">
+        <v>335.7118181818182</v>
+      </c>
+      <c r="I305" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="J305" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="K305" t="n">
+        <v>365.0718181818182</v>
+      </c>
+      <c r="L305" t="n">
+        <v>367.3</v>
+      </c>
+      <c r="M305" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="N305" t="n">
+        <v>383.2418181818182</v>
+      </c>
+      <c r="O305" t="n">
+        <v>375.315</v>
+      </c>
+      <c r="P305" t="n">
+        <v>389.56</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>394.7285714285715</v>
+      </c>
+      <c r="R305" t="n">
+        <v>384.5485714285714</v>
+      </c>
+      <c r="S305" t="n">
+        <v>387.88</v>
+      </c>
+      <c r="T305" t="n">
+        <v>379.7618181818182</v>
+      </c>
+      <c r="U305" t="n">
+        <v>388.36</v>
+      </c>
+      <c r="V305" t="n">
+        <v>388.4977777777778</v>
+      </c>
+      <c r="W305" t="n">
+        <v>394.32</v>
+      </c>
+      <c r="X305" t="n">
+        <v>382.19</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>381.42</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>361.3177777777778</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>358.94</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>367.4577777777778</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>381.6177777777777</v>
+      </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="C306" t="n">
+        <v>341.5770588235294</v>
+      </c>
+      <c r="D306" t="n">
+        <v>336.63</v>
+      </c>
+      <c r="E306" t="n">
+        <v>327.12</v>
+      </c>
+      <c r="F306" t="n">
+        <v>324.2254545454546</v>
+      </c>
+      <c r="G306" t="n">
+        <v>326.15</v>
+      </c>
+      <c r="H306" t="n">
+        <v>328.4154545454546</v>
+      </c>
+      <c r="I306" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="J306" t="n">
+        <v>351.85</v>
+      </c>
+      <c r="K306" t="n">
+        <v>365.6654545454546</v>
+      </c>
+      <c r="L306" t="n">
+        <v>374.29</v>
+      </c>
+      <c r="M306" t="n">
+        <v>368.17</v>
+      </c>
+      <c r="N306" t="n">
+        <v>371.9454545454545</v>
+      </c>
+      <c r="O306" t="n">
+        <v>383.02</v>
+      </c>
+      <c r="P306" t="n">
+        <v>385.08</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>388.74</v>
+      </c>
+      <c r="R306" t="n">
+        <v>385.99</v>
+      </c>
+      <c r="S306" t="n">
+        <v>380.57</v>
+      </c>
+      <c r="T306" t="n">
+        <v>383.6254545454545</v>
+      </c>
+      <c r="U306" t="n">
+        <v>389.58</v>
+      </c>
+      <c r="V306" t="n">
+        <v>390.1511111111111</v>
+      </c>
+      <c r="W306" t="n">
+        <v>384.88</v>
+      </c>
+      <c r="X306" t="n">
+        <v>384.17</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>373.14</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>375.8111111111111</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>368.19</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>368.6511111111111</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>381.3811111111111</v>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="C307" t="n">
+        <v>340.65</v>
+      </c>
+      <c r="D307" t="n">
+        <v>329.68</v>
+      </c>
+      <c r="E307" t="n">
+        <v>325.4385714285714</v>
+      </c>
+      <c r="F307" t="n">
+        <v>319.9072727272728</v>
+      </c>
+      <c r="G307" t="n">
+        <v>330.62</v>
+      </c>
+      <c r="H307" t="n">
+        <v>333.6472727272728</v>
+      </c>
+      <c r="I307" t="n">
+        <v>344.3</v>
+      </c>
+      <c r="J307" t="n">
+        <v>357</v>
+      </c>
+      <c r="K307" t="n">
+        <v>365.5472727272728</v>
+      </c>
+      <c r="L307" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="M307" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="N307" t="n">
+        <v>370.1972727272728</v>
+      </c>
+      <c r="O307" t="n">
+        <v>359.85</v>
+      </c>
+      <c r="P307" t="n">
+        <v>395.02</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>393.1771428571428</v>
+      </c>
+      <c r="R307" t="n">
+        <v>398.0371428571429</v>
+      </c>
+      <c r="S307" t="n">
+        <v>391.28</v>
+      </c>
+      <c r="T307" t="n">
+        <v>380.4972727272727</v>
+      </c>
+      <c r="U307" t="n">
+        <v>382.11</v>
+      </c>
+      <c r="V307" t="n">
+        <v>385.9422222222223</v>
+      </c>
+      <c r="W307" t="n">
+        <v>394.23</v>
+      </c>
+      <c r="X307" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>371.72</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>382.1222222222222</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>383.26</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>386.3922222222222</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>394.3822222222223</v>
+      </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24939,7 +25327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28007,6 +28395,46 @@
       </c>
       <c r="B306" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -28180,28 +28608,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7598434335170069</v>
+        <v>-0.7486503223523754</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2459713469650074</v>
+        <v>0.2457719065056265</v>
       </c>
       <c r="M2" t="n">
-        <v>7.453011513613835</v>
+        <v>7.386892913045902</v>
       </c>
       <c r="N2" t="n">
-        <v>91.88887628257423</v>
+        <v>90.65031496493228</v>
       </c>
       <c r="O2" t="n">
-        <v>9.585868572152146</v>
+        <v>9.521045896587847</v>
       </c>
       <c r="P2" t="n">
-        <v>368.4501325228358</v>
+        <v>368.3380375186215</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28258,28 +28686,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5425345234660663</v>
+        <v>-0.5310687125446286</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1731692779434376</v>
+        <v>0.1711584877805096</v>
       </c>
       <c r="M3" t="n">
-        <v>6.468690087405351</v>
+        <v>6.415953150561229</v>
       </c>
       <c r="N3" t="n">
-        <v>75.00020149130093</v>
+        <v>74.00710769897651</v>
       </c>
       <c r="O3" t="n">
-        <v>8.660265670942255</v>
+        <v>8.602738383734362</v>
       </c>
       <c r="P3" t="n">
-        <v>352.0609903643306</v>
+        <v>351.9484730303905</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28336,28 +28764,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3843629847662139</v>
+        <v>-0.3739507154267604</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1159326799174856</v>
+        <v>0.1131179370369856</v>
       </c>
       <c r="M4" t="n">
-        <v>5.948391396868807</v>
+        <v>5.908206208392455</v>
       </c>
       <c r="N4" t="n">
-        <v>58.92564769459962</v>
+        <v>58.21555099241196</v>
       </c>
       <c r="O4" t="n">
-        <v>7.676304299244501</v>
+        <v>7.629911597942138</v>
       </c>
       <c r="P4" t="n">
-        <v>340.0348276647292</v>
+        <v>339.9311289810189</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28414,28 +28842,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2257903389623188</v>
+        <v>-0.2223255123097551</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03596572683198096</v>
+        <v>0.03600085796344787</v>
       </c>
       <c r="M5" t="n">
-        <v>6.52964633653881</v>
+        <v>6.454657447914221</v>
       </c>
       <c r="N5" t="n">
-        <v>68.44527465424507</v>
+        <v>67.40829482287523</v>
       </c>
       <c r="O5" t="n">
-        <v>8.273165939000926</v>
+        <v>8.210255466358841</v>
       </c>
       <c r="P5" t="n">
-        <v>329.3282345021732</v>
+        <v>329.2930449857815</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28492,28 +28920,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3091041963222399</v>
+        <v>-0.293216832156965</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K6" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04233089033884696</v>
+        <v>0.03932688619484614</v>
       </c>
       <c r="M6" t="n">
-        <v>8.396853189188219</v>
+        <v>8.331556937621883</v>
       </c>
       <c r="N6" t="n">
-        <v>110.5857741914882</v>
+        <v>109.2126924695625</v>
       </c>
       <c r="O6" t="n">
-        <v>10.51597709162055</v>
+        <v>10.45048766659061</v>
       </c>
       <c r="P6" t="n">
-        <v>325.1772530734809</v>
+        <v>325.0179565235982</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28570,28 +28998,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.591442687732055</v>
+        <v>-0.5475697776636763</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09704038110267166</v>
+        <v>0.08531333213579173</v>
       </c>
       <c r="M7" t="n">
-        <v>9.891331511317352</v>
+        <v>9.948661125608155</v>
       </c>
       <c r="N7" t="n">
-        <v>166.2219474471721</v>
+        <v>166.6940987121593</v>
       </c>
       <c r="O7" t="n">
-        <v>12.89270908099504</v>
+        <v>12.91100688219781</v>
       </c>
       <c r="P7" t="n">
-        <v>328.1293974313417</v>
+        <v>327.6866582689901</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28648,28 +29076,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6405095429860623</v>
+        <v>-0.5821210794377278</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K8" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1002257084105697</v>
+        <v>0.08437328696724722</v>
       </c>
       <c r="M8" t="n">
-        <v>10.18190613988318</v>
+        <v>10.3115449613393</v>
       </c>
       <c r="N8" t="n">
-        <v>182.2646384909764</v>
+        <v>184.7354656946259</v>
       </c>
       <c r="O8" t="n">
-        <v>13.50054215544607</v>
+        <v>13.59174255548662</v>
       </c>
       <c r="P8" t="n">
-        <v>331.7949476018887</v>
+        <v>331.1890705997444</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28726,28 +29154,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6683331642142467</v>
+        <v>-0.5910905363656225</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K9" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08577879628367235</v>
+        <v>0.0677927543239023</v>
       </c>
       <c r="M9" t="n">
-        <v>12.0657413347274</v>
+        <v>12.30720175844775</v>
       </c>
       <c r="N9" t="n">
-        <v>233.4278884304286</v>
+        <v>239.146315880509</v>
       </c>
       <c r="O9" t="n">
-        <v>15.27834704509714</v>
+        <v>15.46435630346472</v>
       </c>
       <c r="P9" t="n">
-        <v>338.4061544332333</v>
+        <v>337.6027355576475</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28804,28 +29232,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.714766012754962</v>
+        <v>-0.6407671940256497</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K10" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L10" t="n">
-        <v>0.091090624054464</v>
+        <v>0.07433411869861051</v>
       </c>
       <c r="M10" t="n">
-        <v>12.43327859595391</v>
+        <v>12.60209842058975</v>
       </c>
       <c r="N10" t="n">
-        <v>248.4943821756397</v>
+        <v>252.958499988304</v>
       </c>
       <c r="O10" t="n">
-        <v>15.76370458285868</v>
+        <v>15.90466912539535</v>
       </c>
       <c r="P10" t="n">
-        <v>350.8990642233604</v>
+        <v>350.121804621193</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28882,28 +29310,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5524210367841116</v>
+        <v>-0.4710646577108615</v>
       </c>
       <c r="J11" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K11" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05066293122732002</v>
+        <v>0.03732863545535559</v>
       </c>
       <c r="M11" t="n">
-        <v>12.92063025933404</v>
+        <v>13.0816535113942</v>
       </c>
       <c r="N11" t="n">
-        <v>279.6485945870002</v>
+        <v>284.449514250033</v>
       </c>
       <c r="O11" t="n">
-        <v>16.72269698903261</v>
+        <v>16.86563115480808</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5825902529195</v>
+        <v>354.7357337046442</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28960,28 +29388,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6647093901837481</v>
+        <v>-0.583339821636734</v>
       </c>
       <c r="J12" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K12" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07199419012996766</v>
+        <v>0.05631304422801775</v>
       </c>
       <c r="M12" t="n">
-        <v>13.06098761657886</v>
+        <v>13.248122509849</v>
       </c>
       <c r="N12" t="n">
-        <v>275.9058161103338</v>
+        <v>280.739038276376</v>
       </c>
       <c r="O12" t="n">
-        <v>16.61041288199465</v>
+        <v>16.75526897057687</v>
       </c>
       <c r="P12" t="n">
-        <v>363.224112641647</v>
+        <v>362.3695958264459</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29038,28 +29466,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7375828384652415</v>
+        <v>-0.6464050634845738</v>
       </c>
       <c r="J13" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K13" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07108116526544472</v>
+        <v>0.05537485867176484</v>
       </c>
       <c r="M13" t="n">
-        <v>14.68116299310079</v>
+        <v>14.8880238007594</v>
       </c>
       <c r="N13" t="n">
-        <v>350.2819613140783</v>
+        <v>356.7979778370553</v>
       </c>
       <c r="O13" t="n">
-        <v>18.7158211498742</v>
+        <v>18.88909679781051</v>
       </c>
       <c r="P13" t="n">
-        <v>369.2631882861999</v>
+        <v>368.313412668184</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29116,28 +29544,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6129443797824489</v>
+        <v>-0.5329875527408292</v>
       </c>
       <c r="J14" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K14" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04961732493633353</v>
+        <v>0.03822130184924255</v>
       </c>
       <c r="M14" t="n">
-        <v>14.84343065969214</v>
+        <v>14.99430149096206</v>
       </c>
       <c r="N14" t="n">
-        <v>359.582149985921</v>
+        <v>363.3999654907951</v>
       </c>
       <c r="O14" t="n">
-        <v>18.96265144925469</v>
+        <v>19.06305236552623</v>
       </c>
       <c r="P14" t="n">
-        <v>370.0867032111589</v>
+        <v>369.2723246726081</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29194,28 +29622,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.8167688929878354</v>
+        <v>-0.7480697528712396</v>
       </c>
       <c r="J15" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K15" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05675136754812893</v>
+        <v>0.04901744293310861</v>
       </c>
       <c r="M15" t="n">
-        <v>16.97931457943733</v>
+        <v>16.90361893608168</v>
       </c>
       <c r="N15" t="n">
-        <v>536.6816465492591</v>
+        <v>534.7195892109316</v>
       </c>
       <c r="O15" t="n">
-        <v>23.16639045145486</v>
+        <v>23.12400461016499</v>
       </c>
       <c r="P15" t="n">
-        <v>375.1542889464407</v>
+        <v>374.436141226249</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29272,28 +29700,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5646738041973591</v>
+        <v>-0.4831895268670834</v>
       </c>
       <c r="J16" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K16" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03348187248303136</v>
+        <v>0.02503867666682735</v>
       </c>
       <c r="M16" t="n">
-        <v>16.86824743134627</v>
+        <v>16.89859351394229</v>
       </c>
       <c r="N16" t="n">
-        <v>456.7861851437223</v>
+        <v>458.879230931235</v>
       </c>
       <c r="O16" t="n">
-        <v>21.37255682279783</v>
+        <v>21.42146659151131</v>
       </c>
       <c r="P16" t="n">
-        <v>376.9587647263131</v>
+        <v>376.118415330621</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29350,28 +29778,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5066740125113129</v>
+        <v>-0.4006021011535861</v>
       </c>
       <c r="J17" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K17" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02449813988648841</v>
+        <v>0.01565598040036131</v>
       </c>
       <c r="M17" t="n">
-        <v>18.1331168886814</v>
+        <v>18.21859496403719</v>
       </c>
       <c r="N17" t="n">
-        <v>510.0583644842905</v>
+        <v>514.234480163585</v>
       </c>
       <c r="O17" t="n">
-        <v>22.58447175570619</v>
+        <v>22.6767387462039</v>
       </c>
       <c r="P17" t="n">
-        <v>376.3465261171395</v>
+        <v>375.2808545790799</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29428,28 +29856,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4835847481003158</v>
+        <v>-0.3838727354819886</v>
       </c>
       <c r="J18" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K18" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02772153510054221</v>
+        <v>0.01802065518908924</v>
       </c>
       <c r="M18" t="n">
-        <v>15.89921317649146</v>
+        <v>15.96385284878979</v>
       </c>
       <c r="N18" t="n">
-        <v>395.9310294854583</v>
+        <v>397.463325527675</v>
       </c>
       <c r="O18" t="n">
-        <v>19.89801571728846</v>
+        <v>19.93648227565924</v>
       </c>
       <c r="P18" t="n">
-        <v>377.5742659209894</v>
+        <v>376.5493995294308</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29506,28 +29934,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2109472018516453</v>
+        <v>-0.1410181505805923</v>
       </c>
       <c r="J19" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K19" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005047046512058118</v>
+        <v>0.002313567217750667</v>
       </c>
       <c r="M19" t="n">
-        <v>16.666454865893</v>
+        <v>16.66227477700057</v>
       </c>
       <c r="N19" t="n">
-        <v>418.3367928780942</v>
+        <v>417.284288553535</v>
       </c>
       <c r="O19" t="n">
-        <v>20.45328318090018</v>
+        <v>20.42753750586534</v>
       </c>
       <c r="P19" t="n">
-        <v>371.6445938897235</v>
+        <v>370.9198396621269</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29584,28 +30012,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.05128506982937672</v>
+        <v>0.01947925099900154</v>
       </c>
       <c r="J20" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K20" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003173151120130502</v>
+        <v>4.68459911904251e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>16.81294923660988</v>
+        <v>16.80456226224114</v>
       </c>
       <c r="N20" t="n">
-        <v>406.0265564560319</v>
+        <v>404.6616064570615</v>
       </c>
       <c r="O20" t="n">
-        <v>20.15010065622581</v>
+        <v>20.11620258540517</v>
       </c>
       <c r="P20" t="n">
-        <v>363.0626564458047</v>
+        <v>362.3339443918871</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29662,28 +30090,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04572735760180071</v>
+        <v>0.04215958896717997</v>
       </c>
       <c r="J21" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K21" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002432555542388748</v>
+        <v>0.0002086590612075945</v>
       </c>
       <c r="M21" t="n">
-        <v>17.04556446356149</v>
+        <v>17.08834427349231</v>
       </c>
       <c r="N21" t="n">
-        <v>426.1024609270846</v>
+        <v>429.6569523353386</v>
       </c>
       <c r="O21" t="n">
-        <v>20.64224941538796</v>
+        <v>20.72816808922917</v>
       </c>
       <c r="P21" t="n">
-        <v>360.885276308732</v>
+        <v>359.9830706857113</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29740,28 +30168,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09965085216547484</v>
+        <v>0.1947582107122515</v>
       </c>
       <c r="J22" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K22" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001054419034080767</v>
+        <v>0.00405110021709032</v>
       </c>
       <c r="M22" t="n">
-        <v>17.49927011532214</v>
+        <v>17.59638005605245</v>
       </c>
       <c r="N22" t="n">
-        <v>467.8720257798847</v>
+        <v>472.3000485990459</v>
       </c>
       <c r="O22" t="n">
-        <v>21.63034964534519</v>
+        <v>21.73246531342097</v>
       </c>
       <c r="P22" t="n">
-        <v>355.5219300882031</v>
+        <v>354.550606502285</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29818,28 +30246,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1122922996392549</v>
+        <v>0.2230962266105876</v>
       </c>
       <c r="J23" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K23" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001351799461021264</v>
+        <v>0.005294300767295534</v>
       </c>
       <c r="M23" t="n">
-        <v>17.72338431276126</v>
+        <v>17.95693568590875</v>
       </c>
       <c r="N23" t="n">
-        <v>474.0748756128073</v>
+        <v>484.2585877772999</v>
       </c>
       <c r="O23" t="n">
-        <v>21.7732605645734</v>
+        <v>22.00587621016941</v>
       </c>
       <c r="P23" t="n">
-        <v>352.5115907208565</v>
+        <v>351.3973350562636</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29896,28 +30324,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1844353812183102</v>
+        <v>-0.06554589704209628</v>
       </c>
       <c r="J24" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K24" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004073692287978159</v>
+        <v>0.0005083872839160009</v>
       </c>
       <c r="M24" t="n">
-        <v>16.35778871663683</v>
+        <v>16.62848911769449</v>
       </c>
       <c r="N24" t="n">
-        <v>411.9774136758734</v>
+        <v>425.4947323602778</v>
       </c>
       <c r="O24" t="n">
-        <v>20.29722674839776</v>
+        <v>20.62752366039796</v>
       </c>
       <c r="P24" t="n">
-        <v>351.3078163073115</v>
+        <v>350.0865125425015</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29974,28 +30402,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1821166195414938</v>
+        <v>-0.05711057394256013</v>
       </c>
       <c r="J25" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K25" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003686132301151224</v>
+        <v>0.0003576416553251471</v>
       </c>
       <c r="M25" t="n">
-        <v>16.60212324443798</v>
+        <v>16.86837560339185</v>
       </c>
       <c r="N25" t="n">
-        <v>431.2286744193676</v>
+        <v>445.832674261142</v>
       </c>
       <c r="O25" t="n">
-        <v>20.76604619130391</v>
+        <v>21.11475015862471</v>
       </c>
       <c r="P25" t="n">
-        <v>344.419625400169</v>
+        <v>343.102238460848</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30052,28 +30480,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.06673900907603803</v>
+        <v>0.0613057295440184</v>
       </c>
       <c r="J26" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K26" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007501246716381527</v>
+        <v>0.0006114961897132343</v>
       </c>
       <c r="M26" t="n">
-        <v>13.44450594039748</v>
+        <v>13.83017656400765</v>
       </c>
       <c r="N26" t="n">
-        <v>296.4991538822978</v>
+        <v>312.8812015167963</v>
       </c>
       <c r="O26" t="n">
-        <v>17.21915078865092</v>
+        <v>17.68844825067469</v>
       </c>
       <c r="P26" t="n">
-        <v>341.0257767804885</v>
+        <v>339.7201927218605</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30130,28 +30558,28 @@
         <v>0.0465</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2971850045825011</v>
+        <v>-0.1698225030850952</v>
       </c>
       <c r="J27" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K27" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007898870277582737</v>
+        <v>0.002596017415294916</v>
       </c>
       <c r="M27" t="n">
-        <v>15.85743494342026</v>
+        <v>16.1330737704041</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1463261632587</v>
+        <v>584.3192490766448</v>
       </c>
       <c r="O27" t="n">
-        <v>23.94047464365021</v>
+        <v>24.17269635511613</v>
       </c>
       <c r="P27" t="n">
-        <v>341.3761776905763</v>
+        <v>340.1155652918952</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30208,28 +30636,28 @@
         <v>0.0519</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3579940863553302</v>
+        <v>-0.2154213078670157</v>
       </c>
       <c r="J28" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K28" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02418840274000822</v>
+        <v>0.008695351526453621</v>
       </c>
       <c r="M28" t="n">
-        <v>12.73935023668114</v>
+        <v>13.10874701949228</v>
       </c>
       <c r="N28" t="n">
-        <v>278.2876511452981</v>
+        <v>292.7029026690423</v>
       </c>
       <c r="O28" t="n">
-        <v>16.68195585491396</v>
+        <v>17.10856226189221</v>
       </c>
       <c r="P28" t="n">
-        <v>349.9015833381852</v>
+        <v>348.5373980611356</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30280,28 +30708,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.04354194886068143</v>
+        <v>0.2222283940444505</v>
       </c>
       <c r="J29" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K29" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001282150535584226</v>
+        <v>0.003399135401430664</v>
       </c>
       <c r="M29" t="n">
-        <v>15.82900152420755</v>
+        <v>16.09988267673458</v>
       </c>
       <c r="N29" t="n">
-        <v>760.5529387449716</v>
+        <v>768.0857231579104</v>
       </c>
       <c r="O29" t="n">
-        <v>27.57812427894565</v>
+        <v>27.71435951195536</v>
       </c>
       <c r="P29" t="n">
-        <v>349.4806931047914</v>
+        <v>347.7298859263204</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30339,7 +30767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD303"/>
+  <dimension ref="A1:AD307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67041,7 +67469,11 @@
           <t>-38.374702457291164,174.65973389682003</t>
         </is>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>-38.37402865154291,174.6600337249957</t>
+        </is>
+      </c>
       <c r="S303" t="inlineStr">
         <is>
           <t>-38.37335082518447,174.66030220899347</t>
@@ -67087,7 +67519,11 @@
           <t>-38.36818605273595,174.6632029419165</t>
         </is>
       </c>
-      <c r="AB303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr">
+        <is>
+          <t>-38.36750422691558,174.6634329790536</t>
+        </is>
+      </c>
       <c r="AC303" t="inlineStr">
         <is>
           <t>-38.366798078607424,174.66356575068136</t>
@@ -67096,6 +67532,614 @@
       <c r="AD303" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-38.38457255957881,174.65510274706313</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-38.38396085024336,174.65555386235502</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-38.383369949241356,174.65606124955823</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-38.38278496447351,174.65658464680897</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-38.38215717970083,174.65699234535157</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-38.38150264844092,174.6573277475926</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-38.38082312820798,174.6575956059371</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-38.38014126537969,174.65785714701283</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>-38.37949276094641,174.65821231975787</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>-38.37879679974822,174.65838219461762</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>-38.378119044292404,174.6586125212839</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>-38.37742321942248,174.6587762667436</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>-38.37672624597875,174.65893495287833</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>-38.376076143812284,174.6593013074065</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>-38.375409097235746,174.65959262564942</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>-38.37469457680945,174.65970161678771</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>-38.37404265246092,174.66008409406484</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>-38.373379169641076,174.66039884017997</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>-38.372732717764535,174.66075832944477</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>-38.37206861259886,174.66105753186568</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>-38.371432615702815,174.6614491468136</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>-38.37076067113862,174.66171667800478</t>
+        </is>
+      </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>-38.37008862969599,174.66198751662955</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>-38.36944155537723,174.66234692095546</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>-38.3687950352242,174.6627083117661</t>
+        </is>
+      </c>
+      <c r="AA304" t="inlineStr">
+        <is>
+          <t>-38.3681852954606,174.6632001261416</t>
+        </is>
+      </c>
+      <c r="AB304" t="inlineStr">
+        <is>
+          <t>-38.36751597668516,174.66347925747948</t>
+        </is>
+      </c>
+      <c r="AC304" t="inlineStr">
+        <is>
+          <t>-38.36679788346337,174.66356497554085</t>
+        </is>
+      </c>
+      <c r="AD304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-38.384569110788696,174.65509342298546</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-38.383982789336756,174.655613176499</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-38.38337335965876,174.65607046991127</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-38.38277574602184,174.65655972389763</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-38.38214042743498,174.6569470541827</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-38.3814988549011,174.65731749147125</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-38.38083147466727,174.6576181710914</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-38.38016460125881,174.65792023659967</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-38.37947064337296,174.65814404791604</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>-38.378802627246344,174.65840528152492</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-38.37812488073741,174.65863837718032</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>-38.377406554511246,174.65870244062774</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>-38.376736250303075,174.65897927214797</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>-38.37608140895884,174.65932463209091</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>-38.37537149626565,174.65942605373942</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>-38.37467703917857,174.65962977929436</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>-38.37403016863152,174.66003918280026</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>-38.37335872137313,174.66032912843986</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>-38.37272739553487,174.66074018503556</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>-38.37204351950302,174.66097194361765</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>-38.371387855687665,174.66129345631512</t>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t>-38.3707117877938,174.6615433162069</t>
+        </is>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>-38.37008856893402,174.6619873011412</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>-38.36943083096006,174.66230888757315</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>-38.368831819244896,174.6628387639764</t>
+        </is>
+      </c>
+      <c r="AA305" t="inlineStr">
+        <is>
+          <t>-38.36817926638148,174.66317770824347</t>
+        </is>
+      </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>-38.367489063417096,174.66337325521712</t>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>-38.36678226277521,174.66350292797907</t>
+        </is>
+      </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-38.38457257873875,174.65510279886357</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-38.38397682500805,174.6555970514339</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-38.38336222790033,174.65604037426766</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-38.382765109761166,174.6565309678384</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-38.38214263599009,174.65695302519444</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-38.38150169047642,174.65732515766285</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-38.38085943318319,174.65769375874447</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-38.38015881519023,174.6579045936935</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-38.379500682113964,174.65823677061337</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-38.37880099404669,174.65839881124538</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-38.37810752040094,174.65856146965325</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-38.37744820428268,174.65888695096584</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-38.376764305670015,174.65910355820517</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-38.376062273108744,174.65923986008116</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>-38.37538262260159,174.6594753431646</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>-38.374693021299656,174.65969524511306</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>-38.37402584449975,174.6600236265161</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>-38.37338171780687,174.6604075273379</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>-38.37271524105014,174.66069874832348</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>-38.37203968320955,174.66095885870254</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>-38.371382745738465,174.66127568223902</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>-38.370740467674885,174.6616450275141</t>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>-38.37008255349742,174.66196596779488</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>-38.369455986230285,174.66239809903652</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>-38.36878778777232,174.66268260921203</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr">
+        <is>
+          <t>-38.368152324790785,174.66307753168934</t>
+        </is>
+      </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>-38.36748576339325,174.6633602575708</t>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>-38.36678291224037,174.6635055077425</t>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-38.384553801983444,174.65505203445107</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-38.383980377458066,174.65560665578076</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-38.38338885980483,174.6561123759085</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-38.38277155282885,174.656548387231</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-38.38215918272579,174.65699776070375</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.38148456206094,174.6572788497305</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-38.38083938568527,174.65763955901986</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-38.380164984442075,174.6579212725538</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-38.379483022360965,174.65818225897291</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-38.37880131918601,174.65840009935616</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-38.37811668487681,174.65860206890136</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-38.377422797212205,174.65877439633485</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-38.3767686473988,174.65912279224585</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-38.376119817066666,174.65949478136045</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-38.37535793601521,174.65936598227194</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-38.37468117958851,174.6596467391865</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-38.37398970427535,174.65989361058547</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-38.37334802533916,174.6602926638525</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-38.3727250818941,174.6607322974345</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-38.37206317262237,174.6610389770151</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>-38.371395754125224,174.66132092969022</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>-38.370712061225305,174.6615442859118</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>-38.370094918557236,174.6620098196771</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>-38.369460300291394,174.662413398593</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>-38.3687686142342,174.66261461179428</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr">
+        <is>
+          <t>-38.3681084316552,174.6629143252836</t>
+        </is>
+      </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>-38.36743670225082,174.6631670236085</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>-38.3667472342588,174.66336379038145</t>
+        </is>
+      </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD307"/>
+  <dimension ref="A1:AD309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25316,6 +25316,196 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>358.74</v>
+      </c>
+      <c r="C308" t="n">
+        <v>345.5605882352941</v>
+      </c>
+      <c r="D308" t="n">
+        <v>336.08</v>
+      </c>
+      <c r="E308" t="n">
+        <v>325.2571428571428</v>
+      </c>
+      <c r="F308" t="n">
+        <v>327.3963636363636</v>
+      </c>
+      <c r="G308" t="n">
+        <v>335.61</v>
+      </c>
+      <c r="H308" t="n">
+        <v>334.7963636363637</v>
+      </c>
+      <c r="I308" t="n">
+        <v>337.72</v>
+      </c>
+      <c r="J308" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="K308" t="n">
+        <v>370.5163636363636</v>
+      </c>
+      <c r="L308" t="n">
+        <v>379.86</v>
+      </c>
+      <c r="M308" t="n">
+        <v>392.86</v>
+      </c>
+      <c r="N308" t="n">
+        <v>378.7263636363636</v>
+      </c>
+      <c r="O308" t="n">
+        <v>343.34</v>
+      </c>
+      <c r="P308" t="n">
+        <v>393.28</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>403.0542857142857</v>
+      </c>
+      <c r="R308" t="n">
+        <v>404.6042857142857</v>
+      </c>
+      <c r="S308" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="T308" t="n">
+        <v>380.4363636363637</v>
+      </c>
+      <c r="U308" t="n">
+        <v>380.61</v>
+      </c>
+      <c r="V308" t="n">
+        <v>381.1466666666667</v>
+      </c>
+      <c r="W308" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="X308" t="n">
+        <v>346.47</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>376.2466666666666</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>370.38</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>373.8866666666667</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>244.4966666666667</v>
+      </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>352.635</v>
+      </c>
+      <c r="C309" t="n">
+        <v>339.4405882352942</v>
+      </c>
+      <c r="D309" t="n">
+        <v>332.285</v>
+      </c>
+      <c r="E309" t="n">
+        <v>324.7757142857143</v>
+      </c>
+      <c r="F309" t="n">
+        <v>316.7545454545455</v>
+      </c>
+      <c r="G309" t="n">
+        <v>315.37</v>
+      </c>
+      <c r="H309" t="n">
+        <v>318.7045454545454</v>
+      </c>
+      <c r="I309" t="n">
+        <v>327.15</v>
+      </c>
+      <c r="J309" t="n">
+        <v>337.28</v>
+      </c>
+      <c r="K309" t="n">
+        <v>358.0345454545454</v>
+      </c>
+      <c r="L309" t="n">
+        <v>360.94</v>
+      </c>
+      <c r="M309" t="n">
+        <v>367.96</v>
+      </c>
+      <c r="N309" t="n">
+        <v>379.1045454545454</v>
+      </c>
+      <c r="O309" t="n">
+        <v>380.475</v>
+      </c>
+      <c r="P309" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>378.8114285714286</v>
+      </c>
+      <c r="R309" t="n">
+        <v>373.5314285714285</v>
+      </c>
+      <c r="S309" t="n">
+        <v>374.44</v>
+      </c>
+      <c r="T309" t="n">
+        <v>373.0345454545454</v>
+      </c>
+      <c r="U309" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="V309" t="n">
+        <v>362.5455555555556</v>
+      </c>
+      <c r="W309" t="n">
+        <v>360.9</v>
+      </c>
+      <c r="X309" t="n">
+        <v>369.69</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>369.9655555555556</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>360.13</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>367.2655555555555</v>
+      </c>
+      <c r="AC309" t="inlineStr"/>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25327,7 +25517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28435,6 +28625,26 @@
       </c>
       <c r="B310" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -28608,28 +28818,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7486503223523754</v>
+        <v>-0.7389748385832109</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2457719065056265</v>
+        <v>0.2430121404150644</v>
       </c>
       <c r="M2" t="n">
-        <v>7.386892913045902</v>
+        <v>7.375210408086111</v>
       </c>
       <c r="N2" t="n">
-        <v>90.65031496493228</v>
+        <v>90.30538167027549</v>
       </c>
       <c r="O2" t="n">
-        <v>9.521045896587847</v>
+        <v>9.502914377719895</v>
       </c>
       <c r="P2" t="n">
-        <v>368.3380375186215</v>
+        <v>368.2406439289456</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28686,28 +28896,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5310687125446286</v>
+        <v>-0.5247833179591297</v>
       </c>
       <c r="J3" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1711584877805096</v>
+        <v>0.1696323414890651</v>
       </c>
       <c r="M3" t="n">
-        <v>6.415953150561229</v>
+        <v>6.393094703111328</v>
       </c>
       <c r="N3" t="n">
-        <v>74.00710769897651</v>
+        <v>73.58881108219479</v>
       </c>
       <c r="O3" t="n">
-        <v>8.602738383734362</v>
+        <v>8.578392103546841</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9484730303905</v>
+        <v>351.8863266000137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28764,28 +28974,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3739507154267604</v>
+        <v>-0.368160564232636</v>
       </c>
       <c r="J4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1131179370369856</v>
+        <v>0.1113204162626785</v>
       </c>
       <c r="M4" t="n">
-        <v>5.908206208392455</v>
+        <v>5.889418574301519</v>
       </c>
       <c r="N4" t="n">
-        <v>58.21555099241196</v>
+        <v>57.87217108948405</v>
       </c>
       <c r="O4" t="n">
-        <v>7.629911597942138</v>
+        <v>7.607376097544018</v>
       </c>
       <c r="P4" t="n">
-        <v>339.9311289810189</v>
+        <v>339.8730125253031</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28842,28 +29052,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2223255123097551</v>
+        <v>-0.2201780063307111</v>
       </c>
       <c r="J5" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03600085796344787</v>
+        <v>0.03587972554747654</v>
       </c>
       <c r="M5" t="n">
-        <v>6.454657447914221</v>
+        <v>6.413168676582409</v>
       </c>
       <c r="N5" t="n">
-        <v>67.40829482287523</v>
+        <v>66.87969410936749</v>
       </c>
       <c r="O5" t="n">
-        <v>8.210255466358841</v>
+        <v>8.178000618083095</v>
       </c>
       <c r="P5" t="n">
-        <v>329.2930449857815</v>
+        <v>329.2711612309237</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28920,28 +29130,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.293216832156965</v>
+        <v>-0.2861174015298831</v>
       </c>
       <c r="J6" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03932688619484614</v>
+        <v>0.0379699593820908</v>
       </c>
       <c r="M6" t="n">
-        <v>8.331556937621883</v>
+        <v>8.303743342550757</v>
       </c>
       <c r="N6" t="n">
-        <v>109.2126924695625</v>
+        <v>108.7064978482402</v>
       </c>
       <c r="O6" t="n">
-        <v>10.45048766659061</v>
+        <v>10.42624083014775</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0179565235982</v>
+        <v>324.9463456537039</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28998,28 +29208,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5475697776636763</v>
+        <v>-0.5297159781003016</v>
       </c>
       <c r="J7" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08531333213579173</v>
+        <v>0.08058101093609926</v>
       </c>
       <c r="M7" t="n">
-        <v>9.948661125608155</v>
+        <v>9.960652822757112</v>
       </c>
       <c r="N7" t="n">
-        <v>166.6940987121593</v>
+        <v>167.2481738827182</v>
       </c>
       <c r="O7" t="n">
-        <v>12.91100688219781</v>
+        <v>12.93244655441182</v>
       </c>
       <c r="P7" t="n">
-        <v>327.6866582689901</v>
+        <v>327.5054576677691</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29076,28 +29286,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5821210794377278</v>
+        <v>-0.5658242454875482</v>
       </c>
       <c r="J8" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08437328696724722</v>
+        <v>0.08067718723959805</v>
       </c>
       <c r="M8" t="n">
-        <v>10.3115449613393</v>
+        <v>10.3145282372594</v>
       </c>
       <c r="N8" t="n">
-        <v>184.7354656946259</v>
+        <v>184.6022980935541</v>
       </c>
       <c r="O8" t="n">
-        <v>13.59174255548662</v>
+        <v>13.58684283023669</v>
       </c>
       <c r="P8" t="n">
-        <v>331.1890705997444</v>
+        <v>331.0189044945563</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29154,28 +29364,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5910905363656225</v>
+        <v>-0.5759183990516217</v>
       </c>
       <c r="J9" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0677927543239023</v>
+        <v>0.06525849409844464</v>
       </c>
       <c r="M9" t="n">
-        <v>12.30720175844775</v>
+        <v>12.29554046968036</v>
       </c>
       <c r="N9" t="n">
-        <v>239.146315880509</v>
+        <v>238.2131751392475</v>
       </c>
       <c r="O9" t="n">
-        <v>15.46435630346472</v>
+        <v>15.43415612008793</v>
       </c>
       <c r="P9" t="n">
-        <v>337.6027355576475</v>
+        <v>337.443943091144</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29232,28 +29442,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6407671940256497</v>
+        <v>-0.6223692887716723</v>
       </c>
       <c r="J10" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07433411869861051</v>
+        <v>0.07101230849475693</v>
       </c>
       <c r="M10" t="n">
-        <v>12.60209842058975</v>
+        <v>12.59142025085192</v>
       </c>
       <c r="N10" t="n">
-        <v>252.958499988304</v>
+        <v>252.5044306917178</v>
       </c>
       <c r="O10" t="n">
-        <v>15.90466912539535</v>
+        <v>15.89038799689038</v>
       </c>
       <c r="P10" t="n">
-        <v>350.121804621193</v>
+        <v>349.9274013872874</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29310,28 +29520,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4710646577108615</v>
+        <v>-0.4354283842018339</v>
       </c>
       <c r="J11" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03732863545535559</v>
+        <v>0.03212155000827743</v>
       </c>
       <c r="M11" t="n">
-        <v>13.0816535113942</v>
+        <v>13.14350274618799</v>
       </c>
       <c r="N11" t="n">
-        <v>284.449514250033</v>
+        <v>286.1977202059782</v>
       </c>
       <c r="O11" t="n">
-        <v>16.86563115480808</v>
+        <v>16.91737923574388</v>
       </c>
       <c r="P11" t="n">
-        <v>354.7357337046442</v>
+        <v>354.3624830077648</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29388,28 +29598,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.583339821636734</v>
+        <v>-0.5451490302972583</v>
       </c>
       <c r="J12" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05631304422801775</v>
+        <v>0.04944385605268753</v>
       </c>
       <c r="M12" t="n">
-        <v>13.248122509849</v>
+        <v>13.33290462915841</v>
       </c>
       <c r="N12" t="n">
-        <v>280.739038276376</v>
+        <v>283.4673071047968</v>
       </c>
       <c r="O12" t="n">
-        <v>16.75526897057687</v>
+        <v>16.83648737429505</v>
       </c>
       <c r="P12" t="n">
-        <v>362.3695958264459</v>
+        <v>361.9661113881613</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29466,28 +29676,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6464050634845738</v>
+        <v>-0.5985202258055135</v>
       </c>
       <c r="J13" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05537485867176484</v>
+        <v>0.04754288684531693</v>
       </c>
       <c r="M13" t="n">
-        <v>14.8880238007594</v>
+        <v>15.01059049497806</v>
       </c>
       <c r="N13" t="n">
-        <v>356.7979778370553</v>
+        <v>361.9884916279781</v>
       </c>
       <c r="O13" t="n">
-        <v>18.88909679781051</v>
+        <v>19.02599515473444</v>
       </c>
       <c r="P13" t="n">
-        <v>368.313412668184</v>
+        <v>367.8114567027698</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29544,28 +29754,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5329875527408292</v>
+        <v>-0.4941181508717588</v>
       </c>
       <c r="J14" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03822130184924255</v>
+        <v>0.03317087264134833</v>
       </c>
       <c r="M14" t="n">
-        <v>14.99430149096206</v>
+        <v>15.06767509644016</v>
       </c>
       <c r="N14" t="n">
-        <v>363.3999654907951</v>
+        <v>364.7786419992307</v>
       </c>
       <c r="O14" t="n">
-        <v>19.06305236552623</v>
+        <v>19.09917909228642</v>
       </c>
       <c r="P14" t="n">
-        <v>369.2723246726081</v>
+        <v>368.8736580655774</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29622,28 +29832,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7480697528712396</v>
+        <v>-0.7367439403337969</v>
       </c>
       <c r="J15" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04901744293310861</v>
+        <v>0.04810831333354959</v>
       </c>
       <c r="M15" t="n">
-        <v>16.90361893608168</v>
+        <v>16.90152627023412</v>
       </c>
       <c r="N15" t="n">
-        <v>534.7195892109316</v>
+        <v>533.3804609308789</v>
       </c>
       <c r="O15" t="n">
-        <v>23.12400461016499</v>
+        <v>23.09503108746292</v>
       </c>
       <c r="P15" t="n">
-        <v>374.436141226249</v>
+        <v>374.3167268050015</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29700,28 +29910,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4831895268670834</v>
+        <v>-0.4468122600509523</v>
       </c>
       <c r="J16" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K16" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02503867666682735</v>
+        <v>0.02164157695983082</v>
       </c>
       <c r="M16" t="n">
-        <v>16.89859351394229</v>
+        <v>16.89943742959077</v>
       </c>
       <c r="N16" t="n">
-        <v>458.879230931235</v>
+        <v>459.2783165338539</v>
       </c>
       <c r="O16" t="n">
-        <v>21.42146659151131</v>
+        <v>21.43077965296302</v>
       </c>
       <c r="P16" t="n">
-        <v>376.118415330621</v>
+        <v>375.7411965479142</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29778,28 +29988,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4006021011535861</v>
+        <v>-0.3519379126421698</v>
       </c>
       <c r="J17" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01565598040036131</v>
+        <v>0.01218525067139153</v>
       </c>
       <c r="M17" t="n">
-        <v>18.21859496403719</v>
+        <v>18.24593669519968</v>
       </c>
       <c r="N17" t="n">
-        <v>514.234480163585</v>
+        <v>516.8964849379129</v>
       </c>
       <c r="O17" t="n">
-        <v>22.6767387462039</v>
+        <v>22.73535759423882</v>
       </c>
       <c r="P17" t="n">
-        <v>375.2808545790799</v>
+        <v>374.7891369881035</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29856,28 +30066,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3838727354819886</v>
+        <v>-0.3430104818409074</v>
       </c>
       <c r="J18" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K18" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01802065518908924</v>
+        <v>0.01446996751021379</v>
       </c>
       <c r="M18" t="n">
-        <v>15.96385284878979</v>
+        <v>16.00315657126733</v>
       </c>
       <c r="N18" t="n">
-        <v>397.463325527675</v>
+        <v>400.4471643018088</v>
       </c>
       <c r="O18" t="n">
-        <v>19.93648227565924</v>
+        <v>20.01117598497921</v>
       </c>
       <c r="P18" t="n">
-        <v>376.5493995294308</v>
+        <v>376.1266355091779</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29934,28 +30144,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1410181505805923</v>
+        <v>-0.112453566873026</v>
       </c>
       <c r="J19" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K19" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002313567217750667</v>
+        <v>0.001489908813604668</v>
       </c>
       <c r="M19" t="n">
-        <v>16.66227477700057</v>
+        <v>16.63215139876895</v>
       </c>
       <c r="N19" t="n">
-        <v>417.284288553535</v>
+        <v>416.3818056170314</v>
       </c>
       <c r="O19" t="n">
-        <v>20.42753750586534</v>
+        <v>20.40543568799822</v>
       </c>
       <c r="P19" t="n">
-        <v>370.9198396621269</v>
+        <v>370.6222567489312</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30012,28 +30222,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01947925099900154</v>
+        <v>0.04534537404993434</v>
       </c>
       <c r="J20" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K20" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="n">
-        <v>4.68459911904251e-05</v>
+        <v>0.0002573858156353914</v>
       </c>
       <c r="M20" t="n">
-        <v>16.80456226224114</v>
+        <v>16.75724547170384</v>
       </c>
       <c r="N20" t="n">
-        <v>404.6616064570615</v>
+        <v>402.7380714065476</v>
       </c>
       <c r="O20" t="n">
-        <v>20.11620258540517</v>
+        <v>20.06833504321043</v>
       </c>
       <c r="P20" t="n">
-        <v>362.3339443918871</v>
+        <v>362.0660009439952</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30090,28 +30300,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04215958896717997</v>
+        <v>0.06342599286359642</v>
       </c>
       <c r="J21" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K21" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002086590612075945</v>
+        <v>0.0004783051664242199</v>
       </c>
       <c r="M21" t="n">
-        <v>17.08834427349231</v>
+        <v>17.02259013832724</v>
       </c>
       <c r="N21" t="n">
-        <v>429.6569523353386</v>
+        <v>427.647544498227</v>
       </c>
       <c r="O21" t="n">
-        <v>20.72816808922917</v>
+        <v>20.67964082130604</v>
       </c>
       <c r="P21" t="n">
-        <v>359.9830706857113</v>
+        <v>359.7634528700344</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30168,28 +30378,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1947582107122515</v>
+        <v>0.2164925166171042</v>
       </c>
       <c r="J22" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K22" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00405110021709032</v>
+        <v>0.00506742751000322</v>
       </c>
       <c r="M22" t="n">
-        <v>17.59638005605245</v>
+        <v>17.53495859992291</v>
       </c>
       <c r="N22" t="n">
-        <v>472.3000485990459</v>
+        <v>470.1544255933925</v>
       </c>
       <c r="O22" t="n">
-        <v>21.73246531342097</v>
+        <v>21.68304465690629</v>
       </c>
       <c r="P22" t="n">
-        <v>354.550606502285</v>
+        <v>354.3274061051056</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30246,28 +30456,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2230962266105876</v>
+        <v>0.245966833732907</v>
       </c>
       <c r="J23" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K23" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005294300767295534</v>
+        <v>0.006505680816016768</v>
       </c>
       <c r="M23" t="n">
-        <v>17.95693568590875</v>
+        <v>17.91319881995795</v>
       </c>
       <c r="N23" t="n">
-        <v>484.2585877772999</v>
+        <v>482.4533963290081</v>
       </c>
       <c r="O23" t="n">
-        <v>22.00587621016941</v>
+        <v>21.96482179142385</v>
       </c>
       <c r="P23" t="n">
-        <v>351.3973350562636</v>
+        <v>351.1660464394072</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30324,28 +30534,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.06554589704209628</v>
+        <v>-0.04955584111164877</v>
       </c>
       <c r="J24" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K24" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005083872839160009</v>
+        <v>0.0002941861523203526</v>
       </c>
       <c r="M24" t="n">
-        <v>16.62848911769449</v>
+        <v>16.58384394921919</v>
       </c>
       <c r="N24" t="n">
-        <v>425.4947323602778</v>
+        <v>423.7944655691938</v>
       </c>
       <c r="O24" t="n">
-        <v>20.62752366039796</v>
+        <v>20.58626885982969</v>
       </c>
       <c r="P24" t="n">
-        <v>350.0865125425015</v>
+        <v>349.9210984550089</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30402,28 +30612,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.05711057394256013</v>
+        <v>-0.01676694033168344</v>
       </c>
       <c r="J25" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K25" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003576416553251471</v>
+        <v>3.098137039936333e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>16.86837560339185</v>
+        <v>16.90568967105056</v>
       </c>
       <c r="N25" t="n">
-        <v>445.832674261142</v>
+        <v>447.276454722317</v>
       </c>
       <c r="O25" t="n">
-        <v>21.11475015862471</v>
+        <v>21.14891143114267</v>
       </c>
       <c r="P25" t="n">
-        <v>343.102238460848</v>
+        <v>342.6742448171915</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30480,28 +30690,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0613057295440184</v>
+        <v>0.1205620002426012</v>
       </c>
       <c r="J26" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K26" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006114961897132343</v>
+        <v>0.002333252313524881</v>
       </c>
       <c r="M26" t="n">
-        <v>13.83017656400765</v>
+        <v>14.00323573294027</v>
       </c>
       <c r="N26" t="n">
-        <v>312.8812015167963</v>
+        <v>319.4683555419294</v>
       </c>
       <c r="O26" t="n">
-        <v>17.68844825067469</v>
+        <v>17.87367772849028</v>
       </c>
       <c r="P26" t="n">
-        <v>339.7201927218605</v>
+        <v>339.1123722549021</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30558,28 +30768,28 @@
         <v>0.0465</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1698225030850952</v>
+        <v>-0.1139578156895419</v>
       </c>
       <c r="J27" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K27" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002596017415294916</v>
+        <v>0.001176315899274138</v>
       </c>
       <c r="M27" t="n">
-        <v>16.1330737704041</v>
+        <v>16.23905281985944</v>
       </c>
       <c r="N27" t="n">
-        <v>584.3192490766448</v>
+        <v>587.1411363536213</v>
       </c>
       <c r="O27" t="n">
-        <v>24.17269635511613</v>
+        <v>24.23099536448351</v>
       </c>
       <c r="P27" t="n">
-        <v>340.1155652918952</v>
+        <v>339.5595257958921</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30636,28 +30846,28 @@
         <v>0.0519</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2154213078670157</v>
+        <v>-0.1595927842607124</v>
       </c>
       <c r="J28" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L28" t="n">
-        <v>0.008695351526453621</v>
+        <v>0.004759541507650566</v>
       </c>
       <c r="M28" t="n">
-        <v>13.10874701949228</v>
+        <v>13.24608555183737</v>
       </c>
       <c r="N28" t="n">
-        <v>292.7029026690423</v>
+        <v>297.6794641766913</v>
       </c>
       <c r="O28" t="n">
-        <v>17.10856226189221</v>
+        <v>17.25338993289989</v>
       </c>
       <c r="P28" t="n">
-        <v>348.5373980611356</v>
+        <v>347.9992522095646</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30708,28 +30918,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.2222283940444505</v>
+        <v>0.07533559109743271</v>
       </c>
       <c r="J29" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K29" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003399135401430664</v>
+        <v>0.0003591783826293327</v>
       </c>
       <c r="M29" t="n">
-        <v>16.09988267673458</v>
+        <v>16.89319353508593</v>
       </c>
       <c r="N29" t="n">
-        <v>768.0857231579104</v>
+        <v>843.8601534998642</v>
       </c>
       <c r="O29" t="n">
-        <v>27.71435951195536</v>
+        <v>29.04927113543237</v>
       </c>
       <c r="P29" t="n">
-        <v>347.7298859263204</v>
+        <v>349.176875477957</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30767,7 +30977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD307"/>
+  <dimension ref="A1:AD309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68143,6 +68353,306 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-38.384544605197064,174.6550271702584</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-38.38396156028334,174.65555578200465</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-38.38336433546277,174.6560460722374</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-38.38277224804501,174.65655026680878</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-38.38213048544962,174.65692017521627</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.381465441055845,174.6572271547708</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-38.38083498254762,174.65762765486184</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-38.38019019788074,174.65798943835955</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-38.37949450977606,174.65821771799827</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-38.37878764831586,174.65834593926263</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-38.378093686734104,174.6585001857119</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-38.37738688439119,174.65861530164736</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-38.37674746478944,174.65902895255272</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-38.376160820207275,174.65967642813516</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-38.3753622574171,174.65938512592408</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-38.37465481969828,174.65953876436134</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-38.37397000344113,174.65982273630704</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-38.37334660968673,174.66028783765788</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-38.3727252735059,174.66073295067216</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-38.37206788936516,174.6610550650357</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-38.37141057569724,174.6613724840914</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-38.37075377462295,174.66169221986306</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-38.37019708915885,174.6623721639138</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-38.36950444334862,174.6625699497892</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>-38.368786464529435,174.66267791643136</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr">
+        <is>
+          <t>-38.368145946174344,174.66305381422376</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>-38.36747128505897,174.66330323252873</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>-38.36715854342701,174.66499761156882</t>
+        </is>
+      </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-38.38456799951174,174.6550904185606</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-38.38398501187136,174.65561918531077</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-38.38337887763589,174.65608538823707</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-38.38277409283102,174.65655525435008</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-38.38217126357349,174.6570304223471</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-38.3815429978528,174.65743683549354</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-38.380896643779,174.65779436029166</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-38.380230700233945,174.65809893884636</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-38.379550643643206,174.65839099106378</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-38.378821988012575,174.65848198358884</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-38.37814067636374,174.65870835315818</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-38.37744872583429,174.65888926147227</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-38.37674652554598,174.65902479168074</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-38.37606859378254,174.65926786069485</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-38.37540340991822,174.6595674308123</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-38.37471951829331,174.65980378225402</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-38.37406321881369,174.66015808282324</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-38.373401002052645,174.6604732709105</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-38.37274855860192,174.66081233369565</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-38.37211257252989,174.66120747231778</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-38.371468065731946,174.6615724546799</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-38.37081332145853,174.66190340044173</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-38.37012654508351,174.66212198143648</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-38.36945513557009,174.66239508222276</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-38.368805546888474,174.66274559065394</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-38.36817580038715,174.66316482066114</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-38.367489594985045,174.66337534887907</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr"/>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD309"/>
+  <dimension ref="A1:AD310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25506,6 +25506,78 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>349.385</v>
+      </c>
+      <c r="C310" t="n">
+        <v>344.1847058823529</v>
+      </c>
+      <c r="D310" t="n">
+        <v>327.515</v>
+      </c>
+      <c r="E310" t="n">
+        <v>323.3128571428572</v>
+      </c>
+      <c r="F310" t="n">
+        <v>322.4672727272728</v>
+      </c>
+      <c r="G310" t="n">
+        <v>316.91</v>
+      </c>
+      <c r="H310" t="n">
+        <v>311.6372727272728</v>
+      </c>
+      <c r="I310" t="n">
+        <v>318.89</v>
+      </c>
+      <c r="J310" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="K310" t="n">
+        <v>340.0072727272727</v>
+      </c>
+      <c r="L310" t="n">
+        <v>350.06</v>
+      </c>
+      <c r="M310" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="N310" t="n">
+        <v>355.8772727272727</v>
+      </c>
+      <c r="O310" t="n">
+        <v>348.775</v>
+      </c>
+      <c r="P310" t="n">
+        <v>352.88</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>356.5857142857143</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr"/>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="inlineStr"/>
+      <c r="AB310" t="inlineStr"/>
+      <c r="AC310" t="inlineStr"/>
+      <c r="AD310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25517,7 +25589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28645,6 +28717,16 @@
       </c>
       <c r="B312" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -28818,28 +28900,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7389748385832109</v>
+        <v>-0.7390114366037905</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2430121404150644</v>
+        <v>0.2444489760881124</v>
       </c>
       <c r="M2" t="n">
-        <v>7.375210408086111</v>
+        <v>7.345434005269014</v>
       </c>
       <c r="N2" t="n">
-        <v>90.30538167027549</v>
+        <v>89.93829585994409</v>
       </c>
       <c r="O2" t="n">
-        <v>9.502914377719895</v>
+        <v>9.483580329176533</v>
       </c>
       <c r="P2" t="n">
-        <v>368.2406439289456</v>
+        <v>368.2410143455429</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28896,28 +28978,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5247833179591297</v>
+        <v>-0.52036518778828</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1696323414890651</v>
+        <v>0.1681140952436631</v>
       </c>
       <c r="M3" t="n">
-        <v>6.393094703111328</v>
+        <v>6.38828227197859</v>
       </c>
       <c r="N3" t="n">
-        <v>73.58881108219479</v>
+        <v>73.41008391093987</v>
       </c>
       <c r="O3" t="n">
-        <v>8.578392103546841</v>
+        <v>8.567968482139735</v>
       </c>
       <c r="P3" t="n">
-        <v>351.8863266000137</v>
+        <v>351.8423873382254</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28974,28 +29056,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.368160564232636</v>
+        <v>-0.3704749386965607</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1113204162626785</v>
+        <v>0.1132830154238056</v>
       </c>
       <c r="M4" t="n">
-        <v>5.889418574301519</v>
+        <v>5.877410908658652</v>
       </c>
       <c r="N4" t="n">
-        <v>57.87217108948405</v>
+        <v>57.66779352691484</v>
       </c>
       <c r="O4" t="n">
-        <v>7.607376097544018</v>
+        <v>7.593931361746354</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8730125253031</v>
+        <v>339.8963718905785</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29052,28 +29134,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2201780063307111</v>
+        <v>-0.2204573563879464</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03587972554747654</v>
+        <v>0.03624685519968562</v>
       </c>
       <c r="M5" t="n">
-        <v>6.413168676582409</v>
+        <v>6.388871846554994</v>
       </c>
       <c r="N5" t="n">
-        <v>66.87969410936749</v>
+        <v>66.61159972477927</v>
       </c>
       <c r="O5" t="n">
-        <v>8.178000618083095</v>
+        <v>8.161592964904539</v>
       </c>
       <c r="P5" t="n">
-        <v>329.2711612309237</v>
+        <v>329.2740220121878</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29130,28 +29212,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2861174015298831</v>
+        <v>-0.2823255279566083</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0379699593820908</v>
+        <v>0.03726352425560386</v>
       </c>
       <c r="M6" t="n">
-        <v>8.303743342550757</v>
+        <v>8.287923636377224</v>
       </c>
       <c r="N6" t="n">
-        <v>108.7064978482402</v>
+        <v>108.3529289671947</v>
       </c>
       <c r="O6" t="n">
-        <v>10.42624083014775</v>
+        <v>10.40927129856815</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9463456537039</v>
+        <v>324.9078794628276</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29208,28 +29290,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5297159781003016</v>
+        <v>-0.5275129709075431</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08058101093609926</v>
+        <v>0.08051905087039057</v>
       </c>
       <c r="M7" t="n">
-        <v>9.960652822757112</v>
+        <v>9.932021962049902</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2481738827182</v>
+        <v>166.6121180882593</v>
       </c>
       <c r="O7" t="n">
-        <v>12.93244655441182</v>
+        <v>12.90783165710877</v>
       </c>
       <c r="P7" t="n">
-        <v>327.5054576677691</v>
+        <v>327.4829744820739</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29286,28 +29368,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5658242454875482</v>
+        <v>-0.5697537690232261</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08067718723959805</v>
+        <v>0.08225118330076497</v>
       </c>
       <c r="M8" t="n">
-        <v>10.3145282372594</v>
+        <v>10.29139773283976</v>
       </c>
       <c r="N8" t="n">
-        <v>184.6022980935541</v>
+        <v>183.9435057890676</v>
       </c>
       <c r="O8" t="n">
-        <v>13.58684283023669</v>
+        <v>13.56257740214107</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0189044945563</v>
+        <v>331.0601605449465</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29364,28 +29446,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5759183990516217</v>
+        <v>-0.5789261805209925</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06525849409844464</v>
+        <v>0.0663517143582234</v>
       </c>
       <c r="M9" t="n">
-        <v>12.29554046968036</v>
+        <v>12.26041955570695</v>
       </c>
       <c r="N9" t="n">
-        <v>238.2131751392475</v>
+        <v>237.3274303053014</v>
       </c>
       <c r="O9" t="n">
-        <v>15.43415612008793</v>
+        <v>15.40543508977599</v>
       </c>
       <c r="P9" t="n">
-        <v>337.443943091144</v>
+        <v>337.4755875156641</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29442,28 +29524,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6223692887716723</v>
+        <v>-0.6253893226011382</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07101230849475693</v>
+        <v>0.07215230849558996</v>
       </c>
       <c r="M10" t="n">
-        <v>12.59142025085192</v>
+        <v>12.55531416260522</v>
       </c>
       <c r="N10" t="n">
-        <v>252.5044306917178</v>
+        <v>251.5242730620676</v>
       </c>
       <c r="O10" t="n">
-        <v>15.89038799689038</v>
+        <v>15.85951679787463</v>
       </c>
       <c r="P10" t="n">
-        <v>349.9274013872874</v>
+        <v>349.9594855063222</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29520,28 +29602,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4354283842018339</v>
+        <v>-0.4381377081373141</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K11" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03212155000827743</v>
+        <v>0.032762303839866</v>
       </c>
       <c r="M11" t="n">
-        <v>13.14350274618799</v>
+        <v>13.10178592640369</v>
       </c>
       <c r="N11" t="n">
-        <v>286.1977202059782</v>
+        <v>285.0248823097817</v>
       </c>
       <c r="O11" t="n">
-        <v>16.91737923574388</v>
+        <v>16.88267995046348</v>
       </c>
       <c r="P11" t="n">
-        <v>354.3624830077648</v>
+        <v>354.3910047474214</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29598,28 +29680,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5451490302972583</v>
+        <v>-0.5435047733703745</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K12" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04944385605268753</v>
+        <v>0.04954100716297916</v>
       </c>
       <c r="M12" t="n">
-        <v>13.33290462915841</v>
+        <v>13.28417266109186</v>
       </c>
       <c r="N12" t="n">
-        <v>283.4673071047968</v>
+        <v>282.2671342202705</v>
       </c>
       <c r="O12" t="n">
-        <v>16.83648737429505</v>
+        <v>16.8008075466708</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9661113881613</v>
+        <v>361.9486501720201</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29676,28 +29758,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5985202258055135</v>
+        <v>-0.5873191429299928</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04754288684531693</v>
+        <v>0.04612653825020763</v>
       </c>
       <c r="M13" t="n">
-        <v>15.01059049497806</v>
+        <v>15.00496086870637</v>
       </c>
       <c r="N13" t="n">
-        <v>361.9884916279781</v>
+        <v>361.1728964915876</v>
       </c>
       <c r="O13" t="n">
-        <v>19.02599515473444</v>
+        <v>19.00454936302325</v>
       </c>
       <c r="P13" t="n">
-        <v>367.8114567027698</v>
+        <v>367.6934169196323</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29754,28 +29836,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4941181508717588</v>
+        <v>-0.4944701038669339</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03317087264134833</v>
+        <v>0.03348844871335466</v>
       </c>
       <c r="M14" t="n">
-        <v>15.06767509644016</v>
+        <v>15.00446738839966</v>
       </c>
       <c r="N14" t="n">
-        <v>364.7786419992307</v>
+        <v>363.2070729573848</v>
       </c>
       <c r="O14" t="n">
-        <v>19.09917909228642</v>
+        <v>19.05799236429128</v>
       </c>
       <c r="P14" t="n">
-        <v>368.8736580655774</v>
+        <v>368.877285705129</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29832,28 +29914,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7367439403337969</v>
+        <v>-0.7426811368581062</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K15" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04810831333354959</v>
+        <v>0.04923267401301568</v>
       </c>
       <c r="M15" t="n">
-        <v>16.90152627023412</v>
+        <v>16.86489202604866</v>
       </c>
       <c r="N15" t="n">
-        <v>533.3804609308789</v>
+        <v>531.2024922779344</v>
       </c>
       <c r="O15" t="n">
-        <v>23.09503108746292</v>
+        <v>23.04783053300103</v>
       </c>
       <c r="P15" t="n">
-        <v>374.3167268050015</v>
+        <v>374.3795325629959</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29910,28 +29992,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4468122600509523</v>
+        <v>-0.4566789664534027</v>
       </c>
       <c r="J16" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K16" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02164157695983082</v>
+        <v>0.02274655566000727</v>
       </c>
       <c r="M16" t="n">
-        <v>16.89943742959077</v>
+        <v>16.88385749668261</v>
       </c>
       <c r="N16" t="n">
-        <v>459.2783165338539</v>
+        <v>457.8096707653715</v>
       </c>
       <c r="O16" t="n">
-        <v>21.43077965296302</v>
+        <v>21.39648734641674</v>
       </c>
       <c r="P16" t="n">
-        <v>375.7411965479142</v>
+        <v>375.8440460433547</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29988,28 +30070,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3519379126421698</v>
+        <v>-0.3606175346440794</v>
       </c>
       <c r="J17" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K17" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01218525067139153</v>
+        <v>0.01289920398729005</v>
       </c>
       <c r="M17" t="n">
-        <v>18.24593669519968</v>
+        <v>18.21052696058645</v>
       </c>
       <c r="N17" t="n">
-        <v>516.8964849379129</v>
+        <v>514.8460997312066</v>
       </c>
       <c r="O17" t="n">
-        <v>22.73535759423882</v>
+        <v>22.69022035439952</v>
       </c>
       <c r="P17" t="n">
-        <v>374.7891369881035</v>
+        <v>374.8772800593903</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30069,7 +30151,7 @@
         <v>-0.3430104818409074</v>
       </c>
       <c r="J18" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K18" t="n">
         <v>218</v>
@@ -30147,7 +30229,7 @@
         <v>-0.112453566873026</v>
       </c>
       <c r="J19" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K19" t="n">
         <v>225</v>
@@ -30225,7 +30307,7 @@
         <v>0.04534537404993434</v>
       </c>
       <c r="J20" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" t="n">
         <v>211</v>
@@ -30303,7 +30385,7 @@
         <v>0.06342599286359642</v>
       </c>
       <c r="J21" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" t="n">
         <v>227</v>
@@ -30381,7 +30463,7 @@
         <v>0.2164925166171042</v>
       </c>
       <c r="J22" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K22" t="n">
         <v>221</v>
@@ -30459,7 +30541,7 @@
         <v>0.245966833732907</v>
       </c>
       <c r="J23" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K23" t="n">
         <v>229</v>
@@ -30537,7 +30619,7 @@
         <v>-0.04955584111164877</v>
       </c>
       <c r="J24" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K24" t="n">
         <v>235</v>
@@ -30615,7 +30697,7 @@
         <v>-0.01676694033168344</v>
       </c>
       <c r="J25" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K25" t="n">
         <v>229</v>
@@ -30693,7 +30775,7 @@
         <v>0.1205620002426012</v>
       </c>
       <c r="J26" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K26" t="n">
         <v>207</v>
@@ -30771,7 +30853,7 @@
         <v>-0.1139578156895419</v>
       </c>
       <c r="J27" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K27" t="n">
         <v>201</v>
@@ -30849,7 +30931,7 @@
         <v>-0.1595927842607124</v>
       </c>
       <c r="J28" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K28" t="n">
         <v>181</v>
@@ -30921,7 +31003,7 @@
         <v>0.07533559109743271</v>
       </c>
       <c r="J29" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K29" t="n">
         <v>143</v>
@@ -30977,7 +31059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD309"/>
+  <dimension ref="A1:AD310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34401,7 +34483,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-38.37949886470369,174.65823116067637</t>
+          <t>-38.379498864703685,174.65823116067637</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -65897,7 +65979,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>-38.38218160962075,174.65705839383216</t>
+          <t>-38.38218160962076,174.65705839383216</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -68147,7 +68229,7 @@
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>-38.37271524105014,174.66069874832348</t>
+          <t>-38.37271524105013,174.66069874832348</t>
         </is>
       </c>
       <c r="U306" t="inlineStr">
@@ -68648,6 +68730,110 @@
       </c>
       <c r="AC309" t="inlineStr"/>
       <c r="AD309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-38.38458045347326,174.6551240888442</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-38.38396683261095,174.6555700361662</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-38.38339715592118,174.65613480520713</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-38.38277969835156,174.65657040937313</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-38.38214937312629,174.65697123960783</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-38.38153709680573,174.65742088151015</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-38.38092372434206,174.65786757477434</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-38.38026235100616,174.65818450884623</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-38.37957464704927,174.65846508469596</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-38.37887158395453,174.6586784702591</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-38.37816769771398,174.65882806055876</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-38.377453767497514,174.6589115963692</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-38.37680421197448,174.65928034542733</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-38.376147322233514,174.65961663100754</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-38.37546259252041,174.6598296113321</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-38.37477883306258,174.66004674955633</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr"/>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="inlineStr"/>
+      <c r="AB310" t="inlineStr"/>
+      <c r="AC310" t="inlineStr"/>
+      <c r="AD310" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD310"/>
+  <dimension ref="A1:AD311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25578,6 +25578,94 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>354.21</v>
+      </c>
+      <c r="C311" t="n">
+        <v>344.4176470588235</v>
+      </c>
+      <c r="D311" t="n">
+        <v>339.31</v>
+      </c>
+      <c r="E311" t="n">
+        <v>336.5814285714285</v>
+      </c>
+      <c r="F311" t="n">
+        <v>325.0527272727272</v>
+      </c>
+      <c r="G311" t="n">
+        <v>321.4</v>
+      </c>
+      <c r="H311" t="n">
+        <v>333.6627272727272</v>
+      </c>
+      <c r="I311" t="n">
+        <v>322.61</v>
+      </c>
+      <c r="J311" t="n">
+        <v>334.3200000000001</v>
+      </c>
+      <c r="K311" t="n">
+        <v>345.9827272727272</v>
+      </c>
+      <c r="L311" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="M311" t="n">
+        <v>358.68</v>
+      </c>
+      <c r="N311" t="n">
+        <v>364.3027272727272</v>
+      </c>
+      <c r="O311" t="n">
+        <v>372.22</v>
+      </c>
+      <c r="P311" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>362.1228571428572</v>
+      </c>
+      <c r="R311" t="n">
+        <v>378.6428571428572</v>
+      </c>
+      <c r="S311" t="n">
+        <v>375.3</v>
+      </c>
+      <c r="T311" t="n">
+        <v>371.5127272727273</v>
+      </c>
+      <c r="U311" t="n">
+        <v>368.46</v>
+      </c>
+      <c r="V311" t="n">
+        <v>378.28</v>
+      </c>
+      <c r="W311" t="n">
+        <v>379.53</v>
+      </c>
+      <c r="X311" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>375.9500000000001</v>
+      </c>
+      <c r="Z311" t="inlineStr"/>
+      <c r="AA311" t="inlineStr"/>
+      <c r="AB311" t="inlineStr"/>
+      <c r="AC311" t="inlineStr"/>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25589,7 +25677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28727,6 +28815,16 @@
       </c>
       <c r="B313" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -28900,28 +28998,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7390114366037905</v>
+        <v>-0.7353870922665311</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2444489760881124</v>
+        <v>0.2438492180566505</v>
       </c>
       <c r="M2" t="n">
-        <v>7.345434005269014</v>
+        <v>7.333970271897597</v>
       </c>
       <c r="N2" t="n">
-        <v>89.93829585994409</v>
+        <v>89.66613258341341</v>
       </c>
       <c r="O2" t="n">
-        <v>9.483580329176533</v>
+        <v>9.469220273254468</v>
       </c>
       <c r="P2" t="n">
-        <v>368.2410143455429</v>
+        <v>368.2042893905961</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28978,28 +29076,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.52036518778828</v>
+        <v>-0.5158545584633092</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1681140952436631</v>
+        <v>0.166508167085349</v>
       </c>
       <c r="M3" t="n">
-        <v>6.38828227197859</v>
+        <v>6.384097731660861</v>
       </c>
       <c r="N3" t="n">
-        <v>73.41008391093987</v>
+        <v>73.24134080818448</v>
       </c>
       <c r="O3" t="n">
-        <v>8.567968482139735</v>
+        <v>8.558115493973219</v>
       </c>
       <c r="P3" t="n">
-        <v>351.8423873382254</v>
+        <v>351.7974747801533</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29056,28 +29154,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3704749386965607</v>
+        <v>-0.3636853575387776</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1132830154238056</v>
+        <v>0.1098272856523904</v>
       </c>
       <c r="M4" t="n">
-        <v>5.877410908658652</v>
+        <v>5.889369300983215</v>
       </c>
       <c r="N4" t="n">
-        <v>57.66779352691484</v>
+        <v>57.74971881595472</v>
       </c>
       <c r="O4" t="n">
-        <v>7.593931361746354</v>
+        <v>7.599323576210893</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8963718905785</v>
+        <v>339.8277635297538</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29134,28 +29232,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2204573563879464</v>
+        <v>-0.2103740926425633</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03624685519968562</v>
+        <v>0.033051530820709</v>
       </c>
       <c r="M5" t="n">
-        <v>6.388871846554994</v>
+        <v>6.413135750489206</v>
       </c>
       <c r="N5" t="n">
-        <v>66.61159972477927</v>
+        <v>67.0052466190398</v>
       </c>
       <c r="O5" t="n">
-        <v>8.161592964904539</v>
+        <v>8.185673253864937</v>
       </c>
       <c r="P5" t="n">
-        <v>329.2740220121878</v>
+        <v>329.1706497799223</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29212,28 +29310,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2823255279566083</v>
+        <v>-0.2765903331700105</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03726352425560386</v>
+        <v>0.03602370303858904</v>
       </c>
       <c r="M6" t="n">
-        <v>8.287923636377224</v>
+        <v>8.281700814932664</v>
       </c>
       <c r="N6" t="n">
-        <v>108.3529289671947</v>
+        <v>108.1268102710817</v>
       </c>
       <c r="O6" t="n">
-        <v>10.40927129856815</v>
+        <v>10.39840421752692</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9078794628276</v>
+        <v>324.8496347649034</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29290,28 +29388,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5275129709075431</v>
+        <v>-0.5219524163256808</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08051905087039057</v>
+        <v>0.07942520867406921</v>
       </c>
       <c r="M7" t="n">
-        <v>9.932021962049902</v>
+        <v>9.920573774520946</v>
       </c>
       <c r="N7" t="n">
-        <v>166.6121180882593</v>
+        <v>166.1613228139481</v>
       </c>
       <c r="O7" t="n">
-        <v>12.90783165710877</v>
+        <v>12.8903577457706</v>
       </c>
       <c r="P7" t="n">
-        <v>327.4829744820739</v>
+        <v>327.4261615834</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29368,28 +29466,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5697537690232261</v>
+        <v>-0.5563783381345522</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08225118330076497</v>
+        <v>0.07882212593857219</v>
       </c>
       <c r="M8" t="n">
-        <v>10.29139773283976</v>
+        <v>10.32259806590984</v>
       </c>
       <c r="N8" t="n">
-        <v>183.9435057890676</v>
+        <v>184.3762296753291</v>
       </c>
       <c r="O8" t="n">
-        <v>13.56257740214107</v>
+        <v>13.57852089424062</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0601605449465</v>
+        <v>330.9195753480928</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29446,28 +29544,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5789261805209925</v>
+        <v>-0.5790169099297784</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0663517143582234</v>
+        <v>0.06683943088548128</v>
       </c>
       <c r="M9" t="n">
-        <v>12.26041955570695</v>
+        <v>12.21236913050439</v>
       </c>
       <c r="N9" t="n">
-        <v>237.3274303053014</v>
+        <v>236.3894322027568</v>
       </c>
       <c r="O9" t="n">
-        <v>15.40543508977599</v>
+        <v>15.37496120979682</v>
       </c>
       <c r="P9" t="n">
-        <v>337.4755875156641</v>
+        <v>337.4765431074838</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29524,28 +29622,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6253893226011382</v>
+        <v>-0.6251606494957913</v>
       </c>
       <c r="J10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07215230849558996</v>
+        <v>0.07261473370348004</v>
       </c>
       <c r="M10" t="n">
-        <v>12.55531416260522</v>
+        <v>12.50503377053557</v>
       </c>
       <c r="N10" t="n">
-        <v>251.5242730620676</v>
+        <v>250.4937789648682</v>
       </c>
       <c r="O10" t="n">
-        <v>15.85951679787463</v>
+        <v>15.82699526015182</v>
       </c>
       <c r="P10" t="n">
-        <v>349.9594855063222</v>
+        <v>349.9570534480757</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29602,28 +29700,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4381377081373141</v>
+        <v>-0.4358822461945855</v>
       </c>
       <c r="J11" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.032762303839866</v>
+        <v>0.03268738458982845</v>
       </c>
       <c r="M11" t="n">
-        <v>13.10178592640369</v>
+        <v>13.05755331273499</v>
       </c>
       <c r="N11" t="n">
-        <v>285.0248823097817</v>
+        <v>283.848857096592</v>
       </c>
       <c r="O11" t="n">
-        <v>16.88267995046348</v>
+        <v>16.8478146089216</v>
       </c>
       <c r="P11" t="n">
-        <v>354.3910047474214</v>
+        <v>354.3672350267016</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29680,28 +29778,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5435047733703745</v>
+        <v>-0.542739047806639</v>
       </c>
       <c r="J12" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04954100716297916</v>
+        <v>0.04978800791223381</v>
       </c>
       <c r="M12" t="n">
-        <v>13.28417266109186</v>
+        <v>13.23133106392178</v>
       </c>
       <c r="N12" t="n">
-        <v>282.2671342202705</v>
+        <v>281.0644840837497</v>
       </c>
       <c r="O12" t="n">
-        <v>16.8008075466708</v>
+        <v>16.7649779028709</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9486501720201</v>
+        <v>361.9405096653986</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29758,28 +29856,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5873191429299928</v>
+        <v>-0.5823803833880887</v>
       </c>
       <c r="J13" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04612653825020763</v>
+        <v>0.04572256427991972</v>
       </c>
       <c r="M13" t="n">
-        <v>15.00496086870637</v>
+        <v>14.96580659197758</v>
       </c>
       <c r="N13" t="n">
-        <v>361.1728964915876</v>
+        <v>359.748266188588</v>
       </c>
       <c r="O13" t="n">
-        <v>19.00454936302325</v>
+        <v>18.9670310325203</v>
       </c>
       <c r="P13" t="n">
-        <v>367.6934169196323</v>
+        <v>367.6413127880057</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29836,28 +29934,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4944701038669339</v>
+        <v>-0.4878271674892332</v>
       </c>
       <c r="J14" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03348844871335466</v>
+        <v>0.03286377912230087</v>
       </c>
       <c r="M14" t="n">
-        <v>15.00446738839966</v>
+        <v>14.97544811471813</v>
       </c>
       <c r="N14" t="n">
-        <v>363.2070729573848</v>
+        <v>361.920904953896</v>
       </c>
       <c r="O14" t="n">
-        <v>19.05799236429128</v>
+        <v>19.02421890522436</v>
       </c>
       <c r="P14" t="n">
-        <v>368.877285705129</v>
+        <v>368.8087410020616</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29914,28 +30012,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7426811368581062</v>
+        <v>-0.7281851711887601</v>
       </c>
       <c r="J15" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04923267401301568</v>
+        <v>0.04769952869009153</v>
       </c>
       <c r="M15" t="n">
-        <v>16.86489202604866</v>
+        <v>16.84311989861658</v>
       </c>
       <c r="N15" t="n">
-        <v>531.2024922779344</v>
+        <v>530.0737714325159</v>
       </c>
       <c r="O15" t="n">
-        <v>23.04783053300103</v>
+        <v>23.02333102382268</v>
       </c>
       <c r="P15" t="n">
-        <v>374.3795325629959</v>
+        <v>374.2260235032851</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29992,28 +30090,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4566789664534027</v>
+        <v>-0.4576485259672846</v>
       </c>
       <c r="J16" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02274655566000727</v>
+        <v>0.02302910410190129</v>
       </c>
       <c r="M16" t="n">
-        <v>16.88385749668261</v>
+        <v>16.8146855850547</v>
       </c>
       <c r="N16" t="n">
-        <v>457.8096707653715</v>
+        <v>455.7806741188517</v>
       </c>
       <c r="O16" t="n">
-        <v>21.39648734641674</v>
+        <v>21.34902044869628</v>
       </c>
       <c r="P16" t="n">
-        <v>375.8440460433547</v>
+        <v>375.8541638352716</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30070,28 +30168,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3606175346440794</v>
+        <v>-0.363926795139062</v>
       </c>
       <c r="J17" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01289920398729005</v>
+        <v>0.01325700382497563</v>
       </c>
       <c r="M17" t="n">
-        <v>18.21052696058645</v>
+        <v>18.1439661012219</v>
       </c>
       <c r="N17" t="n">
-        <v>514.8460997312066</v>
+        <v>512.4767921971409</v>
       </c>
       <c r="O17" t="n">
-        <v>22.69022035439952</v>
+        <v>22.6379502649233</v>
       </c>
       <c r="P17" t="n">
-        <v>374.8772800593903</v>
+        <v>374.9109218107301</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30148,28 +30246,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3430104818409074</v>
+        <v>-0.332689249397494</v>
       </c>
       <c r="J18" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01446996751021379</v>
+        <v>0.01373059405694033</v>
       </c>
       <c r="M18" t="n">
-        <v>16.00315657126733</v>
+        <v>15.9764342502399</v>
       </c>
       <c r="N18" t="n">
-        <v>400.4471643018088</v>
+        <v>399.1889417329967</v>
       </c>
       <c r="O18" t="n">
-        <v>20.01117598497921</v>
+        <v>19.97971325452387</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1266355091779</v>
+        <v>376.0191992469361</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30226,28 +30324,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.112453566873026</v>
+        <v>-0.1056178197790687</v>
       </c>
       <c r="J19" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K19" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001489908813604668</v>
+        <v>0.001325913799149037</v>
       </c>
       <c r="M19" t="n">
-        <v>16.63215139876895</v>
+        <v>16.58630257431707</v>
       </c>
       <c r="N19" t="n">
-        <v>416.3818056170314</v>
+        <v>414.7876948394727</v>
       </c>
       <c r="O19" t="n">
-        <v>20.40543568799822</v>
+        <v>20.36633729563253</v>
       </c>
       <c r="P19" t="n">
-        <v>370.6222567489312</v>
+        <v>370.550625691294</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30304,28 +30402,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04534537404993434</v>
+        <v>0.05304303492286583</v>
       </c>
       <c r="J20" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K20" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002573858156353914</v>
+        <v>0.000355176641814503</v>
       </c>
       <c r="M20" t="n">
-        <v>16.75724547170384</v>
+        <v>16.71091015835995</v>
       </c>
       <c r="N20" t="n">
-        <v>402.7380714065476</v>
+        <v>401.1581310240561</v>
       </c>
       <c r="O20" t="n">
-        <v>20.06833504321043</v>
+        <v>20.02893234858154</v>
       </c>
       <c r="P20" t="n">
-        <v>362.0660009439952</v>
+        <v>361.9857788028875</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30382,28 +30480,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06342599286359642</v>
+        <v>0.06947095971192005</v>
       </c>
       <c r="J21" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004783051664242199</v>
+        <v>0.0005784033319625737</v>
       </c>
       <c r="M21" t="n">
-        <v>17.02259013832724</v>
+        <v>16.97261872278786</v>
       </c>
       <c r="N21" t="n">
-        <v>427.647544498227</v>
+        <v>425.9889746925401</v>
       </c>
       <c r="O21" t="n">
-        <v>20.67964082130604</v>
+        <v>20.63950034987621</v>
       </c>
       <c r="P21" t="n">
-        <v>359.7634528700344</v>
+        <v>359.7006308783862</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30460,28 +30558,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2164925166171042</v>
+        <v>0.2326978849488402</v>
       </c>
       <c r="J22" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K22" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00506742751000322</v>
+        <v>0.005882839937273565</v>
       </c>
       <c r="M22" t="n">
-        <v>17.53495859992291</v>
+        <v>17.5319103016046</v>
       </c>
       <c r="N22" t="n">
-        <v>470.1544255933925</v>
+        <v>469.547570965955</v>
       </c>
       <c r="O22" t="n">
-        <v>21.68304465690629</v>
+        <v>21.66904637878545</v>
       </c>
       <c r="P22" t="n">
-        <v>354.3274061051056</v>
+        <v>354.1599180304722</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30538,28 +30636,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.245966833732907</v>
+        <v>0.2644812605855756</v>
       </c>
       <c r="J23" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K23" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006505680816016768</v>
+        <v>0.007545573541851036</v>
       </c>
       <c r="M23" t="n">
-        <v>17.91319881995795</v>
+        <v>17.92583954085994</v>
       </c>
       <c r="N23" t="n">
-        <v>482.4533963290081</v>
+        <v>482.4517903159397</v>
       </c>
       <c r="O23" t="n">
-        <v>21.96482179142385</v>
+        <v>21.96478523263862</v>
       </c>
       <c r="P23" t="n">
-        <v>351.1660464394072</v>
+        <v>350.9775914895511</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30616,28 +30714,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.04955584111164877</v>
+        <v>-0.02559959161781549</v>
       </c>
       <c r="J24" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K24" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002941861523203526</v>
+        <v>7.852196947621959e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>16.58384394921919</v>
+        <v>16.63187710221112</v>
       </c>
       <c r="N24" t="n">
-        <v>423.7944655691938</v>
+        <v>425.513332854082</v>
       </c>
       <c r="O24" t="n">
-        <v>20.58626885982969</v>
+        <v>20.62797452136496</v>
       </c>
       <c r="P24" t="n">
-        <v>349.9210984550089</v>
+        <v>349.671953257558</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30694,28 +30792,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01676694033168344</v>
+        <v>0.01195984013489279</v>
       </c>
       <c r="J25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K25" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="n">
-        <v>3.098137039936333e-05</v>
+        <v>1.572327146592833e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>16.90568967105056</v>
+        <v>16.96296511221631</v>
       </c>
       <c r="N25" t="n">
-        <v>447.276454722317</v>
+        <v>450.208082589033</v>
       </c>
       <c r="O25" t="n">
-        <v>21.14891143114267</v>
+        <v>21.21810742241242</v>
       </c>
       <c r="P25" t="n">
-        <v>342.6742448171915</v>
+        <v>342.3677293699044</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30775,7 +30873,7 @@
         <v>0.1205620002426012</v>
       </c>
       <c r="J26" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K26" t="n">
         <v>207</v>
@@ -30853,7 +30951,7 @@
         <v>-0.1139578156895419</v>
       </c>
       <c r="J27" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K27" t="n">
         <v>201</v>
@@ -30931,7 +31029,7 @@
         <v>-0.1595927842607124</v>
       </c>
       <c r="J28" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K28" t="n">
         <v>181</v>
@@ -31003,7 +31101,7 @@
         <v>0.07533559109743271</v>
       </c>
       <c r="J29" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K29" t="n">
         <v>143</v>
@@ -31059,7 +31157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD310"/>
+  <dimension ref="A1:AD311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68839,6 +68937,142 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-38.38456196412678,174.65507410142723</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-38.38396593998956,174.65556762289205</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-38.38335195831923,174.65601260961995</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-38.38272885445466,174.65643294866163</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-38.38213946598188,174.65694445481492</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-38.38151989179212,174.65737436633918</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-38.38083932646588,174.65763939891644</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-38.380248096671195,174.65814597125856</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-38.37956079366078,174.6584223220796</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-38.37885514455018,174.65861334129036</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-38.37817025579492,174.65883939315714</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-38.377471773402206,174.65899136388234</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-38.37678328688076,174.65918764588653</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-38.37608909556763,174.65935868393552</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-38.37543728538758,174.65971749967935</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-38.37476405588694,174.659986218523</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-38.37404788512158,174.66010291887326</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-38.37339829659793,174.6604640475035</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-38.372753346024574,174.66082865489815</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-38.372106094898584,174.66118537807705</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>-38.37141943566203,174.6614033020703</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>-38.370756721592855,174.66170267113893</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>-38.37010239227075,174.66203632475296</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>-38.36944744924418,174.66236782315883</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr"/>
+      <c r="AA311" t="inlineStr"/>
+      <c r="AB311" t="inlineStr"/>
+      <c r="AC311" t="inlineStr"/>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD311"/>
+  <dimension ref="A1:AD312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25666,6 +25666,92 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>370.035</v>
+      </c>
+      <c r="C312" t="n">
+        <v>355.7129411764706</v>
+      </c>
+      <c r="D312" t="n">
+        <v>355.805</v>
+      </c>
+      <c r="E312" t="n">
+        <v>343.1471428571429</v>
+      </c>
+      <c r="F312" t="n">
+        <v>343.5827272727273</v>
+      </c>
+      <c r="G312" t="n">
+        <v>330.39</v>
+      </c>
+      <c r="H312" t="n">
+        <v>330.0727272727273</v>
+      </c>
+      <c r="I312" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="J312" t="n">
+        <v>349.76</v>
+      </c>
+      <c r="K312" t="n">
+        <v>346.8127272727273</v>
+      </c>
+      <c r="L312" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="M312" t="n">
+        <v>365.84</v>
+      </c>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="n">
+        <v>365.24</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>382.5542857142857</v>
+      </c>
+      <c r="R312" t="n">
+        <v>368.0142857142857</v>
+      </c>
+      <c r="S312" t="n">
+        <v>365.09</v>
+      </c>
+      <c r="T312" t="n">
+        <v>365.8127272727273</v>
+      </c>
+      <c r="U312" t="n">
+        <v>377.82</v>
+      </c>
+      <c r="V312" t="n">
+        <v>380.6788888888889</v>
+      </c>
+      <c r="W312" t="n">
+        <v>378.98</v>
+      </c>
+      <c r="X312" t="n">
+        <v>375.34</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>373.29</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>368.9888888888889</v>
+      </c>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25677,7 +25763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28825,6 +28911,16 @@
       </c>
       <c r="B314" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -28998,28 +29094,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7353870922665311</v>
+        <v>-0.7197917130663823</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2438492180566505</v>
+        <v>0.2340207293735869</v>
       </c>
       <c r="M2" t="n">
-        <v>7.333970271897597</v>
+        <v>7.382021083903629</v>
       </c>
       <c r="N2" t="n">
-        <v>89.66613258341341</v>
+        <v>91.00299705318481</v>
       </c>
       <c r="O2" t="n">
-        <v>9.469220273254468</v>
+        <v>9.539549101146491</v>
       </c>
       <c r="P2" t="n">
-        <v>368.2042893905961</v>
+        <v>368.0453576829931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29076,28 +29172,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5158545584633092</v>
+        <v>-0.5026325757859094</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.166508167085349</v>
+        <v>0.1582592665495246</v>
       </c>
       <c r="M3" t="n">
-        <v>6.384097731660861</v>
+        <v>6.423754323373015</v>
       </c>
       <c r="N3" t="n">
-        <v>73.24134080818448</v>
+        <v>74.15301844066443</v>
       </c>
       <c r="O3" t="n">
-        <v>8.558115493973219</v>
+        <v>8.61121469019699</v>
       </c>
       <c r="P3" t="n">
-        <v>351.7974747801533</v>
+        <v>351.6650413426274</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29154,28 +29250,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3636853575387776</v>
+        <v>-0.3443100229340927</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1098272856523904</v>
+        <v>0.09633439225738594</v>
       </c>
       <c r="M4" t="n">
-        <v>5.889369300983215</v>
+        <v>5.969464284427627</v>
       </c>
       <c r="N4" t="n">
-        <v>57.74971881595472</v>
+        <v>60.12094708981077</v>
       </c>
       <c r="O4" t="n">
-        <v>7.599323576210893</v>
+        <v>7.753769863093098</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8277635297538</v>
+        <v>339.6308368765147</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29232,28 +29328,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2103740926425633</v>
+        <v>-0.1952876001793434</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.033051530820709</v>
+        <v>0.02822858894736424</v>
       </c>
       <c r="M5" t="n">
-        <v>6.413135750489206</v>
+        <v>6.462144229723068</v>
       </c>
       <c r="N5" t="n">
-        <v>67.0052466190398</v>
+        <v>68.2135355857603</v>
       </c>
       <c r="O5" t="n">
-        <v>8.185673253864937</v>
+        <v>8.259148599326707</v>
       </c>
       <c r="P5" t="n">
-        <v>329.1706497799223</v>
+        <v>329.0151550724605</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29310,28 +29406,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2765903331700105</v>
+        <v>-0.2564400581620647</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03602370303858904</v>
+        <v>0.03062514349836354</v>
       </c>
       <c r="M6" t="n">
-        <v>8.281700814932664</v>
+        <v>8.345118708685419</v>
       </c>
       <c r="N6" t="n">
-        <v>108.1268102710817</v>
+        <v>110.3716348308068</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39840421752692</v>
+        <v>10.50579053811786</v>
       </c>
       <c r="P6" t="n">
-        <v>324.8496347649034</v>
+        <v>324.6438593909738</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29388,28 +29484,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5219524163256808</v>
+        <v>-0.5096244879130852</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07942520867406921</v>
+        <v>0.07609549839792973</v>
       </c>
       <c r="M7" t="n">
-        <v>9.920573774520946</v>
+        <v>9.943020832203</v>
       </c>
       <c r="N7" t="n">
-        <v>166.1613228139481</v>
+        <v>166.5462168167487</v>
       </c>
       <c r="O7" t="n">
-        <v>12.8903577457706</v>
+        <v>12.9052786415772</v>
       </c>
       <c r="P7" t="n">
-        <v>327.4261615834</v>
+        <v>327.2995009308099</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29466,28 +29562,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5563783381345522</v>
+        <v>-0.545923288586333</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07882212593857219</v>
+        <v>0.07637690640051165</v>
       </c>
       <c r="M8" t="n">
-        <v>10.32259806590984</v>
+        <v>10.33730178762045</v>
       </c>
       <c r="N8" t="n">
-        <v>184.3762296753291</v>
+        <v>184.3465396883785</v>
       </c>
       <c r="O8" t="n">
-        <v>13.57852089424062</v>
+        <v>13.57742757993496</v>
       </c>
       <c r="P8" t="n">
-        <v>330.9195753480928</v>
+        <v>330.8090743844535</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29544,28 +29640,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5790169099297784</v>
+        <v>-0.5634609178825203</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06683943088548128</v>
+        <v>0.06356684481724284</v>
       </c>
       <c r="M9" t="n">
-        <v>12.21236913050439</v>
+        <v>12.25355434798215</v>
       </c>
       <c r="N9" t="n">
-        <v>236.3894322027568</v>
+        <v>237.0698685545883</v>
       </c>
       <c r="O9" t="n">
-        <v>15.37496120979682</v>
+        <v>15.39707337628123</v>
       </c>
       <c r="P9" t="n">
-        <v>337.4765431074838</v>
+        <v>337.3118114714951</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29622,28 +29718,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6251606494957913</v>
+        <v>-0.6127547400315686</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07261473370348004</v>
+        <v>0.0701985283041322</v>
       </c>
       <c r="M10" t="n">
-        <v>12.50503377053557</v>
+        <v>12.51683274460307</v>
       </c>
       <c r="N10" t="n">
-        <v>250.4937789648682</v>
+        <v>250.4778833566289</v>
       </c>
       <c r="O10" t="n">
-        <v>15.82699526015182</v>
+        <v>15.8264930845917</v>
       </c>
       <c r="P10" t="n">
-        <v>349.9570534480757</v>
+        <v>349.8243818498054</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29700,28 +29796,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4358822461945855</v>
+        <v>-0.4329386187202241</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03268738458982845</v>
+        <v>0.03250985612073498</v>
       </c>
       <c r="M11" t="n">
-        <v>13.05755331273499</v>
+        <v>13.01695258788437</v>
       </c>
       <c r="N11" t="n">
-        <v>283.848857096592</v>
+        <v>282.7050886149261</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8478146089216</v>
+        <v>16.81383622541049</v>
       </c>
       <c r="P11" t="n">
-        <v>354.3672350267016</v>
+        <v>354.3360440721002</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29778,28 +29874,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.542739047806639</v>
+        <v>-0.5440819876079173</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04978800791223381</v>
+        <v>0.05040742345408455</v>
       </c>
       <c r="M12" t="n">
-        <v>13.23133106392178</v>
+        <v>13.18191180118351</v>
       </c>
       <c r="N12" t="n">
-        <v>281.0644840837497</v>
+        <v>279.8795757734736</v>
       </c>
       <c r="O12" t="n">
-        <v>16.7649779028709</v>
+        <v>16.7296017816765</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9405096653986</v>
+        <v>361.9548642879369</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29856,28 +29952,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5823803833880887</v>
+        <v>-0.5715174500096079</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K13" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04572256427991972</v>
+        <v>0.04436458305263391</v>
       </c>
       <c r="M13" t="n">
-        <v>14.96580659197758</v>
+        <v>14.95782393995142</v>
       </c>
       <c r="N13" t="n">
-        <v>359.748266188588</v>
+        <v>358.9207173967469</v>
       </c>
       <c r="O13" t="n">
-        <v>18.9670310325203</v>
+        <v>18.94520301809265</v>
       </c>
       <c r="P13" t="n">
-        <v>367.6413127880057</v>
+        <v>367.5260682995815</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29937,7 +30033,7 @@
         <v>-0.4878271674892332</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K14" t="n">
         <v>233</v>
@@ -30015,7 +30111,7 @@
         <v>-0.7281851711887601</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" t="n">
         <v>225</v>
@@ -30090,28 +30186,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4576485259672846</v>
+        <v>-0.4567209411138581</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K16" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02302910410190129</v>
+        <v>0.02312778867592369</v>
       </c>
       <c r="M16" t="n">
-        <v>16.8146855850547</v>
+        <v>16.74430870535939</v>
       </c>
       <c r="N16" t="n">
-        <v>455.7806741188517</v>
+        <v>453.769169792987</v>
       </c>
       <c r="O16" t="n">
-        <v>21.34902044869628</v>
+        <v>21.30185836477623</v>
       </c>
       <c r="P16" t="n">
-        <v>375.8541638352716</v>
+        <v>375.8444304844304</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30168,28 +30264,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.363926795139062</v>
+        <v>-0.3482616762587922</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01325700382497563</v>
+        <v>0.01223801803834568</v>
       </c>
       <c r="M17" t="n">
-        <v>18.1439661012219</v>
+        <v>18.12552912432423</v>
       </c>
       <c r="N17" t="n">
-        <v>512.4767921971409</v>
+        <v>511.4010402168557</v>
       </c>
       <c r="O17" t="n">
-        <v>22.6379502649233</v>
+        <v>22.61417785852176</v>
       </c>
       <c r="P17" t="n">
-        <v>374.9109218107301</v>
+        <v>374.7508264070045</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30246,28 +30342,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.332689249397494</v>
+        <v>-0.3322265289415883</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K18" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01373059405694033</v>
+        <v>0.01381995697678817</v>
       </c>
       <c r="M18" t="n">
-        <v>15.9764342502399</v>
+        <v>15.90585927439432</v>
       </c>
       <c r="N18" t="n">
-        <v>399.1889417329967</v>
+        <v>397.3755947170458</v>
       </c>
       <c r="O18" t="n">
-        <v>19.97971325452387</v>
+        <v>19.93428189619696</v>
       </c>
       <c r="P18" t="n">
-        <v>376.0191992469361</v>
+        <v>376.0143579270234</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30324,28 +30420,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1056178197790687</v>
+        <v>-0.1081107651020967</v>
       </c>
       <c r="J19" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K19" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001325913799149037</v>
+        <v>0.001401977727989445</v>
       </c>
       <c r="M19" t="n">
-        <v>16.58630257431707</v>
+        <v>16.52724995582808</v>
       </c>
       <c r="N19" t="n">
-        <v>414.7876948394727</v>
+        <v>412.9935054147627</v>
       </c>
       <c r="O19" t="n">
-        <v>20.36633729563253</v>
+        <v>20.32224164344974</v>
       </c>
       <c r="P19" t="n">
-        <v>370.550625691294</v>
+        <v>370.5768793965424</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30402,28 +30498,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05304303492286583</v>
+        <v>0.05532884997767984</v>
       </c>
       <c r="J20" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K20" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000355176641814503</v>
+        <v>0.0003900455655121426</v>
       </c>
       <c r="M20" t="n">
-        <v>16.71091015835995</v>
+        <v>16.64200380595065</v>
       </c>
       <c r="N20" t="n">
-        <v>401.1581310240561</v>
+        <v>399.3030012885164</v>
       </c>
       <c r="O20" t="n">
-        <v>20.02893234858154</v>
+        <v>19.98256743485472</v>
       </c>
       <c r="P20" t="n">
-        <v>361.9857788028875</v>
+        <v>361.961830710647</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30480,28 +30576,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06947095971192005</v>
+        <v>0.08339403979365503</v>
       </c>
       <c r="J21" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K21" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005784033319625737</v>
+        <v>0.0008381845122134024</v>
       </c>
       <c r="M21" t="n">
-        <v>16.97261872278786</v>
+        <v>16.95562858055178</v>
       </c>
       <c r="N21" t="n">
-        <v>425.9889746925401</v>
+        <v>425.2799473472137</v>
       </c>
       <c r="O21" t="n">
-        <v>20.63950034987621</v>
+        <v>20.62231673084316</v>
       </c>
       <c r="P21" t="n">
-        <v>359.7006308783862</v>
+        <v>359.5551567407288</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30558,28 +30654,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2326978849488402</v>
+        <v>0.2507280028514732</v>
       </c>
       <c r="J22" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005882839937273565</v>
+        <v>0.006856745820904675</v>
       </c>
       <c r="M22" t="n">
-        <v>17.5319103016046</v>
+        <v>17.53787948369251</v>
       </c>
       <c r="N22" t="n">
-        <v>469.547570965955</v>
+        <v>469.3133955271932</v>
       </c>
       <c r="O22" t="n">
-        <v>21.66904637878545</v>
+        <v>21.66364224979708</v>
       </c>
       <c r="P22" t="n">
-        <v>354.1599180304722</v>
+        <v>353.9725707733002</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30636,28 +30732,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2644812605855756</v>
+        <v>0.2822354425212063</v>
       </c>
       <c r="J23" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K23" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007545573541851036</v>
+        <v>0.008622626242518749</v>
       </c>
       <c r="M23" t="n">
-        <v>17.92583954085994</v>
+        <v>17.93542549675879</v>
       </c>
       <c r="N23" t="n">
-        <v>482.4517903159397</v>
+        <v>482.2905041093399</v>
       </c>
       <c r="O23" t="n">
-        <v>21.96478523263862</v>
+        <v>21.96111345331424</v>
       </c>
       <c r="P23" t="n">
-        <v>350.9775914895511</v>
+        <v>350.7958870842446</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30714,28 +30810,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02559959161781549</v>
+        <v>-0.003875775388507639</v>
       </c>
       <c r="J24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K24" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="n">
-        <v>7.852196947621959e-05</v>
+        <v>1.8027930512865e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>16.63187710221112</v>
+        <v>16.66734586480787</v>
       </c>
       <c r="N24" t="n">
-        <v>425.513332854082</v>
+        <v>426.6050387621984</v>
       </c>
       <c r="O24" t="n">
-        <v>20.62797452136496</v>
+        <v>20.65441935185297</v>
       </c>
       <c r="P24" t="n">
-        <v>349.671953257558</v>
+        <v>349.4448126937394</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30792,28 +30888,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01195984013489279</v>
+        <v>0.03801669109037589</v>
       </c>
       <c r="J25" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K25" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="n">
-        <v>1.572327146592833e-05</v>
+        <v>0.0001587654257747539</v>
       </c>
       <c r="M25" t="n">
-        <v>16.96296511221631</v>
+        <v>17.00750752983875</v>
       </c>
       <c r="N25" t="n">
-        <v>450.208082589033</v>
+        <v>452.2656542115799</v>
       </c>
       <c r="O25" t="n">
-        <v>21.21810742241242</v>
+        <v>21.26653836926875</v>
       </c>
       <c r="P25" t="n">
-        <v>342.3677293699044</v>
+        <v>342.0882185638129</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30870,28 +30966,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1205620002426012</v>
+        <v>0.1457170225525277</v>
       </c>
       <c r="J26" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K26" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002333252313524881</v>
+        <v>0.003401154872707535</v>
       </c>
       <c r="M26" t="n">
-        <v>14.00323573294027</v>
+        <v>14.06241529555792</v>
       </c>
       <c r="N26" t="n">
-        <v>319.4683555419294</v>
+        <v>321.3342555457981</v>
       </c>
       <c r="O26" t="n">
-        <v>17.87367772849028</v>
+        <v>17.9257986027345</v>
       </c>
       <c r="P26" t="n">
-        <v>339.1123722549021</v>
+        <v>338.851368326283</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30951,7 +31047,7 @@
         <v>-0.1139578156895419</v>
       </c>
       <c r="J27" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K27" t="n">
         <v>201</v>
@@ -31029,7 +31125,7 @@
         <v>-0.1595927842607124</v>
       </c>
       <c r="J28" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K28" t="n">
         <v>181</v>
@@ -31101,7 +31197,7 @@
         <v>0.07533559109743271</v>
       </c>
       <c r="J29" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K29" t="n">
         <v>143</v>
@@ -31157,7 +31253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD311"/>
+  <dimension ref="A1:AD312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69073,6 +69169,138 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-38.384501322748264,174.65491015323423</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-38.38392265680696,174.65545060354034</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-38.38328875043116,174.6558417225261</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-38.38270369520397,174.6563649287667</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-38.38206846111228,174.6567524879233</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-38.381485443389266,174.65728123246475</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-38.3808530827796,174.65767659000144</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-38.38016992750545,174.65793463636317</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-38.37950784888008,174.65825889282044</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-38.378852861088234,174.6586042947768</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-38.37817671308164,174.65886799971958</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-38.37745399101943,174.65891258658635</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-38.375431896121434,174.6596936250779</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-38.37470952951062,174.6597628660855</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-38.37407976957178,174.66021762537912</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-38.37343041596003,174.66057354869224</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>-38.37277127738981,174.66088978630245</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>-38.37207666250077,174.6610849887594</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>-38.371412021451754,174.66137751291615</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>-38.37075839255474,174.66170859712045</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>-38.37010937988354,174.6620611059262</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>-38.36945553051948,174.6623964828863</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>-38.36880851405163,174.6627561135018</t>
+        </is>
+      </c>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD312"/>
+  <dimension ref="A1:AD315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25403,9 +25403,7 @@
       <c r="AB308" t="n">
         <v>373.8866666666667</v>
       </c>
-      <c r="AC308" t="n">
-        <v>244.4966666666667</v>
-      </c>
+      <c r="AC308" t="inlineStr"/>
       <c r="AD308" t="inlineStr">
         <is>
           <t>L8</t>
@@ -25752,6 +25750,280 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>356.655</v>
+      </c>
+      <c r="C313" t="n">
+        <v>344.1735294117647</v>
+      </c>
+      <c r="D313" t="n">
+        <v>345.905</v>
+      </c>
+      <c r="E313" t="n">
+        <v>341.8885714285714</v>
+      </c>
+      <c r="F313" t="n">
+        <v>342.15</v>
+      </c>
+      <c r="G313" t="n">
+        <v>339.96</v>
+      </c>
+      <c r="H313" t="n">
+        <v>327.54</v>
+      </c>
+      <c r="I313" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="J313" t="n">
+        <v>346.45</v>
+      </c>
+      <c r="K313" t="n">
+        <v>357</v>
+      </c>
+      <c r="L313" t="n">
+        <v>368.96</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="n">
+        <v>349.67</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>367.0871428571429</v>
+      </c>
+      <c r="R313" t="n">
+        <v>356.1371428571428</v>
+      </c>
+      <c r="S313" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="T313" t="n">
+        <v>372.77</v>
+      </c>
+      <c r="U313" t="n">
+        <v>374</v>
+      </c>
+      <c r="V313" t="n">
+        <v>380.8977777777778</v>
+      </c>
+      <c r="W313" t="n">
+        <v>372.24</v>
+      </c>
+      <c r="X313" t="n">
+        <v>365.63</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>376.23</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>357.9677777777778</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>356.63</v>
+      </c>
+      <c r="C314" t="n">
+        <v>336.6611764705883</v>
+      </c>
+      <c r="D314" t="n">
+        <v>332.17</v>
+      </c>
+      <c r="E314" t="n">
+        <v>330.6985714285714</v>
+      </c>
+      <c r="F314" t="n">
+        <v>323.7609090909091</v>
+      </c>
+      <c r="G314" t="n">
+        <v>318.61</v>
+      </c>
+      <c r="H314" t="n">
+        <v>324.4109090909091</v>
+      </c>
+      <c r="I314" t="n">
+        <v>333.05</v>
+      </c>
+      <c r="J314" t="n">
+        <v>341.01</v>
+      </c>
+      <c r="K314" t="n">
+        <v>346.4809090909091</v>
+      </c>
+      <c r="L314" t="n">
+        <v>346.85</v>
+      </c>
+      <c r="M314" t="n">
+        <v>344.85</v>
+      </c>
+      <c r="N314" t="n">
+        <v>343.3109090909091</v>
+      </c>
+      <c r="O314" t="n">
+        <v>352.56</v>
+      </c>
+      <c r="P314" t="n">
+        <v>351.83</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>342.4371428571428</v>
+      </c>
+      <c r="R314" t="n">
+        <v>337.9471428571428</v>
+      </c>
+      <c r="S314" t="n">
+        <v>347.77</v>
+      </c>
+      <c r="T314" t="n">
+        <v>360.740909090909</v>
+      </c>
+      <c r="U314" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="V314" t="n">
+        <v>349.9966666666667</v>
+      </c>
+      <c r="W314" t="n">
+        <v>344.84</v>
+      </c>
+      <c r="X314" t="n">
+        <v>346.86</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>342.13</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>344.8866666666667</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>340.97</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>346.2966666666667</v>
+      </c>
+      <c r="AC314" t="inlineStr"/>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="C315" t="n">
+        <v>347.4964705882353</v>
+      </c>
+      <c r="D315" t="n">
+        <v>343.76</v>
+      </c>
+      <c r="E315" t="n">
+        <v>343.6628571428571</v>
+      </c>
+      <c r="F315" t="n">
+        <v>344.1318181818182</v>
+      </c>
+      <c r="G315" t="n">
+        <v>345.51</v>
+      </c>
+      <c r="H315" t="n">
+        <v>352.6118181818182</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>341.28</v>
+      </c>
+      <c r="K315" t="n">
+        <v>364.8718181818182</v>
+      </c>
+      <c r="L315" t="n">
+        <v>361.5700000000001</v>
+      </c>
+      <c r="M315" t="n">
+        <v>368.51</v>
+      </c>
+      <c r="N315" t="n">
+        <v>366.0918181818182</v>
+      </c>
+      <c r="O315" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="P315" t="n">
+        <v>381.17</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>367.3457142857143</v>
+      </c>
+      <c r="R315" t="n">
+        <v>365.0257142857143</v>
+      </c>
+      <c r="S315" t="n">
+        <v>369.49</v>
+      </c>
+      <c r="T315" t="n">
+        <v>377.1418181818182</v>
+      </c>
+      <c r="U315" t="n">
+        <v>381.9</v>
+      </c>
+      <c r="V315" t="n">
+        <v>377.4733333333333</v>
+      </c>
+      <c r="W315" t="n">
+        <v>376.22</v>
+      </c>
+      <c r="X315" t="n">
+        <v>371.87</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>363.77</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>350.7533333333333</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>356.61</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>360.9533333333333</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>358.3033333333333</v>
+      </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25763,7 +26035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28921,6 +29193,36 @@
       </c>
       <c r="B315" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -29094,28 +29396,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7197917130663823</v>
+        <v>-0.70051415729876</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2340207293735869</v>
+        <v>0.2265294211502402</v>
       </c>
       <c r="M2" t="n">
-        <v>7.382021083903629</v>
+        <v>7.389703002693492</v>
       </c>
       <c r="N2" t="n">
-        <v>91.00299705318481</v>
+        <v>90.86671253806323</v>
       </c>
       <c r="O2" t="n">
-        <v>9.539549101146491</v>
+        <v>9.532403292877575</v>
       </c>
       <c r="P2" t="n">
-        <v>368.0453576829931</v>
+        <v>367.8481886995189</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29172,28 +29474,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5026325757859094</v>
+        <v>-0.4936143842081308</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1582592665495246</v>
+        <v>0.1557211037197023</v>
       </c>
       <c r="M3" t="n">
-        <v>6.423754323373015</v>
+        <v>6.408218796156651</v>
       </c>
       <c r="N3" t="n">
-        <v>74.15301844066443</v>
+        <v>73.67651367731692</v>
       </c>
       <c r="O3" t="n">
-        <v>8.61121469019699</v>
+        <v>8.583502413194564</v>
       </c>
       <c r="P3" t="n">
-        <v>351.6650413426274</v>
+        <v>351.5743651902025</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29250,28 +29552,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3443100229340927</v>
+        <v>-0.3223905207531479</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09633439225738594</v>
+        <v>0.08520016154704735</v>
       </c>
       <c r="M4" t="n">
-        <v>5.969464284427627</v>
+        <v>6.014613819732441</v>
       </c>
       <c r="N4" t="n">
-        <v>60.12094708981077</v>
+        <v>60.96846649440554</v>
       </c>
       <c r="O4" t="n">
-        <v>7.753769863093098</v>
+        <v>7.808230689112966</v>
       </c>
       <c r="P4" t="n">
-        <v>339.6308368765147</v>
+        <v>339.4073015190892</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29328,28 +29630,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1952876001793434</v>
+        <v>-0.161797836694361</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02822858894736424</v>
+        <v>0.01920514688958952</v>
       </c>
       <c r="M5" t="n">
-        <v>6.462144229723068</v>
+        <v>6.552989305494406</v>
       </c>
       <c r="N5" t="n">
-        <v>68.2135355857603</v>
+        <v>70.27508251752832</v>
       </c>
       <c r="O5" t="n">
-        <v>8.259148599326707</v>
+        <v>8.383023471130706</v>
       </c>
       <c r="P5" t="n">
-        <v>329.0151550724605</v>
+        <v>328.6688650427228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29406,28 +29708,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2564400581620647</v>
+        <v>-0.2140927119080537</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03062514349836354</v>
+        <v>0.02108904863262895</v>
       </c>
       <c r="M6" t="n">
-        <v>8.345118708685419</v>
+        <v>8.450560609494788</v>
       </c>
       <c r="N6" t="n">
-        <v>110.3716348308068</v>
+        <v>114.0986895480007</v>
       </c>
       <c r="O6" t="n">
-        <v>10.50579053811786</v>
+        <v>10.68169881376557</v>
       </c>
       <c r="P6" t="n">
-        <v>324.6438593909738</v>
+        <v>324.2099642357945</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29484,28 +29786,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5096244879130852</v>
+        <v>-0.4645051683696007</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07609549839792973</v>
+        <v>0.06313443862642787</v>
       </c>
       <c r="M7" t="n">
-        <v>9.943020832203</v>
+        <v>10.05203569771254</v>
       </c>
       <c r="N7" t="n">
-        <v>166.5462168167487</v>
+        <v>170.9298381761543</v>
       </c>
       <c r="O7" t="n">
-        <v>12.9052786415772</v>
+        <v>13.07401385100055</v>
       </c>
       <c r="P7" t="n">
-        <v>327.2995009308099</v>
+        <v>326.8343459343134</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29562,28 +29864,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.545923288586333</v>
+        <v>-0.5047707520211712</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07637690640051165</v>
+        <v>0.06551769009752817</v>
       </c>
       <c r="M8" t="n">
-        <v>10.33730178762045</v>
+        <v>10.43654601889296</v>
       </c>
       <c r="N8" t="n">
-        <v>184.3465396883785</v>
+        <v>187.8506450024689</v>
       </c>
       <c r="O8" t="n">
-        <v>13.57742757993496</v>
+        <v>13.70586170229617</v>
       </c>
       <c r="P8" t="n">
-        <v>330.8090743844535</v>
+        <v>330.3724651752119</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29640,28 +29942,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5634609178825203</v>
+        <v>-0.5470669909151058</v>
       </c>
       <c r="J9" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06356684481724284</v>
+        <v>0.06077227957161635</v>
       </c>
       <c r="M9" t="n">
-        <v>12.25355434798215</v>
+        <v>12.25069793037512</v>
       </c>
       <c r="N9" t="n">
-        <v>237.0698685545883</v>
+        <v>236.1305103205014</v>
       </c>
       <c r="O9" t="n">
-        <v>15.39707337628123</v>
+        <v>15.36653865776224</v>
       </c>
       <c r="P9" t="n">
-        <v>337.3118114714951</v>
+        <v>337.1377457138252</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29718,28 +30020,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6127547400315686</v>
+        <v>-0.5925911480446471</v>
       </c>
       <c r="J10" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K10" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0701985283041322</v>
+        <v>0.06711254639513942</v>
       </c>
       <c r="M10" t="n">
-        <v>12.51683274460307</v>
+        <v>12.46725967964632</v>
       </c>
       <c r="N10" t="n">
-        <v>250.4778833566289</v>
+        <v>248.4289531296803</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8264930845917</v>
+        <v>15.76162913945384</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8243818498054</v>
+        <v>349.6080892573623</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29796,28 +30098,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4329386187202241</v>
+        <v>-0.4022131600460094</v>
       </c>
       <c r="J11" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K11" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03250985612073498</v>
+        <v>0.0285763411963541</v>
       </c>
       <c r="M11" t="n">
-        <v>13.01695258788437</v>
+        <v>13.00383331048286</v>
       </c>
       <c r="N11" t="n">
-        <v>282.7050886149261</v>
+        <v>281.8825586649691</v>
       </c>
       <c r="O11" t="n">
-        <v>16.81383622541049</v>
+        <v>16.78935849474211</v>
       </c>
       <c r="P11" t="n">
-        <v>354.3360440721002</v>
+        <v>354.0093489171754</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29874,28 +30176,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5440819876079173</v>
+        <v>-0.5173352837966685</v>
       </c>
       <c r="J12" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05040742345408455</v>
+        <v>0.04643769812076504</v>
       </c>
       <c r="M12" t="n">
-        <v>13.18191180118351</v>
+        <v>13.16486405673111</v>
       </c>
       <c r="N12" t="n">
-        <v>279.8795757734736</v>
+        <v>278.9200876610217</v>
       </c>
       <c r="O12" t="n">
-        <v>16.7296017816765</v>
+        <v>16.70090080387946</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9548642879369</v>
+        <v>361.6681167688649</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29952,28 +30254,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5715174500096079</v>
+        <v>-0.5652678705053271</v>
       </c>
       <c r="J13" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04436458305263391</v>
+        <v>0.04395948688841578</v>
       </c>
       <c r="M13" t="n">
-        <v>14.95782393995142</v>
+        <v>14.93098080037019</v>
       </c>
       <c r="N13" t="n">
-        <v>358.9207173967469</v>
+        <v>357.1569180571807</v>
       </c>
       <c r="O13" t="n">
-        <v>18.94520301809265</v>
+        <v>18.89859566362487</v>
       </c>
       <c r="P13" t="n">
-        <v>367.5260682995815</v>
+        <v>367.4593957383916</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30030,28 +30332,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4878271674892332</v>
+        <v>-0.4904225562110818</v>
       </c>
       <c r="J14" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K14" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03286377912230087</v>
+        <v>0.03364594716650959</v>
       </c>
       <c r="M14" t="n">
-        <v>14.97544811471813</v>
+        <v>14.94461009269387</v>
       </c>
       <c r="N14" t="n">
-        <v>361.920904953896</v>
+        <v>359.9669398937034</v>
       </c>
       <c r="O14" t="n">
-        <v>19.02421890522436</v>
+        <v>18.97279473071122</v>
       </c>
       <c r="P14" t="n">
-        <v>368.8087410020616</v>
+        <v>368.8356623917566</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30108,28 +30410,28 @@
         <v>0.1084</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7281851711887601</v>
+        <v>-0.7269180120153126</v>
       </c>
       <c r="J15" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K15" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04769952869009153</v>
+        <v>0.04831564224772511</v>
       </c>
       <c r="M15" t="n">
-        <v>16.84311989861658</v>
+        <v>16.72581725718105</v>
       </c>
       <c r="N15" t="n">
-        <v>530.0737714325159</v>
+        <v>525.5302557068273</v>
       </c>
       <c r="O15" t="n">
-        <v>23.02333102382268</v>
+        <v>22.92444668267541</v>
       </c>
       <c r="P15" t="n">
-        <v>374.2260235032851</v>
+        <v>374.2124460191175</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30186,28 +30488,28 @@
         <v>0.0437</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4567209411138581</v>
+        <v>-0.4646537086352858</v>
       </c>
       <c r="J16" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02312778867592369</v>
+        <v>0.02435434687226246</v>
       </c>
       <c r="M16" t="n">
-        <v>16.74430870535939</v>
+        <v>16.72266180599343</v>
       </c>
       <c r="N16" t="n">
-        <v>453.769169792987</v>
+        <v>450.6639720164196</v>
       </c>
       <c r="O16" t="n">
-        <v>21.30185836477623</v>
+        <v>21.22884763750542</v>
       </c>
       <c r="P16" t="n">
-        <v>375.8444304844304</v>
+        <v>375.9276369868301</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30264,28 +30566,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3482616762587922</v>
+        <v>-0.3666155923454622</v>
       </c>
       <c r="J17" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K17" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01223801803834568</v>
+        <v>0.01385583291832981</v>
       </c>
       <c r="M17" t="n">
-        <v>18.12552912432423</v>
+        <v>18.0110659159805</v>
       </c>
       <c r="N17" t="n">
-        <v>511.4010402168557</v>
+        <v>506.8205566315446</v>
       </c>
       <c r="O17" t="n">
-        <v>22.61417785852176</v>
+        <v>22.5126754658691</v>
       </c>
       <c r="P17" t="n">
-        <v>374.7508264070045</v>
+        <v>374.9389904244864</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30342,28 +30644,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3322265289415883</v>
+        <v>-0.3705162149140905</v>
       </c>
       <c r="J18" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K18" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01381995697678817</v>
+        <v>0.01740723126129573</v>
       </c>
       <c r="M18" t="n">
-        <v>15.90585927439432</v>
+        <v>15.89933579732116</v>
       </c>
       <c r="N18" t="n">
-        <v>397.3755947170458</v>
+        <v>396.4378062388582</v>
       </c>
       <c r="O18" t="n">
-        <v>19.93428189619696</v>
+        <v>19.91074599905433</v>
       </c>
       <c r="P18" t="n">
-        <v>376.0143579270234</v>
+        <v>376.4161104778636</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30420,28 +30722,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1081107651020967</v>
+        <v>-0.1309032865634059</v>
       </c>
       <c r="J19" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K19" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001401977727989445</v>
+        <v>0.002100446371708253</v>
       </c>
       <c r="M19" t="n">
-        <v>16.52724995582808</v>
+        <v>16.45512775653281</v>
       </c>
       <c r="N19" t="n">
-        <v>412.9935054147627</v>
+        <v>409.5873030801926</v>
       </c>
       <c r="O19" t="n">
-        <v>20.32224164344974</v>
+        <v>20.23826334150716</v>
       </c>
       <c r="P19" t="n">
-        <v>370.5768793965424</v>
+        <v>370.8175357370206</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30498,28 +30800,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05532884997767984</v>
+        <v>0.07366709050285095</v>
       </c>
       <c r="J20" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K20" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003900455655121426</v>
+        <v>0.0007081414792189378</v>
       </c>
       <c r="M20" t="n">
-        <v>16.64200380595065</v>
+        <v>16.51281882062115</v>
       </c>
       <c r="N20" t="n">
-        <v>399.3030012885164</v>
+        <v>395.0477825899467</v>
       </c>
       <c r="O20" t="n">
-        <v>19.98256743485472</v>
+        <v>19.8758089795094</v>
       </c>
       <c r="P20" t="n">
-        <v>361.961830710647</v>
+        <v>361.7690542792187</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30576,28 +30878,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08339403979365503</v>
+        <v>0.1083078069702522</v>
       </c>
       <c r="J21" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K21" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008381845122134024</v>
+        <v>0.001440905061647957</v>
       </c>
       <c r="M21" t="n">
-        <v>16.95562858055178</v>
+        <v>16.86221818947888</v>
       </c>
       <c r="N21" t="n">
-        <v>425.2799473472137</v>
+        <v>422.1676239042098</v>
       </c>
       <c r="O21" t="n">
-        <v>20.62231673084316</v>
+        <v>20.5467180811002</v>
       </c>
       <c r="P21" t="n">
-        <v>359.5551567407288</v>
+        <v>359.2939394843987</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30654,28 +30956,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2507280028514732</v>
+        <v>0.273757709413036</v>
       </c>
       <c r="J22" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006856745820904675</v>
+        <v>0.008314077824166377</v>
       </c>
       <c r="M22" t="n">
-        <v>17.53787948369251</v>
+        <v>17.50619048677646</v>
       </c>
       <c r="N22" t="n">
-        <v>469.3133955271932</v>
+        <v>466.6686377173422</v>
       </c>
       <c r="O22" t="n">
-        <v>21.66364224979708</v>
+        <v>21.60251461560302</v>
       </c>
       <c r="P22" t="n">
-        <v>353.9725707733002</v>
+        <v>353.7325439347771</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30732,28 +31034,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2822354425212063</v>
+        <v>0.2977907285507022</v>
       </c>
       <c r="J23" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K23" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008622626242518749</v>
+        <v>0.009771159234516547</v>
       </c>
       <c r="M23" t="n">
-        <v>17.93542549675879</v>
+        <v>17.89588355626545</v>
       </c>
       <c r="N23" t="n">
-        <v>482.2905041093399</v>
+        <v>479.1070912344578</v>
       </c>
       <c r="O23" t="n">
-        <v>21.96111345331424</v>
+        <v>21.88851505320673</v>
       </c>
       <c r="P23" t="n">
-        <v>350.7958870842446</v>
+        <v>350.6361333663325</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30810,28 +31112,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.003875775388507639</v>
+        <v>0.0252108183369093</v>
       </c>
       <c r="J24" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K24" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L24" t="n">
-        <v>1.8027930512865e-06</v>
+        <v>7.757954123277511e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>16.66734586480787</v>
+        <v>16.62800307701601</v>
       </c>
       <c r="N24" t="n">
-        <v>426.6050387621984</v>
+        <v>424.4504161655375</v>
       </c>
       <c r="O24" t="n">
-        <v>20.65441935185297</v>
+        <v>20.60219445024091</v>
       </c>
       <c r="P24" t="n">
-        <v>349.4448126937394</v>
+        <v>349.1396615323615</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30888,28 +31190,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03801669109037589</v>
+        <v>0.08168097261947334</v>
       </c>
       <c r="J25" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K25" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001587654257747539</v>
+        <v>0.0007401667578815774</v>
       </c>
       <c r="M25" t="n">
-        <v>17.00750752983875</v>
+        <v>17.00291417862177</v>
       </c>
       <c r="N25" t="n">
-        <v>452.2656542115799</v>
+        <v>452.8574785793836</v>
       </c>
       <c r="O25" t="n">
-        <v>21.26653836926875</v>
+        <v>21.28044827017005</v>
       </c>
       <c r="P25" t="n">
-        <v>342.0882185638129</v>
+        <v>341.6184698134668</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30966,28 +31268,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1457170225525277</v>
+        <v>0.1691118267058489</v>
       </c>
       <c r="J26" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K26" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003401154872707535</v>
+        <v>0.004683861831764835</v>
       </c>
       <c r="M26" t="n">
-        <v>14.06241529555792</v>
+        <v>13.97774334316273</v>
       </c>
       <c r="N26" t="n">
-        <v>321.3342555457981</v>
+        <v>318.1839599992373</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9257986027345</v>
+        <v>17.83771173663363</v>
       </c>
       <c r="P26" t="n">
-        <v>338.851368326283</v>
+        <v>338.6079276218534</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31044,28 +31346,28 @@
         <v>0.0465</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1139578156895419</v>
+        <v>-0.06012594943733362</v>
       </c>
       <c r="J27" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K27" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001176315899274138</v>
+        <v>0.0003334340907332756</v>
       </c>
       <c r="M27" t="n">
-        <v>16.23905281985944</v>
+        <v>16.26464961229786</v>
       </c>
       <c r="N27" t="n">
-        <v>587.1411363536213</v>
+        <v>585.7738576212751</v>
       </c>
       <c r="O27" t="n">
-        <v>24.23099536448351</v>
+        <v>24.20276549531634</v>
       </c>
       <c r="P27" t="n">
-        <v>339.5595257958921</v>
+        <v>339.0158195537771</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31122,28 +31424,28 @@
         <v>0.0519</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1595927842607124</v>
+        <v>-0.1399036811050496</v>
       </c>
       <c r="J28" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004759541507650566</v>
+        <v>0.00372145746975483</v>
       </c>
       <c r="M28" t="n">
-        <v>13.24608555183737</v>
+        <v>13.19734368424113</v>
       </c>
       <c r="N28" t="n">
-        <v>297.6794641766913</v>
+        <v>296.0128772025383</v>
       </c>
       <c r="O28" t="n">
-        <v>17.25338993289989</v>
+        <v>17.20502476611232</v>
       </c>
       <c r="P28" t="n">
-        <v>347.9992522095646</v>
+        <v>347.8062596750775</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31194,28 +31496,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.07533559109743271</v>
+        <v>0.2289997866573879</v>
       </c>
       <c r="J29" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K29" t="n">
         <v>143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0003591783826293327</v>
+        <v>0.003662264145136929</v>
       </c>
       <c r="M29" t="n">
-        <v>16.89319353508593</v>
+        <v>16.01431199040724</v>
       </c>
       <c r="N29" t="n">
-        <v>843.8601534998642</v>
+        <v>762.8766556964074</v>
       </c>
       <c r="O29" t="n">
-        <v>29.04927113543237</v>
+        <v>27.62022186182449</v>
       </c>
       <c r="P29" t="n">
-        <v>349.176875477957</v>
+        <v>347.6621217873039</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31253,7 +31555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD312"/>
+  <dimension ref="A1:AD315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68770,11 +69072,7 @@
           <t>-38.36747128505897,174.66330323252873</t>
         </is>
       </c>
-      <c r="AC308" t="inlineStr">
-        <is>
-          <t>-38.36715854342701,174.66499761156882</t>
-        </is>
-      </c>
+      <c r="AC308" t="inlineStr"/>
       <c r="AD308" t="inlineStr">
         <is>
           <t>L8</t>
@@ -69301,6 +69599,434 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-38.38455259490554,174.65504877102543</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-38.38396687543873,174.65557015195463</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-38.383326686690616,174.65594428582736</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-38.38270851794425,174.65637796738966</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-38.38207395117311,174.6567673306626</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-38.381448772425045,174.65718209004805</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-38.380862787783705,174.6577028281365</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-38.380202536357125,174.6580227961111</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-38.37951919910859,174.6582939284776</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-38.37882483422348,174.65849325951888</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-38.378120757972596,174.6586201130148</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-38.37547056461717,174.6598649281685</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-38.374750807489015,174.65993194987922</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-38.37411539945203,174.66034580693085</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>-38.373446302579374,174.66062770945194</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>-38.37274939082431,174.66081517089378</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>-38.37208867445154,174.6611259596039</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>-38.37141134493483,174.6613751597606</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>-38.370778869408234,174.6617812173519</t>
+        </is>
+      </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>-38.37013887970282,174.66216572562567</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>-38.3694465985832,174.66236480634575</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>-38.36884199668242,174.66287485773242</t>
+        </is>
+      </c>
+      <c r="AA313" t="inlineStr">
+        <is>
+          <t>-38.3681470529666,174.6630579295828</t>
+        </is>
+      </c>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-38.384552690705384,174.65504903002747</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-38.38399566245115,174.65564798007807</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-38.38337931830759,174.65608657963125</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-38.38275139702118,174.6564938942898</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-38.38214441607135,174.65695783779248</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-38.38153058266028,174.65740326997295</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-38.38087477794912,174.6577352443918</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-38.380208092500105,174.65803781746249</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-38.37953785323722,174.65835150976207</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-38.3788537739729,174.65860791140045</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-38.37817566998196,174.65886337865916</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-38.37750612106443,174.65914352739483</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-38.376835421111906,174.65941860466666</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-38.376137922062306,174.65957498757422</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-38.37546520021681,174.65984116356748</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-38.374816591727864,174.66020141925966</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-38.374169966802995,174.66054211889292</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-38.373484902238864,174.6607593041061</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-38.3727872325596,174.66094418060203</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-38.37213474109018,174.66128308613165</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>-38.37150685010276,174.66170736123976</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>-38.37086211311649,174.66207643947106</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>-38.370195904314556,174.66236796187866</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>-38.36955019635367,174.66273221158073</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>-38.36888173752615,174.66301579705961</t>
+        </is>
+      </c>
+      <c r="AA314" t="inlineStr">
+        <is>
+          <t>-38.368231605632594,174.6633723217104</t>
+        </is>
+      </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>-38.36754758175215,174.66360373973927</t>
+        </is>
+      </c>
+      <c r="AC314" t="inlineStr"/>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-38.3845332624864,174.65499650442925</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-38.38395414205451,174.65553572623824</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-38.38333490620132,174.65596650788976</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-38.38270171902961,174.65635958603974</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-38.38206635705292,174.6567467994629</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-38.38142750552533,174.65712459370698</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-38.380766716337035,174.65744309350367</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-38.379536927389616,174.65834865186676</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-38.37880317748197,174.65840746140475</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-38.378139111704535,174.6587014215742</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-38.37744735986568,174.65888321014603</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-38.37677884356252,174.65916796174372</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-38.37611946937072,174.65949324104943</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-38.375392333292716,174.65951836140235</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-38.37475011742787,174.6599291232252</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-38.374088734909954,174.6602498788926</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>-38.37341657413219,174.6605263591381</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-38.37273563769694,174.6607682840089</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-38.37206383296649,174.66104122933785</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>-38.371421928813405,174.66141197410752</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>-38.37076677774066,174.66173833477723</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>-38.37011992205443,174.6620984931832</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>-38.36948445291972,174.66249905459296</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>-38.36886391442223,174.66295258803348</t>
+        </is>
+      </c>
+      <c r="AA315" t="inlineStr">
+        <is>
+          <t>-38.36818605273595,174.6632029419165</t>
+        </is>
+      </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>-38.36750705067206,174.6634441008811</t>
+        </is>
+      </c>
+      <c r="AC315" t="inlineStr">
+        <is>
+          <t>-38.366846242437866,174.66375706516828</t>
+        </is>
+      </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD315"/>
+  <dimension ref="A1:AD316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26024,6 +26024,98 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>350.29</v>
+      </c>
+      <c r="C316" t="n">
+        <v>331.7311764705883</v>
+      </c>
+      <c r="D316" t="n">
+        <v>324.31</v>
+      </c>
+      <c r="E316" t="n">
+        <v>319.2071428571429</v>
+      </c>
+      <c r="F316" t="n">
+        <v>310.8081818181818</v>
+      </c>
+      <c r="G316" t="n">
+        <v>316.98</v>
+      </c>
+      <c r="H316" t="n">
+        <v>313.6981818181818</v>
+      </c>
+      <c r="I316" t="n">
+        <v>320.24</v>
+      </c>
+      <c r="J316" t="n">
+        <v>324.7</v>
+      </c>
+      <c r="K316" t="n">
+        <v>342.4281818181818</v>
+      </c>
+      <c r="L316" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="M316" t="n">
+        <v>352.18</v>
+      </c>
+      <c r="N316" t="n">
+        <v>343.9981818181818</v>
+      </c>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="n">
+        <v>329.7642857142857</v>
+      </c>
+      <c r="R316" t="n">
+        <v>346.3342857142857</v>
+      </c>
+      <c r="S316" t="n">
+        <v>345.54</v>
+      </c>
+      <c r="T316" t="n">
+        <v>355.9381818181818</v>
+      </c>
+      <c r="U316" t="n">
+        <v>354.02</v>
+      </c>
+      <c r="V316" t="n">
+        <v>350.0488888888889</v>
+      </c>
+      <c r="W316" t="n">
+        <v>353.46</v>
+      </c>
+      <c r="X316" t="n">
+        <v>350.18</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>345.59</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>335.1788888888889</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>341.7188888888889</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>349.3688888888889</v>
+      </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26035,7 +26127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29223,6 +29315,16 @@
       </c>
       <c r="B318" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -31555,7 +31657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD315"/>
+  <dimension ref="A1:AD316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70027,6 +70129,150 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.38457698552498,174.6551147129641</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.384014553969564,174.6556990550073</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.38340943723079,174.65616800886625</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.38279543102245,174.65661294408872</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.382194049252966,174.65709202555055</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.38153682857627,174.65742015632912</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.38091582730082,174.6578462244688</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.380257178063545,174.65817052342965</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.379593781158505,174.6585241479397</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.378864923661745,174.65865208375885</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.37818888256423,174.65892191210042</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.37748791658014,174.65906287961587</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-38.37683371424304,174.6594110430646</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-38.374850411938944,174.66033995684384</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-38.374144806637624,174.66045160228416</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>-38.37349191748268,174.66078322067148</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>-38.372802341186464,174.66099568897337</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>-38.37215150111752,174.66134025234962</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>-38.371506688701864,174.66170679982562</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-38.37083592484936,174.66198356295294</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-38.37018581794144,174.66233219071304</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>-38.369539684727414,174.6626949322938</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>-38.368911229960794,174.66312039130355</t>
+        </is>
+      </c>
+      <c r="AA316" t="inlineStr">
+        <is>
+          <t>-38.368257702320086,174.66346935779703</t>
+        </is>
+      </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>-38.36756024094784,174.66365360044418</t>
+        </is>
+      </c>
+      <c r="AC316" t="inlineStr">
+        <is>
+          <t>-38.3668707602543,174.6638544544609</t>
+        </is>
+      </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -29498,28 +29498,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.70051415729876</v>
+        <v>-0.7001697652792188</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2265294211502402</v>
+        <v>0.2276568893773553</v>
       </c>
       <c r="M2" t="n">
-        <v>7.389703002693492</v>
+        <v>7.362070278995324</v>
       </c>
       <c r="N2" t="n">
-        <v>90.86671253806323</v>
+        <v>90.50699737788437</v>
       </c>
       <c r="O2" t="n">
-        <v>9.532403292877575</v>
+        <v>9.513516562128032</v>
       </c>
       <c r="P2" t="n">
-        <v>367.8481886995189</v>
+        <v>367.8446508576268</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29576,28 +29576,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4936143842081308</v>
+        <v>-0.4989553276564405</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1557211037197023</v>
+        <v>0.1592084595373231</v>
       </c>
       <c r="M3" t="n">
-        <v>6.408218796156651</v>
+        <v>6.412546426647983</v>
       </c>
       <c r="N3" t="n">
-        <v>73.67651367731692</v>
+        <v>73.57983955668153</v>
       </c>
       <c r="O3" t="n">
-        <v>8.583502413194564</v>
+        <v>8.577869173441709</v>
       </c>
       <c r="P3" t="n">
-        <v>351.5743651902025</v>
+        <v>351.6283057848405</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29654,28 +29654,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3223905207531479</v>
+        <v>-0.3274410448094877</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08520016154704735</v>
+        <v>0.08801054744177716</v>
       </c>
       <c r="M4" t="n">
-        <v>6.014613819732441</v>
+        <v>6.017485625943758</v>
       </c>
       <c r="N4" t="n">
-        <v>60.96846649440554</v>
+        <v>60.90645009876705</v>
       </c>
       <c r="O4" t="n">
-        <v>7.808230689112966</v>
+        <v>7.804258459249478</v>
       </c>
       <c r="P4" t="n">
-        <v>339.4073015190892</v>
+        <v>339.459052354396</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29732,28 +29732,28 @@
         <v>0.07630000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.161797836694361</v>
+        <v>-0.1657965894338558</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01920514688958952</v>
+        <v>0.02026902533466024</v>
       </c>
       <c r="M5" t="n">
-        <v>6.552989305494406</v>
+        <v>6.547788543023084</v>
       </c>
       <c r="N5" t="n">
-        <v>70.27508251752832</v>
+        <v>70.10828098080407</v>
       </c>
       <c r="O5" t="n">
-        <v>8.383023471130706</v>
+        <v>8.373068791118586</v>
       </c>
       <c r="P5" t="n">
-        <v>328.6688650427228</v>
+        <v>328.7103897115571</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29810,28 +29810,28 @@
         <v>0.0582</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2140927119080537</v>
+        <v>-0.2200584645579063</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02108904863262895</v>
+        <v>0.02237521111829965</v>
       </c>
       <c r="M6" t="n">
-        <v>8.450560609494788</v>
+        <v>8.450020992424021</v>
       </c>
       <c r="N6" t="n">
-        <v>114.0986895480007</v>
+        <v>113.8876727677644</v>
       </c>
       <c r="O6" t="n">
-        <v>10.68169881376557</v>
+        <v>10.67181675103937</v>
       </c>
       <c r="P6" t="n">
-        <v>324.2099642357945</v>
+        <v>324.2713607038127</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29888,28 +29888,28 @@
         <v>0.0521</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4645051683696007</v>
+        <v>-0.4629661460521057</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06313443862642787</v>
+        <v>0.06317493869082047</v>
       </c>
       <c r="M7" t="n">
-        <v>10.05203569771254</v>
+        <v>10.02050724279072</v>
       </c>
       <c r="N7" t="n">
-        <v>170.9298381761543</v>
+        <v>170.2791769353208</v>
       </c>
       <c r="O7" t="n">
-        <v>13.07401385100055</v>
+        <v>13.04910636539226</v>
       </c>
       <c r="P7" t="n">
-        <v>326.8343459343134</v>
+        <v>326.8184097849203</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29966,28 +29966,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5047707520211712</v>
+        <v>-0.5075606564598945</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06551769009752817</v>
+        <v>0.06664097042468597</v>
       </c>
       <c r="M8" t="n">
-        <v>10.43654601889296</v>
+        <v>10.40859558993766</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8506450024689</v>
+        <v>187.1500959406432</v>
       </c>
       <c r="O8" t="n">
-        <v>13.70586170229617</v>
+        <v>13.68028128148845</v>
       </c>
       <c r="P8" t="n">
-        <v>330.3724651752119</v>
+        <v>330.4021814862248</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30044,28 +30044,28 @@
         <v>0.0556</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5470669909151058</v>
+        <v>-0.549182097226294</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06077227957161635</v>
+        <v>0.06163756376157725</v>
       </c>
       <c r="M9" t="n">
-        <v>12.25069793037512</v>
+        <v>12.2128906823397</v>
       </c>
       <c r="N9" t="n">
-        <v>236.1305103205014</v>
+        <v>235.2422762485811</v>
       </c>
       <c r="O9" t="n">
-        <v>15.36653865776224</v>
+        <v>15.33760986101098</v>
       </c>
       <c r="P9" t="n">
-        <v>337.1377457138252</v>
+        <v>337.1603133263155</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30122,28 +30122,28 @@
         <v>0.0592</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5925911480446471</v>
+        <v>-0.5999484121271029</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06711254639513942</v>
+        <v>0.06905522566816669</v>
       </c>
       <c r="M10" t="n">
-        <v>12.46725967964632</v>
+        <v>12.4569041398704</v>
       </c>
       <c r="N10" t="n">
-        <v>248.4289531296803</v>
+        <v>247.8015286979837</v>
       </c>
       <c r="O10" t="n">
-        <v>15.76162913945384</v>
+        <v>15.74171301663144</v>
       </c>
       <c r="P10" t="n">
-        <v>349.6080892573623</v>
+        <v>349.6873769109605</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30200,28 +30200,28 @@
         <v>0.0641</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4022131600460094</v>
+        <v>-0.4031872622152193</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0285763411963541</v>
+        <v>0.02892978456545237</v>
       </c>
       <c r="M11" t="n">
-        <v>13.00383331048286</v>
+        <v>12.95523918897406</v>
       </c>
       <c r="N11" t="n">
-        <v>281.8825586649691</v>
+        <v>280.7191231103757</v>
       </c>
       <c r="O11" t="n">
-        <v>16.78935849474211</v>
+        <v>16.75467466441458</v>
       </c>
       <c r="P11" t="n">
-        <v>354.0093489171754</v>
+        <v>354.0197493259954</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30278,28 +30278,28 @@
         <v>0.0594</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5173352837966685</v>
+        <v>-0.5227895481318281</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04643769812076504</v>
+        <v>0.04769903760184724</v>
       </c>
       <c r="M12" t="n">
-        <v>13.16486405673111</v>
+        <v>13.13799757715944</v>
       </c>
       <c r="N12" t="n">
-        <v>278.9200876610217</v>
+        <v>277.945572912795</v>
       </c>
       <c r="O12" t="n">
-        <v>16.70090080387946</v>
+        <v>16.6716997607561</v>
       </c>
       <c r="P12" t="n">
-        <v>361.6681167688649</v>
+        <v>361.726861725317</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30356,28 +30356,28 @@
         <v>0.0517</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5652678705053271</v>
+        <v>-0.5658619677941426</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04395948688841578</v>
+        <v>0.04438518343622</v>
       </c>
       <c r="M13" t="n">
-        <v>14.93098080037019</v>
+        <v>14.86999578422312</v>
       </c>
       <c r="N13" t="n">
-        <v>357.1569180571807</v>
+        <v>355.6263259456707</v>
       </c>
       <c r="O13" t="n">
-        <v>18.89859566362487</v>
+        <v>18.85805732162438</v>
       </c>
       <c r="P13" t="n">
-        <v>367.4593957383916</v>
+        <v>367.4657474021712</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30434,28 +30434,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4904225562110818</v>
+        <v>-0.5004199988462157</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03364594716650959</v>
+        <v>0.03520670652281321</v>
       </c>
       <c r="M14" t="n">
-        <v>14.94461009269387</v>
+        <v>14.93104139652914</v>
       </c>
       <c r="N14" t="n">
-        <v>359.9669398937034</v>
+        <v>359.0660871962759</v>
       </c>
       <c r="O14" t="n">
-        <v>18.97279473071122</v>
+        <v>18.94903921565091</v>
       </c>
       <c r="P14" t="n">
-        <v>368.8356623917566</v>
+        <v>368.9401605496378</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30515,7 +30515,7 @@
         <v>-0.7269180120153126</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
         <v>227</v>
@@ -30593,7 +30593,7 @@
         <v>-0.4646537086352858</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K16" t="n">
         <v>229</v>
@@ -30668,28 +30668,28 @@
         <v>0.0385</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3666155923454622</v>
+        <v>-0.3983149665405994</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K17" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01385583291832981</v>
+        <v>0.01627829482475662</v>
       </c>
       <c r="M17" t="n">
-        <v>18.0110659159805</v>
+        <v>18.1181601342021</v>
       </c>
       <c r="N17" t="n">
-        <v>506.8205566315446</v>
+        <v>510.2906206728348</v>
       </c>
       <c r="O17" t="n">
-        <v>22.5126754658691</v>
+        <v>22.58961311472232</v>
       </c>
       <c r="P17" t="n">
-        <v>374.9389904244864</v>
+        <v>375.265377775592</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30746,28 +30746,28 @@
         <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3705162149140905</v>
+        <v>-0.3885770626629185</v>
       </c>
       <c r="J18" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K18" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01740723126129573</v>
+        <v>0.019192698985247</v>
       </c>
       <c r="M18" t="n">
-        <v>15.89933579732116</v>
+        <v>15.92638970428671</v>
       </c>
       <c r="N18" t="n">
-        <v>396.4378062388582</v>
+        <v>396.5274175679011</v>
       </c>
       <c r="O18" t="n">
-        <v>19.91074599905433</v>
+        <v>19.91299619765697</v>
       </c>
       <c r="P18" t="n">
-        <v>376.4161104778636</v>
+        <v>376.6064443113364</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30824,28 +30824,28 @@
         <v>0.0472</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1309032865634059</v>
+        <v>-0.149953629044475</v>
       </c>
       <c r="J19" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002100446371708253</v>
+        <v>0.002765186647218365</v>
       </c>
       <c r="M19" t="n">
-        <v>16.45512775653281</v>
+        <v>16.49006963890201</v>
       </c>
       <c r="N19" t="n">
-        <v>409.5873030801926</v>
+        <v>409.8647316568874</v>
       </c>
       <c r="O19" t="n">
-        <v>20.23826334150716</v>
+        <v>20.24511624211843</v>
       </c>
       <c r="P19" t="n">
-        <v>370.8175357370206</v>
+        <v>371.0195691959901</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30902,28 +30902,28 @@
         <v>0.0659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07366709050285095</v>
+        <v>0.06679503488938525</v>
       </c>
       <c r="J20" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007081414792189378</v>
+        <v>0.0005870997806307621</v>
       </c>
       <c r="M20" t="n">
-        <v>16.51281882062115</v>
+        <v>16.47833722001235</v>
       </c>
       <c r="N20" t="n">
-        <v>395.0477825899467</v>
+        <v>393.4986990044094</v>
       </c>
       <c r="O20" t="n">
-        <v>19.8758089795094</v>
+        <v>19.8368016324308</v>
       </c>
       <c r="P20" t="n">
-        <v>361.7690542792187</v>
+        <v>361.8415889457381</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30980,28 +30980,28 @@
         <v>0.0566</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1083078069702522</v>
+        <v>0.1016795937974204</v>
       </c>
       <c r="J21" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K21" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001440905061647957</v>
+        <v>0.001279870500359936</v>
       </c>
       <c r="M21" t="n">
-        <v>16.86221818947888</v>
+        <v>16.82986602757994</v>
       </c>
       <c r="N21" t="n">
-        <v>422.1676239042098</v>
+        <v>420.6311636392143</v>
       </c>
       <c r="O21" t="n">
-        <v>20.5467180811002</v>
+        <v>20.50929456707895</v>
       </c>
       <c r="P21" t="n">
-        <v>359.2939394843987</v>
+        <v>359.3637177091303</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31058,28 +31058,28 @@
         <v>0.0526</v>
       </c>
       <c r="I22" t="n">
-        <v>0.273757709413036</v>
+        <v>0.2646957588265521</v>
       </c>
       <c r="J22" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K22" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008314077824166377</v>
+        <v>0.007834954141725192</v>
       </c>
       <c r="M22" t="n">
-        <v>17.50619048677646</v>
+        <v>17.48007396670905</v>
       </c>
       <c r="N22" t="n">
-        <v>466.6686377173422</v>
+        <v>465.1133914408735</v>
       </c>
       <c r="O22" t="n">
-        <v>21.60251461560302</v>
+        <v>21.56648769366198</v>
       </c>
       <c r="P22" t="n">
-        <v>353.7325439347771</v>
+        <v>353.8274153368589</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31136,28 +31136,28 @@
         <v>0.0453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2977907285507022</v>
+        <v>0.293885612904321</v>
       </c>
       <c r="J23" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K23" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="n">
-        <v>0.009771159234516547</v>
+        <v>0.009595201035532575</v>
       </c>
       <c r="M23" t="n">
-        <v>17.89588355626545</v>
+        <v>17.84117266571324</v>
       </c>
       <c r="N23" t="n">
-        <v>479.1070912344578</v>
+        <v>477.1667812496536</v>
       </c>
       <c r="O23" t="n">
-        <v>21.88851505320673</v>
+        <v>21.84414752856366</v>
       </c>
       <c r="P23" t="n">
-        <v>350.6361333663325</v>
+        <v>350.6764070193287</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -31214,28 +31214,28 @@
         <v>0.0638</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0252108183369093</v>
+        <v>0.02552313612833986</v>
       </c>
       <c r="J24" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K24" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="n">
-        <v>7.757954123277511e-05</v>
+        <v>8.015531897931361e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>16.62800307701601</v>
+        <v>16.56060725305759</v>
       </c>
       <c r="N24" t="n">
-        <v>424.4504161655375</v>
+        <v>422.689839449223</v>
       </c>
       <c r="O24" t="n">
-        <v>20.60219445024091</v>
+        <v>20.55942215747376</v>
       </c>
       <c r="P24" t="n">
-        <v>349.1396615323615</v>
+        <v>349.1363713962922</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -31292,28 +31292,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08168097261947334</v>
+        <v>0.08321845953657114</v>
       </c>
       <c r="J25" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K25" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0007401667578815774</v>
+        <v>0.0007744819460857588</v>
       </c>
       <c r="M25" t="n">
-        <v>17.00291417862177</v>
+        <v>16.93778218732321</v>
       </c>
       <c r="N25" t="n">
-        <v>452.8574785793836</v>
+        <v>450.9451138556043</v>
       </c>
       <c r="O25" t="n">
-        <v>21.28044827017005</v>
+        <v>21.23546829847659</v>
       </c>
       <c r="P25" t="n">
-        <v>341.6184698134668</v>
+        <v>341.6018537954867</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -31370,28 +31370,28 @@
         <v>0.0517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1691118267058489</v>
+        <v>0.1620992134315315</v>
       </c>
       <c r="J26" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K26" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004683861831764835</v>
+        <v>0.004340610215031071</v>
       </c>
       <c r="M26" t="n">
-        <v>13.97774334316273</v>
+        <v>13.95016328326726</v>
       </c>
       <c r="N26" t="n">
-        <v>318.1839599992373</v>
+        <v>316.9647632322284</v>
       </c>
       <c r="O26" t="n">
-        <v>17.83771173663363</v>
+        <v>17.80350424023957</v>
       </c>
       <c r="P26" t="n">
-        <v>338.6079276218534</v>
+        <v>338.6812400469456</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -31448,28 +31448,28 @@
         <v>0.0465</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.06012594943733362</v>
+        <v>-0.06519261582279003</v>
       </c>
       <c r="J27" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K27" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003334340907332756</v>
+        <v>0.0003956905006630151</v>
       </c>
       <c r="M27" t="n">
-        <v>16.26464961229786</v>
+        <v>16.21255582462351</v>
       </c>
       <c r="N27" t="n">
-        <v>585.7738576212751</v>
+        <v>583.0596599534244</v>
       </c>
       <c r="O27" t="n">
-        <v>24.20276549531634</v>
+        <v>24.14662833509938</v>
       </c>
       <c r="P27" t="n">
-        <v>339.0158195537771</v>
+        <v>339.0672308073462</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -31526,28 +31526,28 @@
         <v>0.0519</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1399036811050496</v>
+        <v>-0.1423982149149788</v>
       </c>
       <c r="J28" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K28" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00372145746975483</v>
+        <v>0.003895421410781141</v>
       </c>
       <c r="M28" t="n">
-        <v>13.19734368424113</v>
+        <v>13.14019970541866</v>
       </c>
       <c r="N28" t="n">
-        <v>296.0128772025383</v>
+        <v>294.4371862129828</v>
       </c>
       <c r="O28" t="n">
-        <v>17.20502476611232</v>
+        <v>17.15917207248015</v>
       </c>
       <c r="P28" t="n">
-        <v>347.8062596750775</v>
+        <v>347.830798456149</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31598,28 +31598,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.2289997866573879</v>
+        <v>0.2232669863184623</v>
       </c>
       <c r="J29" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K29" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003662264145136929</v>
+        <v>0.003532863300560685</v>
       </c>
       <c r="M29" t="n">
-        <v>16.01431199040724</v>
+        <v>15.9373473598984</v>
       </c>
       <c r="N29" t="n">
-        <v>762.8766556964074</v>
+        <v>757.6980115608787</v>
       </c>
       <c r="O29" t="n">
-        <v>27.62022186182449</v>
+        <v>27.52631489249658</v>
       </c>
       <c r="P29" t="n">
-        <v>347.6621217873039</v>
+        <v>347.7196693151506</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -29489,13 +29489,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0736</v>
+        <v>0.0771</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0921</v>
+        <v>0.0985</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7001796141220871</v>
@@ -29567,13 +29567,13 @@
         <v>0.9629576625377854</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0746</v>
+        <v>0.1221</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.1936</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4989804090034872</v>
@@ -29645,13 +29645,13 @@
         <v>0.9259153250761728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0707</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.1113</v>
       </c>
       <c r="I4" t="n">
         <v>-0.32746254949924</v>
@@ -29723,13 +29723,13 @@
         <v>0.8888729876139582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0776</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1658038628286695</v>
@@ -29801,13 +29801,13 @@
         <v>0.8518306501523456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0483</v>
+        <v>0.065</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0582</v>
+        <v>0.0736</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2200601566988351</v>
@@ -29879,13 +29879,13 @@
         <v>0.8147883126907332</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0462</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0521</v>
+        <v>0.0718</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4629661460521056</v>
@@ -29957,13 +29957,13 @@
         <v>0.7777459752288103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0516</v>
+        <v>0.0633</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0615</v>
+        <v>0.0718</v>
       </c>
       <c r="I8" t="n">
         <v>-0.5075375813884664</v>
@@ -30035,13 +30035,13 @@
         <v>0.7407036377665955</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0454</v>
+        <v>0.0581</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0556</v>
+        <v>0.0678</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5491820972262937</v>
@@ -30113,13 +30113,13 @@
         <v>0.7036613003049831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0449</v>
+        <v>0.0561</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0592</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5999484121271029</v>
@@ -30191,13 +30191,13 @@
         <v>0.6667318195609034</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0491</v>
+        <v>0.0612</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0641</v>
+        <v>0.0762</v>
       </c>
       <c r="I11" t="n">
         <v>-0.4031754057281503</v>
@@ -30269,13 +30269,13 @@
         <v>0.6296894820991285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0446</v>
+        <v>0.0483</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0594</v>
+        <v>0.0638</v>
       </c>
       <c r="I12" t="n">
         <v>-0.5227895481318282</v>
@@ -30347,13 +30347,13 @@
         <v>0.5926471446372874</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0355</v>
+        <v>0.045</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0517</v>
+        <v>0.0577</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5658619677941426</v>
@@ -30431,7 +30431,7 @@
         <v>0.0476</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0674</v>
       </c>
       <c r="I14" t="n">
         <v>-0.5004105011372548</v>
@@ -30503,13 +30503,13 @@
         <v>0.5185624697143983</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0606</v>
+        <v>0.0511</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1084</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>-0.7269453767910651</v>
@@ -30581,13 +30581,13 @@
         <v>0.4815201322525573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0366</v>
+        <v>0.0567</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0437</v>
+        <v>0.0906</v>
       </c>
       <c r="I16" t="n">
         <v>-0.4646537086352858</v>
@@ -30659,13 +30659,13 @@
         <v>0.4444777947907162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0292</v>
+        <v>0.0399</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0385</v>
+        <v>0.062</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3982865717992027</v>
@@ -30737,13 +30737,13 @@
         <v>0.4074629365687267</v>
       </c>
       <c r="F18" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0312</v>
+        <v>0.0348</v>
       </c>
       <c r="H18" t="n">
-        <v>0.043</v>
+        <v>0.047</v>
       </c>
       <c r="I18" t="n">
         <v>-0.3885613671016568</v>
@@ -30815,13 +30815,13 @@
         <v>0.3704205991070366</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0372</v>
+        <v>0.0495</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0472</v>
+        <v>0.0667</v>
       </c>
       <c r="I19" t="n">
         <v>-0.149953629044475</v>
@@ -30893,13 +30893,13 @@
         <v>0.3333782616453466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0464</v>
+        <v>0.0544</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0659</v>
+        <v>0.0784</v>
       </c>
       <c r="I20" t="n">
         <v>0.06681034238462817</v>
@@ -30971,13 +30971,13 @@
         <v>0.2963359241831588</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0432</v>
+        <v>0.0522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0566</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>0.1016795937974205</v>
@@ -31049,13 +31049,13 @@
         <v>0.2592936605352053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0386</v>
+        <v>0.046</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0526</v>
+        <v>0.0556</v>
       </c>
       <c r="I22" t="n">
         <v>0.2647442018420211</v>
@@ -31127,13 +31127,13 @@
         <v>0.2222513230732386</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0346</v>
+        <v>0.0574</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0453</v>
+        <v>0.0982</v>
       </c>
       <c r="I23" t="n">
         <v>0.293885612904321</v>
@@ -31205,13 +31205,13 @@
         <v>0.1852089856112719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0443</v>
+        <v>0.0448</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0638</v>
+        <v>0.0833</v>
       </c>
       <c r="I24" t="n">
         <v>0.0255231361283402</v>
@@ -31286,10 +31286,10 @@
         <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0654</v>
       </c>
       <c r="I25" t="n">
         <v>0.08321845953657145</v>
@@ -31361,13 +31361,13 @@
         <v>0.1111243106874965</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0374</v>
+        <v>0.0304</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0517</v>
+        <v>0.046</v>
       </c>
       <c r="I26" t="n">
         <v>0.162135180660674</v>
@@ -31442,10 +31442,10 @@
         <v>0.04</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0371</v>
+        <v>0.0342</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0465</v>
+        <v>0.048</v>
       </c>
       <c r="I27" t="n">
         <v>-0.06519261582279003</v>
@@ -31520,10 +31520,10 @@
         <v>0.045</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0394</v>
+        <v>0.0397</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0519</v>
+        <v>0.0572</v>
       </c>
       <c r="I28" t="n">
         <v>-0.1423770412642623</v>
@@ -31594,9 +31594,15 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I29" t="n">
         <v>0.2232676134425088</v>
       </c>

--- a/data/nzd0257/nzd0257.xlsx
+++ b/data/nzd0257/nzd0257.xlsx
@@ -601,7 +601,7 @@
         <v>355.3</v>
       </c>
       <c r="D2" t="n">
-        <v>336.45</v>
+        <v>336.08</v>
       </c>
       <c r="E2" t="n">
         <v>326.92</v>
@@ -695,7 +695,7 @@
         <v>364.27</v>
       </c>
       <c r="D3" t="n">
-        <v>345.96</v>
+        <v>345.75</v>
       </c>
       <c r="E3" t="n">
         <v>335.72</v>
@@ -791,7 +791,7 @@
         <v>358.54</v>
       </c>
       <c r="D4" t="n">
-        <v>339.3</v>
+        <v>339.67</v>
       </c>
       <c r="E4" t="n">
         <v>331.6</v>
@@ -885,7 +885,7 @@
         <v>348.09</v>
       </c>
       <c r="D5" t="n">
-        <v>331.63</v>
+        <v>331.69</v>
       </c>
       <c r="E5" t="n">
         <v>318.02</v>
@@ -981,7 +981,7 @@
         <v>350.43</v>
       </c>
       <c r="D6" t="n">
-        <v>341.89</v>
+        <v>341.55</v>
       </c>
       <c r="E6" t="n">
         <v>329.4</v>
@@ -1041,7 +1041,7 @@
         <v>344.16</v>
       </c>
       <c r="D7" t="n">
-        <v>334.75</v>
+        <v>335.13</v>
       </c>
       <c r="E7" t="n">
         <v>325.24</v>
@@ -1101,7 +1101,7 @@
         <v>343.44</v>
       </c>
       <c r="D8" t="n">
-        <v>333.53</v>
+        <v>333.13</v>
       </c>
       <c r="E8" t="n">
         <v>324.23</v>
@@ -1195,7 +1195,7 @@
         <v>351.56</v>
       </c>
       <c r="D9" t="n">
-        <v>346.11</v>
+        <v>346.42</v>
       </c>
       <c r="E9" t="n">
         <v>339.73</v>
@@ -1277,7 +1277,7 @@
         <v>334.79</v>
       </c>
       <c r="D10" t="n">
-        <v>327.26</v>
+        <v>326.86</v>
       </c>
       <c r="E10" t="n">
         <v>325.9</v>
@@ -1401,7 +1401,7 @@
         <v>354.34</v>
       </c>
       <c r="D12" t="n">
-        <v>339.37</v>
+        <v>339.74</v>
       </c>
       <c r="E12" t="n">
         <v>333.82</v>
@@ -1497,7 +1497,7 @@
         <v>353.74</v>
       </c>
       <c r="D13" t="n">
-        <v>338.36</v>
+        <v>338.78</v>
       </c>
       <c r="E13" t="n">
         <v>340.43</v>
@@ -1593,7 +1593,7 @@
         <v>356.21</v>
       </c>
       <c r="D14" t="n">
-        <v>347.93</v>
+        <v>347.79</v>
       </c>
       <c r="E14" t="n">
         <v>348.65</v>
@@ -1689,7 +1689,7 @@
         <v>346.85</v>
       </c>
       <c r="D15" t="n">
-        <v>334.91</v>
+        <v>334.89</v>
       </c>
       <c r="E15" t="n">
         <v>322.43</v>
@@ -1773,7 +1773,7 @@
         <v>346.89</v>
       </c>
       <c r="D16" t="n">
-        <v>342.49</v>
+        <v>342.84</v>
       </c>
       <c r="E16" t="n">
         <v>335.96</v>
@@ -1869,7 +1869,7 @@
         <v>352.59</v>
       </c>
       <c r="D17" t="n">
-        <v>343.95</v>
+        <v>343.66</v>
       </c>
       <c r="E17" t="n">
         <v>335.65</v>
@@ -1965,7 +1965,7 @@
         <v>343.4</v>
       </c>
       <c r="D18" t="n">
-        <v>338.07</v>
+        <v>337.31</v>
       </c>
       <c r="E18" t="n">
         <v>326.83</v>
@@ -2061,7 +2061,7 @@
         <v>335.04</v>
       </c>
       <c r="D19" t="n">
-        <v>322.85</v>
+        <v>322.37</v>
       </c>
       <c r="E19" t="n">
         <v>317.56</v>
@@ -2157,7 +2157,7 @@
         <v>345.74</v>
       </c>
       <c r="D20" t="n">
-        <v>330.93</v>
+        <v>331.25</v>
       </c>
       <c r="E20" t="n">
         <v>319.57</v>
@@ -2249,7 +2249,7 @@
         <v>349.14</v>
       </c>
       <c r="D21" t="n">
-        <v>339.95</v>
+        <v>340.4</v>
       </c>
       <c r="E21" t="n">
         <v>330.38</v>
@@ -2293,7 +2293,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>339.65</v>
+        <v>338.98</v>
       </c>
       <c r="E22" t="n">
         <v>332.16</v>
@@ -2375,7 +2375,7 @@
         <v>345.73</v>
       </c>
       <c r="D23" t="n">
-        <v>340.79</v>
+        <v>341.22</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
         <v>343.91</v>
       </c>
       <c r="D25" t="n">
-        <v>337.72</v>
+        <v>336.86</v>
       </c>
       <c r="E25" t="n">
         <v>323.46</v>
@@ -2629,7 +2629,7 @@
         <v>331.96</v>
       </c>
       <c r="D26" t="n">
-        <v>322.35</v>
+        <v>321.78</v>
       </c>
       <c r="E26" t="n">
         <v>317.51</v>
@@ -2711,7 +2711,7 @@
         <v>337.48</v>
       </c>
       <c r="D27" t="n">
-        <v>325.05</v>
+        <v>325.09</v>
       </c>
       <c r="E27" t="n">
         <v>317.15</v>
@@ -2773,7 +2773,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>337</v>
+        <v>336.48</v>
       </c>
       <c r="E28" t="n">
         <v>328.67</v>
@@ -2861,7 +2861,7 @@
         <v>340.98</v>
       </c>
       <c r="D29" t="n">
-        <v>334.55</v>
+        <v>334.48</v>
       </c>
       <c r="E29" t="n">
         <v>338.69</v>
@@ -2949,7 +2949,7 @@
         <v>342.59</v>
       </c>
       <c r="D30" t="n">
-        <v>332.18</v>
+        <v>331.42</v>
       </c>
       <c r="E30" t="n">
         <v>321.67</v>
@@ -3095,7 +3095,7 @@
         <v>340.4</v>
       </c>
       <c r="D32" t="n">
-        <v>327.84</v>
+        <v>328.24</v>
       </c>
       <c r="E32" t="n">
         <v>311.3</v>
@@ -3155,7 +3155,7 @@
         <v>348.85</v>
       </c>
       <c r="D33" t="n">
-        <v>340.79</v>
+        <v>341.15</v>
       </c>
       <c r="E33" t="n">
         <v>323.66</v>
@@ -3239,7 +3239,7 @@
         <v>342.8</v>
       </c>
       <c r="D34" t="n">
-        <v>331.74</v>
+        <v>332.22</v>
       </c>
       <c r="E34" t="n">
         <v>332.56</v>
@@ -3395,7 +3395,7 @@
         <v>338.21</v>
       </c>
       <c r="D36" t="n">
-        <v>326.6</v>
+        <v>326.33</v>
       </c>
       <c r="E36" t="n">
         <v>319.74</v>
@@ -3491,7 +3491,7 @@
         <v>367.74</v>
       </c>
       <c r="D37" t="n">
-        <v>352.13</v>
+        <v>352.4</v>
       </c>
       <c r="E37" t="n">
         <v>344.07</v>
@@ -3583,7 +3583,7 @@
         <v>343.05</v>
       </c>
       <c r="D38" t="n">
-        <v>332.42</v>
+        <v>331.5</v>
       </c>
       <c r="E38" t="n">
         <v>325.7</v>
@@ -3663,7 +3663,7 @@
         <v>360.32</v>
       </c>
       <c r="D39" t="n">
-        <v>352.59</v>
+        <v>351.86</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>358.23</v>
       </c>
       <c r="D40" t="n">
-        <v>343</v>
+        <v>343.37</v>
       </c>
       <c r="E40" t="n">
         <v>331.68</v>
@@ -3827,7 +3827,7 @@
         <v>352.62</v>
       </c>
       <c r="D41" t="n">
-        <v>346.14</v>
+        <v>345.53</v>
       </c>
       <c r="E41" t="n">
         <v>338.83</v>
@@ -3911,7 +3911,7 @@
         <v>355.1</v>
       </c>
       <c r="D42" t="n">
-        <v>340.16</v>
+        <v>340.15</v>
       </c>
       <c r="E42" t="n">
         <v>329.92</v>
@@ -3997,7 +3997,7 @@
         <v>342.99</v>
       </c>
       <c r="D43" t="n">
-        <v>335.09</v>
+        <v>334.65</v>
       </c>
       <c r="E43" t="n">
         <v>321.91</v>
@@ -4091,7 +4091,7 @@
         <v>345.25</v>
       </c>
       <c r="D44" t="n">
-        <v>337.3</v>
+        <v>336.81</v>
       </c>
       <c r="E44" t="n">
         <v>324.35</v>
@@ -4173,7 +4173,7 @@
         <v>346.86</v>
       </c>
       <c r="D45" t="n">
-        <v>338.11</v>
+        <v>337.25</v>
       </c>
       <c r="E45" t="n">
         <v>337.72</v>
@@ -4257,7 +4257,7 @@
         <v>374.61</v>
       </c>
       <c r="D46" t="n">
-        <v>352.8</v>
+        <v>353.25</v>
       </c>
       <c r="E46" t="n">
         <v>350.73</v>
@@ -4353,7 +4353,7 @@
         <v>369.07</v>
       </c>
       <c r="D47" t="n">
-        <v>360.41</v>
+        <v>360.49</v>
       </c>
       <c r="E47" t="n">
         <v>348.14</v>
@@ -4427,7 +4427,7 @@
         <v>347.81</v>
       </c>
       <c r="D48" t="n">
-        <v>342.8</v>
+        <v>342.68</v>
       </c>
       <c r="E48" t="n">
         <v>337.74</v>
@@ -4601,7 +4601,7 @@
         <v>366.05</v>
       </c>
       <c r="D50" t="n">
-        <v>353.48</v>
+        <v>353.77</v>
       </c>
       <c r="E50" t="n">
         <v>339.46</v>
@@ -4865,7 +4865,7 @@
         <v>365.51</v>
       </c>
       <c r="D53" t="n">
-        <v>357.29</v>
+        <v>357.38</v>
       </c>
       <c r="E53" t="n">
         <v>342</v>
@@ -4943,7 +4943,7 @@
         <v>362.4</v>
       </c>
       <c r="D54" t="n">
-        <v>344.46</v>
+        <v>344.72</v>
       </c>
       <c r="E54" t="n">
         <v>328.43</v>
@@ -5025,7 +5025,7 @@
         <v>341.81</v>
       </c>
       <c r="D55" t="n">
-        <v>335.61</v>
+        <v>336.16</v>
       </c>
       <c r="E55" t="n">
         <v>328.63</v>
@@ -5103,7 +5103,7 @@
         <v>349.84</v>
       </c>
       <c r="D56" t="n">
-        <v>344.27</v>
+        <v>343.76</v>
       </c>
       <c r="E56" t="n">
         <v>331.1</v>
@@ -5189,7 +5189,7 @@
         <v>340.13</v>
       </c>
       <c r="D57" t="n">
-        <v>326.26</v>
+        <v>325.8</v>
       </c>
       <c r="E57" t="n">
         <v>310.71</v>
@@ -5395,7 +5395,7 @@
         <v>342.13</v>
       </c>
       <c r="D60" t="n">
-        <v>333.52</v>
+        <v>332.89</v>
       </c>
       <c r="E60" t="n">
         <v>312.78</v>
@@ -5481,7 +5481,7 @@
         <v>341.89</v>
       </c>
       <c r="D61" t="n">
-        <v>336.33</v>
+        <v>335.45</v>
       </c>
       <c r="E61" t="n">
         <v>325.01</v>
@@ -5627,7 +5627,7 @@
         <v>364.68</v>
       </c>
       <c r="D63" t="n">
-        <v>349.79</v>
+        <v>350.21</v>
       </c>
       <c r="E63" t="n">
         <v>338.89</v>
@@ -5891,7 +5891,7 @@
         <v>345.97</v>
       </c>
       <c r="D67" t="n">
-        <v>338.58</v>
+        <v>338.51</v>
       </c>
       <c r="E67" t="n">
         <v>328.62</v>
@@ -5975,7 +5975,7 @@
         <v>345.69</v>
       </c>
       <c r="D68" t="n">
-        <v>339.27</v>
+        <v>338.45</v>
       </c>
       <c r="E68" t="n">
         <v>321.79</v>
@@ -6065,7 +6065,7 @@
         <v>353.69</v>
       </c>
       <c r="D69" t="n">
-        <v>344.12</v>
+        <v>343.61</v>
       </c>
       <c r="E69" t="n">
         <v>325.33</v>
@@ -6161,7 +6161,7 @@
         <v>339.72</v>
       </c>
       <c r="D70" t="n">
-        <v>335.36</v>
+        <v>335</v>
       </c>
       <c r="E70" t="n">
         <v>330.35</v>
@@ -6329,7 +6329,7 @@
         <v>342.51</v>
       </c>
       <c r="D72" t="n">
-        <v>336.27</v>
+        <v>336.25</v>
       </c>
       <c r="E72" t="n">
         <v>321.35</v>
@@ -6425,7 +6425,7 @@
         <v>351.28</v>
       </c>
       <c r="D73" t="n">
-        <v>355.09</v>
+        <v>355.34</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
         <v>341.57</v>
       </c>
       <c r="D74" t="n">
-        <v>330.1</v>
+        <v>329.54</v>
       </c>
       <c r="E74" t="n">
         <v>321.46</v>
@@ -6609,7 +6609,7 @@
         <v>339.02</v>
       </c>
       <c r="D75" t="n">
-        <v>329.06</v>
+        <v>328.17</v>
       </c>
       <c r="E75" t="n">
         <v>318.92</v>
@@ -6705,7 +6705,7 @@
         <v>332.85</v>
       </c>
       <c r="D76" t="n">
-        <v>321.8</v>
+        <v>321.1</v>
       </c>
       <c r="E76" t="n">
         <v>313.04</v>
@@ -6787,7 +6787,7 @@
         <v>349.74</v>
       </c>
       <c r="D77" t="n">
-        <v>342.94</v>
+        <v>342.33</v>
       </c>
       <c r="E77" t="n">
         <v>330.39</v>
@@ -6859,7 +6859,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>322.28</v>
+        <v>321.72</v>
       </c>
       <c r="E78" t="n">
         <v>310.6</v>
@@ -6937,7 +6937,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>342.83</v>
+        <v>342.71</v>
       </c>
       <c r="E79" t="n">
         <v>341.94</v>
@@ -7017,7 +7017,7 @@
         <v>346.44</v>
       </c>
       <c r="D80" t="n">
-        <v>342.7</v>
+        <v>343.16</v>
       </c>
       <c r="E80" t="n">
         <v>328.44</v>
@@ -7101,7 +7101,7 @@
         <v>353.95</v>
       </c>
       <c r="D81" t="n">
-        <v>340.44</v>
+        <v>340.43</v>
       </c>
       <c r="E81" t="n">
         <v>326.41</v>
@@ -7189,7 +7189,7 @@
         <v>358.41</v>
       </c>
       <c r="D82" t="n">
-        <v>347.36</v>
+        <v>347.52</v>
       </c>
       <c r="E82" t="n">
         <v>329.28</v>
@@ -7343,7 +7343,7 @@
         <v>334.13</v>
       </c>
       <c r="D84" t="n">
-        <v>326.55</v>
+        <v>325.85</v>
       </c>
       <c r="E84" t="n">
         <v>321.74</v>
@@ -7429,7 +7429,7 @@
         <v>339.71</v>
       </c>
       <c r="D85" t="n">
-        <v>326.68</v>
+        <v>326.53</v>
       </c>
       <c r="E85" t="n">
         <v>316.12</v>
@@ -7583,7 +7583,7 @@
         <v>341.52</v>
       </c>
       <c r="D87" t="n">
-        <v>328.39</v>
+        <v>328.56</v>
       </c>
       <c r="E87" t="n">
         <v>313.05</v>
@@ -7669,7 +7669,7 @@
         <v>342.57</v>
       </c>
       <c r="D88" t="n">
-        <v>324.46</v>
+        <v>324.87</v>
       </c>
       <c r="E88" t="n">
         <v>307.98</v>
@@ -7757,7 +7757,7 @@
         <v>344.26</v>
       </c>
       <c r="D89" t="n">
-        <v>332.58</v>
+        <v>332.56</v>
       </c>
       <c r="E89" t="n">
         <v>314.09</v>
@@ -7843,7 +7843,7 @@
         <v>349.7</v>
       </c>
       <c r="D90" t="n">
-        <v>341.77</v>
+        <v>342.19</v>
       </c>
       <c r="E90" t="n">
         <v>339.5</v>
@@ -7929,7 +7929,7 @@
         <v>351.35</v>
       </c>
       <c r="D91" t="n">
-        <v>335.01</v>
+        <v>335.13</v>
       </c>
       <c r="E91" t="n">
         <v>325.68</v>
@@ -8017,7 +8017,7 @@
         <v>348.69</v>
       </c>
       <c r="D92" t="n">
-        <v>328.31</v>
+        <v>328.75</v>
       </c>
       <c r="E92" t="n">
         <v>313.55</v>
@@ -8105,7 +8105,7 @@
         <v>343.61</v>
       </c>
       <c r="D93" t="n">
-        <v>330.73</v>
+        <v>330.72</v>
       </c>
       <c r="E93" t="n">
         <v>313.81</v>
@@ -8279,7 +8279,7 @@
         <v>342.49</v>
       </c>
       <c r="D95" t="n">
-        <v>320.75</v>
+        <v>320.33</v>
       </c>
       <c r="E95" t="n">
         <v>308.29</v>
@@ -8341,7 +8341,7 @@
         <v>349.14</v>
       </c>
       <c r="D96" t="n">
-        <v>339.33</v>
+        <v>338.57</v>
       </c>
       <c r="E96" t="n">
         <v>324.74</v>
@@ -8423,7 +8423,7 @@
         <v>338.43</v>
       </c>
       <c r="D97" t="n">
-        <v>330.3</v>
+        <v>329.65</v>
       </c>
       <c r="E97" t="n">
         <v>317.09</v>
@@ -8503,7 +8503,7 @@
         <v>344.15</v>
       </c>
       <c r="D98" t="n">
-        <v>335.51</v>
+        <v>335.66</v>
       </c>
       <c r="E98" t="n">
         <v>323.85</v>
@@ -8589,7 +8589,7 @@
         <v>340.21</v>
       </c>
       <c r="D99" t="n">
-        <v>327.53</v>
+        <v>327.57</v>
       </c>
       <c r="E99" t="n">
         <v>311.8</v>
@@ -8661,7 +8661,7 @@
         <v>345.1</v>
       </c>
       <c r="D100" t="n">
-        <v>341.94</v>
+        <v>341.37</v>
       </c>
       <c r="E100" t="n">
         <v>328.19</v>
@@ -8811,7 +8811,7 @@
         <v>346.51</v>
       </c>
       <c r="D102" t="n">
-        <v>335.52</v>
+        <v>335.21</v>
       </c>
       <c r="E102" t="n">
         <v>325.68</v>
@@ -8903,7 +8903,7 @@
         <v>352.76</v>
       </c>
       <c r="D103" t="n">
-        <v>347.79</v>
+        <v>347.94</v>
       </c>
       <c r="E103" t="n">
         <v>335.83</v>
@@ -8989,7 +8989,7 @@
         <v>344.5</v>
       </c>
       <c r="D104" t="n">
-        <v>336.31</v>
+        <v>335.86</v>
       </c>
       <c r="E104" t="n">
         <v>325.02</v>
@@ -9065,7 +9065,7 @@
         <v>345.05</v>
       </c>
       <c r="D105" t="n">
-        <v>334.77</v>
+        <v>334.53</v>
       </c>
       <c r="E105" t="n">
         <v>322.34</v>
@@ -9333,7 +9333,7 @@
         <v>336.85</v>
       </c>
       <c r="D108" t="n">
-        <v>331.52</v>
+        <v>330.7</v>
       </c>
       <c r="E108" t="n">
         <v>318.33</v>
@@ -9421,7 +9421,7 @@
         <v>337.69</v>
       </c>
       <c r="D109" t="n">
-        <v>329.13</v>
+        <v>329.63</v>
       </c>
       <c r="E109" t="n">
         <v>303.99</v>
@@ -9485,7 +9485,7 @@
         <v>349.68</v>
       </c>
       <c r="D110" t="n">
-        <v>332.65</v>
+        <v>333.11</v>
       </c>
       <c r="E110" t="n">
         <v>325.45</v>
@@ -9581,7 +9581,7 @@
         <v>346.62</v>
       </c>
       <c r="D111" t="n">
-        <v>338.25</v>
+        <v>337.46</v>
       </c>
       <c r="E111" t="n">
         <v>332.27</v>
@@ -9753,7 +9753,7 @@
         <v>343.08</v>
       </c>
       <c r="D113" t="n">
-        <v>329.71</v>
+        <v>329.74</v>
       </c>
       <c r="E113" t="n">
         <v>320.45</v>
@@ -9841,7 +9841,7 @@
         <v>345.21</v>
       </c>
       <c r="D114" t="n">
-        <v>334.22</v>
+        <v>334.75</v>
       </c>
       <c r="E114" t="n">
         <v>325.27</v>
@@ -9929,7 +9929,7 @@
         <v>339.16</v>
       </c>
       <c r="D115" t="n">
-        <v>332.68</v>
+        <v>331.93</v>
       </c>
       <c r="E115" t="n">
         <v>324.07</v>
@@ -10099,7 +10099,7 @@
         <v>345.25</v>
       </c>
       <c r="D117" t="n">
-        <v>331.76</v>
+        <v>331.53</v>
       </c>
       <c r="E117" t="n">
         <v>322.6</v>
@@ -10187,7 +10187,7 @@
         <v>348.99</v>
       </c>
       <c r="D118" t="n">
-        <v>332.74</v>
+        <v>332.96</v>
       </c>
       <c r="E118" t="n">
         <v>316.49</v>
@@ -10355,7 +10355,7 @@
         <v>337.32</v>
       </c>
       <c r="D120" t="n">
-        <v>327.9</v>
+        <v>328.08</v>
       </c>
       <c r="E120" t="n">
         <v>310.88</v>
@@ -10533,7 +10533,7 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>341.02</v>
+        <v>341.1</v>
       </c>
       <c r="E122" t="n">
         <v>324.59</v>
@@ -10619,7 +10619,7 @@
         <v>346.59</v>
       </c>
       <c r="D123" t="n">
-        <v>341.29</v>
+        <v>341.36</v>
       </c>
       <c r="E123" t="n">
         <v>333.01</v>
@@ -10791,7 +10791,7 @@
         <v>347</v>
       </c>
       <c r="D125" t="n">
-        <v>334.01</v>
+        <v>334.52</v>
       </c>
       <c r="E125" t="n">
         <v>333.02</v>
@@ -10969,7 +10969,7 @@
         <v>339.08</v>
       </c>
       <c r="D127" t="n">
-        <v>327.56</v>
+        <v>327.53</v>
       </c>
       <c r="E127" t="n">
         <v>317.42</v>
@@ -11055,7 +11055,7 @@
         <v>330.93</v>
       </c>
       <c r="D128" t="n">
-        <v>325.77</v>
+        <v>325.36</v>
       </c>
       <c r="E128" t="n">
         <v>312.77</v>
@@ -11149,7 +11149,7 @@
         <v>341.27</v>
       </c>
       <c r="D129" t="n">
-        <v>334.78</v>
+        <v>335.11</v>
       </c>
       <c r="E129" t="n">
         <v>328.52</v>
@@ -11231,7 +11231,7 @@
         <v>327.15</v>
       </c>
       <c r="D130" t="n">
-        <v>324.35</v>
+        <v>323.71</v>
       </c>
       <c r="E130" t="n">
         <v>316.69</v>
@@ -11319,7 +11319,7 @@
         <v>319.86</v>
       </c>
       <c r="D131" t="n">
-        <v>314.6</v>
+        <v>314.59</v>
       </c>
       <c r="E131" t="n">
         <v>318.64</v>
@@ -11383,7 +11383,7 @@
         <v>336.67</v>
       </c>
       <c r="D132" t="n">
-        <v>328.74</v>
+        <v>329.02</v>
       </c>
       <c r="E132" t="n">
         <v>328.63</v>
@@ -11473,7 +11473,7 @@
         <v>331.82</v>
       </c>
       <c r="D133" t="n">
-        <v>337.11</v>
+        <v>337.26</v>
       </c>
       <c r="E133" t="n">
         <v>323.3</v>
@@ -11569,7 +11569,7 @@
         <v>326.63</v>
       </c>
       <c r="D134" t="n">
-        <v>323.59</v>
+        <v>322.95</v>
       </c>
       <c r="E134" t="n">
         <v>319.74</v>
@@ -11663,7 +11663,7 @@
         <v>342.08</v>
       </c>
       <c r="D135" t="n">
-        <v>335.98</v>
+        <v>335.83</v>
       </c>
       <c r="E135" t="n">
         <v>334.75</v>
@@ -11759,7 +11759,7 @@
         <v>344.52</v>
       </c>
       <c r="D136" t="n">
-        <v>332.18</v>
+        <v>332.22</v>
       </c>
       <c r="E136" t="n">
         <v>336.24</v>
@@ -11855,7 +11855,7 @@
         <v>327.65</v>
       </c>
       <c r="D137" t="n">
-        <v>330.59</v>
+        <v>329.95</v>
       </c>
       <c r="E137" t="n">
         <v>333.06</v>
@@ -11945,7 +11945,7 @@
         <v>324.43</v>
       </c>
       <c r="D138" t="n">
-        <v>331.39</v>
+        <v>330.5</v>
       </c>
       <c r="E138" t="n">
         <v>327.85</v>
@@ -12027,7 +12027,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>326.58</v>
+        <v>326.13</v>
       </c>
       <c r="E139" t="n">
         <v>318.15</v>
@@ -12295,7 +12295,7 @@
         <v>338.01</v>
       </c>
       <c r="D143" t="n">
-        <v>333.09</v>
+        <v>333.32</v>
       </c>
       <c r="E143" t="n">
         <v>335.26</v>
@@ -12373,7 +12373,7 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>347.34</v>
+        <v>347.25</v>
       </c>
       <c r="E144" t="n">
         <v>330.69</v>
@@ -12427,7 +12427,7 @@
         <v>322.28</v>
       </c>
       <c r="D145" t="n">
-        <v>311.68</v>
+        <v>311.74</v>
       </c>
       <c r="E145" t="n">
         <v>310.14</v>
@@ -12507,7 +12507,7 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>319.26</v>
+        <v>318.68</v>
       </c>
       <c r="E146" t="n">
         <v>314.85</v>
@@ -12589,7 +12589,7 @@
         <v>360.62</v>
       </c>
       <c r="D147" t="n">
-        <v>347.8</v>
+        <v>348.13</v>
       </c>
       <c r="E147" t="n">
         <v>339.54</v>
@@ -12665,7 +12665,7 @@
         <v>334.03</v>
       </c>
       <c r="D148" t="n">
-        <v>336.58</v>
+        <v>335.9</v>
       </c>
       <c r="E148" t="n">
         <v>326.83</v>
@@ -12747,7 +12747,7 @@
         <v>347.8</v>
       </c>
       <c r="D149" t="n">
-        <v>338.64</v>
+        <v>339.03</v>
       </c>
       <c r="E149" t="n">
         <v>328.83</v>
@@ -12843,7 +12843,7 @@
         <v>340.17</v>
       </c>
       <c r="D150" t="n">
-        <v>332.06</v>
+        <v>331.61</v>
       </c>
       <c r="E150" t="n">
         <v>323.35</v>
@@ -13013,7 +13013,7 @@
         <v>328.72</v>
       </c>
       <c r="D152" t="n">
-        <v>331.72</v>
+        <v>331.78</v>
       </c>
       <c r="E152" t="n">
         <v>322.23</v>
@@ -13109,7 +13109,7 @@
         <v>338.69</v>
       </c>
       <c r="D153" t="n">
-        <v>327.87</v>
+        <v>327.92</v>
       </c>
       <c r="E153" t="n">
         <v>329.06</v>
@@ -13199,7 +13199,7 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>322.86</v>
+        <v>322.89</v>
       </c>
       <c r="E154" t="n">
         <v>315.58</v>
@@ -13283,7 +13283,7 @@
         <v>335.86</v>
       </c>
       <c r="D155" t="n">
-        <v>331.76</v>
+        <v>331.29</v>
       </c>
       <c r="E155" t="n">
         <v>325.1</v>
@@ -13359,7 +13359,7 @@
         <v>335.27</v>
       </c>
       <c r="D156" t="n">
-        <v>332.97</v>
+        <v>332.26</v>
       </c>
       <c r="E156" t="n">
         <v>329.93</v>
@@ -13449,7 +13449,7 @@
         <v>331.63</v>
       </c>
       <c r="D157" t="n">
-        <v>326.91</v>
+        <v>326.13</v>
       </c>
       <c r="E157" t="n">
         <v>319.12</v>
@@ -13531,7 +13531,7 @@
         <v>336.88</v>
       </c>
       <c r="D158" t="n">
-        <v>327.45</v>
+        <v>327.42</v>
       </c>
       <c r="E158" t="n">
         <v>324.41</v>
@@ -13703,7 +13703,7 @@
         <v>335.4</v>
       </c>
       <c r="D160" t="n">
-        <v>331.2</v>
+        <v>330.56</v>
       </c>
       <c r="E160" t="n">
         <v>325.77</v>
@@ -13783,7 +13783,7 @@
         <v>333.38</v>
       </c>
       <c r="D161" t="n">
-        <v>341.49</v>
+        <v>341</v>
       </c>
       <c r="E161" t="n">
         <v>329.63</v>
@@ -13879,7 +13879,7 @@
         <v>348.49</v>
       </c>
       <c r="D162" t="n">
-        <v>338.24</v>
+        <v>337.53</v>
       </c>
       <c r="E162" t="n">
         <v>340.61</v>
@@ -13975,7 +13975,7 @@
         <v>348.36</v>
       </c>
       <c r="D163" t="n">
-        <v>330.12</v>
+        <v>330.6</v>
       </c>
       <c r="E163" t="n">
         <v>320.1</v>
@@ -14147,7 +14147,7 @@
         <v>343.93</v>
       </c>
       <c r="D165" t="n">
-        <v>330.62</v>
+        <v>330.1</v>
       </c>
       <c r="E165" t="n">
         <v>330.68</v>
@@ -14243,7 +14243,7 @@
         <v>348.18</v>
       </c>
       <c r="D166" t="n">
-        <v>339.37</v>
+        <v>339.69</v>
       </c>
       <c r="E166" t="n">
         <v>337.34</v>
@@ -14339,7 +14339,7 @@
         <v>341.22</v>
       </c>
       <c r="D167" t="n">
-        <v>336.47</v>
+        <v>336.17</v>
       </c>
       <c r="E167" t="n">
         <v>323.73</v>
@@ -14405,7 +14405,7 @@
         <v>327.13</v>
       </c>
       <c r="D168" t="n">
-        <v>323.68</v>
+        <v>323.19</v>
       </c>
       <c r="E168" t="n">
         <v>316.5</v>
@@ -14485,7 +14485,7 @@
         <v>339</v>
       </c>
       <c r="D169" t="n">
-        <v>330.97</v>
+        <v>330.33</v>
       </c>
       <c r="E169" t="n">
         <v>327.73</v>
@@ -14653,7 +14653,7 @@
         <v>335.4</v>
       </c>
       <c r="D171" t="n">
-        <v>328.11</v>
+        <v>328.1</v>
       </c>
       <c r="E171" t="n">
         <v>322.04</v>
@@ -14747,7 +14747,7 @@
         <v>335.16</v>
       </c>
       <c r="D172" t="n">
-        <v>332.32</v>
+        <v>331.59</v>
       </c>
       <c r="E172" t="n">
         <v>330.25</v>
@@ -14835,7 +14835,7 @@
         <v>343.23</v>
       </c>
       <c r="D173" t="n">
-        <v>332.43</v>
+        <v>332.96</v>
       </c>
       <c r="E173" t="n">
         <v>324.45</v>
@@ -14925,7 +14925,7 @@
         <v>343.04</v>
       </c>
       <c r="D174" t="n">
-        <v>335.92</v>
+        <v>336.23</v>
       </c>
       <c r="E174" t="n">
         <v>328.45</v>
@@ -15223,7 +15223,7 @@
         <v>346.17</v>
       </c>
       <c r="D178" t="n">
-        <v>336.91</v>
+        <v>336.43</v>
       </c>
       <c r="E178" t="n">
         <v>339.25</v>
@@ -15301,7 +15301,7 @@
         <v>335.43</v>
       </c>
       <c r="D179" t="n">
-        <v>329.49</v>
+        <v>329.6</v>
       </c>
       <c r="E179" t="n">
         <v>319.46</v>
@@ -15387,7 +15387,7 @@
         <v>345.01</v>
       </c>
       <c r="D180" t="n">
-        <v>329.57</v>
+        <v>329.13</v>
       </c>
       <c r="E180" t="n">
         <v>329.78</v>
@@ -15511,7 +15511,7 @@
         <v>335.47</v>
       </c>
       <c r="D182" t="n">
-        <v>315.84</v>
+        <v>316.18</v>
       </c>
       <c r="E182" t="n">
         <v>311.16</v>
@@ -15607,7 +15607,7 @@
         <v>344.41</v>
       </c>
       <c r="D183" t="n">
-        <v>325.71</v>
+        <v>326.15</v>
       </c>
       <c r="E183" t="n">
         <v>325.11</v>
@@ -15703,7 +15703,7 @@
         <v>333.9</v>
       </c>
       <c r="D184" t="n">
-        <v>335.15</v>
+        <v>334.32</v>
       </c>
       <c r="E184" t="n">
         <v>334.06</v>
@@ -15857,7 +15857,7 @@
         <v>334.95</v>
       </c>
       <c r="D186" t="n">
-        <v>336.48</v>
+        <v>336.07</v>
       </c>
       <c r="E186" t="n">
         <v>326.31</v>
@@ -15949,7 +15949,7 @@
         <v>340.73</v>
       </c>
       <c r="D187" t="n">
-        <v>328.57</v>
+        <v>329.06</v>
       </c>
       <c r="E187" t="n">
         <v>324.68</v>
@@ -16039,7 +16039,7 @@
         <v>333.57</v>
       </c>
       <c r="D188" t="n">
-        <v>329.61</v>
+        <v>329.54</v>
       </c>
       <c r="E188" t="n">
         <v>327.51</v>
@@ -16107,7 +16107,7 @@
         <v>324.35</v>
       </c>
       <c r="D189" t="n">
-        <v>326.99</v>
+        <v>326.9</v>
       </c>
       <c r="E189" t="n">
         <v>322.61</v>
@@ -16197,7 +16197,7 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>323.13</v>
+        <v>322.73</v>
       </c>
       <c r="E190" t="n">
         <v>316.78</v>
@@ -16267,7 +16267,7 @@
         <v>340.25</v>
       </c>
       <c r="D191" t="n">
-        <v>333.4</v>
+        <v>333.98</v>
       </c>
       <c r="E191" t="n">
         <v>322.35</v>
@@ -16353,7 +16353,7 @@
         <v>338.99</v>
       </c>
       <c r="D192" t="n">
-        <v>340.25</v>
+        <v>339.34</v>
       </c>
       <c r="E192" t="n">
         <v>328.86</v>
@@ -16505,7 +16505,7 @@
         <v>329.31</v>
       </c>
       <c r="D194" t="n">
-        <v>328</v>
+        <v>327.47</v>
       </c>
       <c r="E194" t="n">
         <v>318.94</v>
@@ -16575,7 +16575,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>326.45</v>
+        <v>326.41</v>
       </c>
       <c r="E195" t="n">
         <v>319.27</v>
@@ -16661,7 +16661,7 @@
         <v>339.58</v>
       </c>
       <c r="D196" t="n">
-        <v>332.12</v>
+        <v>332.04</v>
       </c>
       <c r="E196" t="n">
         <v>328.91</v>
@@ -16757,7 +16757,7 @@
         <v>344.91</v>
       </c>
       <c r="D197" t="n">
-        <v>341.35</v>
+        <v>341.2</v>
       </c>
       <c r="E197" t="n">
         <v>336.86</v>
@@ -16831,7 +16831,7 @@
         <v>337.87</v>
       </c>
       <c r="D198" t="n">
-        <v>327.05</v>
+        <v>327</v>
       </c>
       <c r="E198" t="n">
         <v>322.61</v>
@@ -16927,7 +16927,7 @@
         <v>336.32</v>
       </c>
       <c r="D199" t="n">
-        <v>336.64</v>
+        <v>335.78</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -17005,7 +17005,7 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>327.81</v>
+        <v>328.17</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>326.03</v>
+        <v>325.27</v>
       </c>
       <c r="E201" t="n">
         <v>321.24</v>
@@ -17253,7 +17253,7 @@
         <v>341.76</v>
       </c>
       <c r="D204" t="n">
-        <v>334.26</v>
+        <v>333.57</v>
       </c>
       <c r="E204" t="n">
         <v>330.71</v>
@@ -17321,7 +17321,7 @@
         <v>333.29</v>
       </c>
       <c r="D205" t="n">
-        <v>326.11</v>
+        <v>325.42</v>
       </c>
       <c r="E205" t="n">
         <v>322.23</v>
@@ -17411,7 +17411,7 @@
         <v>334.82</v>
       </c>
       <c r="D206" t="n">
-        <v>327.99</v>
+        <v>328.36</v>
       </c>
       <c r="E206" t="n">
         <v>322.36</v>
@@ -17561,7 +17561,7 @@
         <v>327.59</v>
       </c>
       <c r="D208" t="n">
-        <v>327.88</v>
+        <v>327.04</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
@@ -17641,7 +17641,7 @@
         <v>339.47</v>
       </c>
       <c r="D209" t="n">
-        <v>330.65</v>
+        <v>331.11</v>
       </c>
       <c r="E209" t="n">
         <v>323.95</v>
@@ -17853,7 +17853,7 @@
         <v>330.27</v>
       </c>
       <c r="D212" t="n">
-        <v>309.56</v>
+        <v>309.81</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -17933,7 +17933,7 @@
         <v>334.15</v>
       </c>
       <c r="D213" t="n">
-        <v>335.09</v>
+        <v>335.65</v>
       </c>
       <c r="E213" t="n">
         <v>325.44</v>
@@ -18009,7 +18009,7 @@
         <v>337.4</v>
       </c>
       <c r="D214" t="n">
-        <v>332.83</v>
+        <v>332.04</v>
       </c>
       <c r="E214" t="n">
         <v>328.42</v>
@@ -18101,7 +18101,7 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>327.13</v>
+        <v>327.38</v>
       </c>
       <c r="E215" t="n">
         <v>325.3</v>
@@ -18187,7 +18187,7 @@
         <v>337.36</v>
       </c>
       <c r="D216" t="n">
-        <v>337</v>
+        <v>336.57</v>
       </c>
       <c r="E216" t="n">
         <v>328.48</v>
@@ -18279,7 +18279,7 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>333.09</v>
+        <v>332.9</v>
       </c>
       <c r="E217" t="n">
         <v>324.35</v>
@@ -18359,7 +18359,7 @@
         <v>343.13</v>
       </c>
       <c r="D218" t="n">
-        <v>339.24</v>
+        <v>339.11</v>
       </c>
       <c r="E218" t="n">
         <v>337.67</v>
@@ -18509,7 +18509,7 @@
         <v>355.34</v>
       </c>
       <c r="D220" t="n">
-        <v>338.41</v>
+        <v>338.84</v>
       </c>
       <c r="E220" t="n">
         <v>332.4</v>
@@ -18597,7 +18597,7 @@
         <v>343.08</v>
       </c>
       <c r="D221" t="n">
-        <v>336.92</v>
+        <v>337.22</v>
       </c>
       <c r="E221" t="n">
         <v>316.18</v>
@@ -18655,7 +18655,7 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>331.78</v>
+        <v>332.37</v>
       </c>
       <c r="E222" t="n">
         <v>320.85</v>
@@ -18727,7 +18727,7 @@
         <v>338.5</v>
       </c>
       <c r="D223" t="n">
-        <v>338.9</v>
+        <v>338.19</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -18843,7 +18843,7 @@
         <v>337.42</v>
       </c>
       <c r="D225" t="n">
-        <v>332.02</v>
+        <v>331.78</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
@@ -18927,7 +18927,7 @@
         <v>338.87</v>
       </c>
       <c r="D226" t="n">
-        <v>329.01</v>
+        <v>328.95</v>
       </c>
       <c r="E226" t="n">
         <v>329.54</v>
@@ -19003,7 +19003,7 @@
         <v>356.91</v>
       </c>
       <c r="D227" t="n">
-        <v>333.82</v>
+        <v>334.39</v>
       </c>
       <c r="E227" t="n">
         <v>333.79</v>
@@ -19073,7 +19073,7 @@
         <v>341.88</v>
       </c>
       <c r="D228" t="n">
-        <v>338.58</v>
+        <v>337.98</v>
       </c>
       <c r="E228" t="n">
         <v>334.47</v>
@@ -19515,7 +19515,7 @@
         <v>347.31</v>
       </c>
       <c r="D234" t="n">
-        <v>332.68</v>
+        <v>332.06</v>
       </c>
       <c r="E234" t="n">
         <v>329.54</v>
@@ -19655,7 +19655,7 @@
         <v>348.42</v>
       </c>
       <c r="D236" t="n">
-        <v>342.39</v>
+        <v>341.77</v>
       </c>
       <c r="E236" t="n">
         <v>320.86</v>
@@ -19797,7 +19797,7 @@
         <v>373.63</v>
       </c>
       <c r="D238" t="n">
-        <v>344</v>
+        <v>344.43</v>
       </c>
       <c r="E238" t="n">
         <v>329.89</v>
@@ -19893,7 +19893,7 @@
         <v>345.32</v>
       </c>
       <c r="D239" t="n">
-        <v>335.38</v>
+        <v>334.66</v>
       </c>
       <c r="E239" t="n">
         <v>320.64</v>
@@ -20037,7 +20037,7 @@
         <v>355.25</v>
       </c>
       <c r="D241" t="n">
-        <v>333.95</v>
+        <v>333.71</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>361.81</v>
       </c>
       <c r="D242" t="n">
-        <v>339.27</v>
+        <v>339.38</v>
       </c>
       <c r="E242" t="n">
         <v>329.18</v>
@@ -20215,7 +20215,7 @@
         <v>342.5</v>
       </c>
       <c r="D243" t="n">
-        <v>337.79</v>
+        <v>337.28</v>
       </c>
       <c r="E243" t="n">
         <v>325.33</v>
@@ -20305,7 +20305,7 @@
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>320.24</v>
+        <v>320.55</v>
       </c>
       <c r="E244" t="n">
         <v>305.45</v>
@@ -20363,7 +20363,7 @@
         <v>352.07</v>
       </c>
       <c r="D245" t="n">
-        <v>341.66</v>
+        <v>341.75</v>
       </c>
       <c r="E245" t="n">
         <v>330.44</v>
@@ -20457,7 +20457,7 @@
         <v>338.16</v>
       </c>
       <c r="D246" t="n">
-        <v>327.78</v>
+        <v>328.22</v>
       </c>
       <c r="E246" t="n">
         <v>311.99</v>
@@ -20577,7 +20577,7 @@
         <v>330.1</v>
       </c>
       <c r="D248" t="n">
-        <v>328.53</v>
+        <v>327.74</v>
       </c>
       <c r="E248" t="n">
         <v>323.69</v>
@@ -20687,7 +20687,7 @@
         <v>337.08</v>
       </c>
       <c r="D250" t="n">
-        <v>328.67</v>
+        <v>328.25</v>
       </c>
       <c r="E250" t="n">
         <v>323.29</v>
@@ -20769,7 +20769,7 @@
         <v>334.39</v>
       </c>
       <c r="D251" t="n">
-        <v>321.88</v>
+        <v>322.23</v>
       </c>
       <c r="E251" t="n">
         <v>313.07</v>
@@ -20833,7 +20833,7 @@
         <v>347.55</v>
       </c>
       <c r="D252" t="n">
-        <v>334.66</v>
+        <v>334.12</v>
       </c>
       <c r="E252" t="n">
         <v>331.28</v>
@@ -20967,7 +20967,7 @@
         <v>335.87</v>
       </c>
       <c r="D254" t="n">
-        <v>326.84</v>
+        <v>326.23</v>
       </c>
       <c r="E254" t="n">
         <v>318.71</v>
@@ -21111,7 +21111,7 @@
         <v>333.77</v>
       </c>
       <c r="D256" t="n">
-        <v>307.02</v>
+        <v>307.49</v>
       </c>
       <c r="E256" t="n">
         <v>308.85</v>
@@ -21169,7 +21169,7 @@
         <v>349.76</v>
       </c>
       <c r="D257" t="n">
-        <v>343.4</v>
+        <v>342.66</v>
       </c>
       <c r="E257" t="n">
         <v>332.18</v>
@@ -21265,7 +21265,7 @@
         <v>342.57</v>
       </c>
       <c r="D258" t="n">
-        <v>333.03</v>
+        <v>333.25</v>
       </c>
       <c r="E258" t="n">
         <v>317.67</v>
@@ -21357,7 +21357,7 @@
         <v>343.99</v>
       </c>
       <c r="D259" t="n">
-        <v>341.41</v>
+        <v>341.4</v>
       </c>
       <c r="E259" t="n">
         <v>329.92</v>
@@ -21451,7 +21451,7 @@
         <v>320.51</v>
       </c>
       <c r="D260" t="n">
-        <v>320.12</v>
+        <v>319.45</v>
       </c>
       <c r="E260" t="n">
         <v>319.57</v>
@@ -21523,7 +21523,7 @@
         <v>342.08</v>
       </c>
       <c r="D261" t="n">
-        <v>333.62</v>
+        <v>332.78</v>
       </c>
       <c r="E261" t="n">
         <v>325.41</v>
@@ -21619,7 +21619,7 @@
         <v>342</v>
       </c>
       <c r="D262" t="n">
-        <v>338.14</v>
+        <v>338.26</v>
       </c>
       <c r="E262" t="n">
         <v>340.97</v>
@@ -21911,7 +21911,7 @@
         <v>346.09</v>
       </c>
       <c r="D266" t="n">
-        <v>340.24</v>
+        <v>340.59</v>
       </c>
       <c r="E266" t="n">
         <v>335.51</v>
@@ -22007,7 +22007,7 @@
         <v>312.41</v>
       </c>
       <c r="D267" t="n">
-        <v>315.61</v>
+        <v>314.94</v>
       </c>
       <c r="E267" t="n">
         <v>314.79</v>
@@ -22075,7 +22075,7 @@
         <v>330.44</v>
       </c>
       <c r="D268" t="n">
-        <v>327.45</v>
+        <v>326.53</v>
       </c>
       <c r="E268" t="n">
         <v>324.36</v>
@@ -22213,7 +22213,7 @@
         <v>347.66</v>
       </c>
       <c r="D270" t="n">
-        <v>334.75</v>
+        <v>334.94</v>
       </c>
       <c r="E270" t="n">
         <v>328.76</v>
@@ -22313,7 +22313,7 @@
         <v>332.9</v>
       </c>
       <c r="D272" t="n">
-        <v>326.34</v>
+        <v>325.59</v>
       </c>
       <c r="E272" t="n">
         <v>321.18</v>
@@ -22451,7 +22451,7 @@
         <v>345.1</v>
       </c>
       <c r="D274" t="n">
-        <v>333.82</v>
+        <v>334.02</v>
       </c>
       <c r="E274" t="n">
         <v>334.06</v>
@@ -22539,7 +22539,7 @@
         <v>325.91</v>
       </c>
       <c r="D275" t="n">
-        <v>322.2</v>
+        <v>321.69</v>
       </c>
       <c r="E275" t="n">
         <v>312.84</v>
@@ -22625,7 +22625,7 @@
         <v>343.44</v>
       </c>
       <c r="D276" t="n">
-        <v>336.78</v>
+        <v>337.33</v>
       </c>
       <c r="E276" t="n">
         <v>321.45</v>
@@ -22687,7 +22687,7 @@
         <v>331.36</v>
       </c>
       <c r="D277" t="n">
-        <v>325.92</v>
+        <v>325.29</v>
       </c>
       <c r="E277" t="n">
         <v>316.28</v>
@@ -22803,7 +22803,7 @@
         <v>343</v>
       </c>
       <c r="D279" t="n">
-        <v>334.32</v>
+        <v>334.63</v>
       </c>
       <c r="E279" t="n">
         <v>328.89</v>
@@ -22893,7 +22893,7 @@
         <v>342.7</v>
       </c>
       <c r="D280" t="n">
-        <v>336.3</v>
+        <v>336.21</v>
       </c>
       <c r="E280" t="n">
         <v>326.36</v>
@@ -22983,7 +22983,7 @@
         <v>340.82</v>
       </c>
       <c r="D281" t="n">
-        <v>329.04</v>
+        <v>329</v>
       </c>
       <c r="E281" t="n">
         <v>317.81</v>
@@ -23211,7 +23211,7 @@
         <v>338.49</v>
       </c>
       <c r="D284" t="n">
-        <v>328.13</v>
+        <v>328.41</v>
       </c>
       <c r="E284" t="n">
         <v>326.4</v>
@@ -23307,7 +23307,7 @@
         <v>338.03</v>
       </c>
       <c r="D285" t="n">
-        <v>330.4</v>
+        <v>330.34</v>
       </c>
       <c r="E285" t="n">
         <v>329.67</v>
@@ -23401,7 +23401,7 @@
         <v>326.1</v>
       </c>
       <c r="D286" t="n">
-        <v>319.07</v>
+        <v>318.59</v>
       </c>
       <c r="E286" t="n">
         <v>320.51</v>
@@ -23563,7 +23563,7 @@
         <v>334.12</v>
       </c>
       <c r="D288" t="n">
-        <v>344.43</v>
+        <v>343.6</v>
       </c>
       <c r="E288" t="n">
         <v>337.4</v>
@@ -23659,7 +23659,7 @@
         <v>324.61</v>
       </c>
       <c r="D289" t="n">
-        <v>321.02</v>
+        <v>320.57</v>
       </c>
       <c r="E289" t="n">
         <v>309.38</v>
@@ -23755,7 +23755,7 @@
         <v>340.23</v>
       </c>
       <c r="D290" t="n">
-        <v>333.55</v>
+        <v>333.37</v>
       </c>
       <c r="E290" t="n">
         <v>322.25</v>
@@ -23851,7 +23851,7 @@
         <v>343.33</v>
       </c>
       <c r="D291" t="n">
-        <v>329.34</v>
+        <v>329.23</v>
       </c>
       <c r="E291" t="n">
         <v>321.63</v>
@@ -23947,7 +23947,7 @@
         <v>331.21</v>
       </c>
       <c r="D292" t="n">
-        <v>334.01</v>
+        <v>333.07</v>
       </c>
       <c r="E292" t="n">
         <v>323.02</v>
@@ -24041,7 +24041,7 @@
         <v>339.76</v>
       </c>
       <c r="D293" t="n">
-        <v>329.74</v>
+        <v>329.94</v>
       </c>
       <c r="E293" t="n">
         <v>321</v>
@@ -24135,7 +24135,7 @@
         <v>338.18</v>
       </c>
       <c r="D294" t="n">
-        <v>331.16</v>
+        <v>331.44</v>
       </c>
       <c r="E294" t="n">
         <v>318.67</v>
@@ -24229,7 +24229,7 @@
         <v>334.92</v>
       </c>
       <c r="D295" t="n">
-        <v>330.41</v>
+        <v>329.99</v>
       </c>
       <c r="E295" t="n">
         <v>321.19</v>
@@ -24319,7 +24319,7 @@
         <v>338.59</v>
       </c>
       <c r="D296" t="n">
-        <v>337.33</v>
+        <v>337.62</v>
       </c>
       <c r="E296" t="n">
         <v>319.27</v>
@@ -24387,7 +24387,7 @@
         <v>329.19</v>
       </c>
       <c r="D297" t="n">
-        <v>324.71</v>
+        <v>323.95</v>
       </c>
       <c r="E297" t="n">
         <v>317.42</v>
@@ -24443,7 +24443,7 @@
         <v>336.89</v>
       </c>
       <c r="D298" t="n">
-        <v>334.67</v>
+        <v>334.33</v>
       </c>
       <c r="E298" t="n">
         <v>316.09</v>
@@ -24529,7 +24529,7 @@
         <v>339.11</v>
       </c>
       <c r="D299" t="n">
-        <v>318.62</v>
+        <v>319.04</v>
       </c>
       <c r="E299" t="n">
         <v>314.87</v>
@@ -24617,7 +24617,7 @@
         <v>334.73</v>
       </c>
       <c r="D300" t="n">
-        <v>336.4</v>
+        <v>335.48</v>
       </c>
       <c r="E300" t="n">
         <v>333.02</v>
@@ -24711,7 +24711,7 @@
         <v>341.95</v>
       </c>
       <c r="D301" t="n">
-        <v>332.19</v>
+        <v>332.69</v>
       </c>
       <c r="E301" t="n">
         <v>327.02</v>
@@ -24785,7 +24785,7 @@
         <v>339.82</v>
       </c>
       <c r="D302" t="n">
-        <v>331.6</v>
+        <v>330.83</v>
       </c>
       <c r="E302" t="n">
         <v>326.74</v>
@@ -24881,7 +24881,7 @@
         <v>346.31</v>
       </c>
       <c r="D303" t="n">
-        <v>334.83</v>
+        <v>334.89</v>
       </c>
       <c r="E303" t="n">
         <v>322.22</v>
@@ -24977,7 +24977,7 @@
         <v>335.48</v>
       </c>
       <c r="D304" t="n">
-        <v>331.97</v>
+        <v>331.5</v>
       </c>
       <c r="E304" t="n">
         <v>322.1</v>
@@ -25073,7 +25073,7 @@
         <v>340.86</v>
       </c>
       <c r="D305" t="n">
-        <v>336.35</v>
+        <v>336.28</v>
       </c>
       <c r="E305" t="n">
         <v>326.77</v>
@@ -25169,7 +25169,7 @@
         <v>333.72</v>
       </c>
       <c r="D306" t="n">
-        <v>327</v>
+        <v>326.28</v>
       </c>
       <c r="E306" t="n">
         <v>322.01</v>
@@ -25265,7 +25265,7 @@
         <v>336.69</v>
       </c>
       <c r="D307" t="n">
-        <v>332.65</v>
+        <v>331.73</v>
       </c>
       <c r="E307" t="n">
         <v>320.87</v>
@@ -25359,7 +25359,7 @@
         <v>341.84</v>
       </c>
       <c r="D308" t="n">
-        <v>333.21</v>
+        <v>333.46</v>
       </c>
       <c r="E308" t="n">
         <v>325.96</v>
@@ -25453,7 +25453,7 @@
         <v>343.42</v>
       </c>
       <c r="D309" t="n">
-        <v>327.22</v>
+        <v>327.14</v>
       </c>
       <c r="E309" t="n">
         <v>322.93</v>
@@ -25525,7 +25525,7 @@
         <v>343.5</v>
       </c>
       <c r="D310" t="n">
-        <v>338.95</v>
+        <v>338.86</v>
       </c>
       <c r="E310" t="n">
         <v>336.13</v>
@@ -25613,7 +25613,7 @@
         <v>348.63</v>
       </c>
       <c r="D311" t="n">
-        <v>353.06</v>
+        <v>352.33</v>
       </c>
       <c r="E311" t="n">
         <v>339.64</v>
@@ -25701,7 +25701,7 @@
         <v>336.88</v>
       </c>
       <c r="D312" t="n">
-        <v>343.08</v>
+        <v>342.33</v>
       </c>
       <c r="E312" t="n">
         <v>338.28</v>
@@ -25789,7 +25789,7 @@
         <v>339.72</v>
       </c>
       <c r="D313" t="n">
-        <v>333.35</v>
+        <v>333.67</v>
       </c>
       <c r="E313" t="n">
         <v>332.21</v>
@@ -25881,7 +25881,7 @@
         <v>343.52</v>
       </c>
       <c r="D314" t="n">
-        <v>342.22</v>
+        <v>341.81</v>
       </c>
       <c r="E314" t="n">
         <v>341.7</v>
@@ -25973,7 +25973,7 @@
         <v>327.86</v>
       </c>
       <c r="D315" t="n">
-        <v>322.81</v>
+        <v>322.41</v>
       </c>
       <c r="E315" t="n">
         <v>317.29</v>
@@ -26067,7 +26067,7 @@
         <v>339.51</v>
       </c>
       <c r="D316" t="n">
-        <v>336.62</v>
+        <v>335.72</v>
       </c>
       <c r="E316" t="n">
         <v>331.11</v>
@@ -29698,7 +29698,7 @@
         <v>0.1119</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3390210881683174</v>
+        <v>-0.3438881800711769</v>
       </c>
       <c r="J4" t="n">
         <v>315</v>
@@ -29707,19 +29707,19 @@
         <v>247</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09618439622580832</v>
+        <v>0.09788770084300513</v>
       </c>
       <c r="M4" t="n">
-        <v>5.931413867413769</v>
+        <v>5.982355338873722</v>
       </c>
       <c r="N4" t="n">
-        <v>59.41535630428471</v>
+        <v>59.95660600002223</v>
       </c>
       <c r="O4" t="n">
-        <v>7.708135721708895</v>
+        <v>7.743165115120704</v>
       </c>
       <c r="P4" t="n">
-        <v>339.0256191741005</v>
+        <v>338.9283218952386</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-38.38336291764807,174.6560422390577</t>
+          <t>-38.38336433546277,174.6560460722374</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -32033,7 +32033,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-38.383326475933885,174.65594371603098</t>
+          <t>-38.38332728064142,174.65594589161725</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -32185,7 +32185,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-38.38335199663856,174.65601271321938</t>
+          <t>-38.38335057882274,174.65600888004099</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-38.38338138754846,174.65609217400407</t>
+          <t>-38.38338115763281,174.65609155240708</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -32485,7 +32485,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-38.383342071925036,174.65598588097382</t>
+          <t>-38.38334337478356,174.65598940335312</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-38.38336943193078,174.65605985096545</t>
+          <t>-38.383367975797235,174.6560559141858</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -32645,7 +32645,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-38.38337410688494,174.6560724901011</t>
+          <t>-38.38337563965649,174.65607663408034</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-38.38332590114275,174.6559421620408</t>
+          <t>-38.383324713241024,174.65593895046112</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -32917,7 +32917,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-38.38339813306162,174.65613744699553</t>
+          <t>-38.3833996658308,174.65614159097746</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -33085,7 +33085,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-38.38335172840315,174.65601198802347</t>
+          <t>-38.38335031058729,174.65600815484513</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -33237,7 +33237,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-38.38335559865657,174.6560224515651</t>
+          <t>-38.38335398924438,174.65601810038922</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-38.3833189270087,174.65592330696177</t>
+          <t>-38.38331946348066,174.65592475735235</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -33541,7 +33541,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-38.38336881882195,174.65605819337398</t>
+          <t>-38.383368895460556,174.6560584005729</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -33669,7 +33669,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-38.38333977276271,174.65597966501062</t>
+          <t>-38.383338431584534,174.65597603903225</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -33821,7 +33821,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-38.38333417813295,174.65596453950175</t>
+          <t>-38.38333528939518,174.65596754388346</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-38.383356709917294,174.65602545594857</t>
+          <t>-38.38335962218636,174.6560333295056</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-38.38341503183351,174.65618313440572</t>
+          <t>-38.383416871154516,174.65618810718632</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-38.38338406989732,174.6560994259693</t>
+          <t>-38.38338284368076,174.6560961107851</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -34421,7 +34421,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-38.383349505880936,174.6560059792575</t>
+          <t>-38.38334778151005,174.65600131728408</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -34469,7 +34469,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-38.38335065546144,174.65600908723982</t>
+          <t>-38.383353222857565,174.65601602840078</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-38.38334628705512,174.65599727690736</t>
+          <t>-38.38334463932259,174.6559928221332</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -34849,7 +34849,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-38.38335805109391,174.6560290819287</t>
+          <t>-38.383361346555944,174.65603799148045</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -34981,7 +34981,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-38.38341694779289,174.65618831438553</t>
+          <t>-38.383419131986294,174.65619421956282</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -35105,7 +35105,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-38.38340660160946,174.6561603424978</t>
+          <t>-38.383406448332615,174.65615992809956</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -35189,7 +35189,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-38.383360810085435,174.65603654108824</t>
+          <t>-38.383362802690115,174.65604192825938</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -35325,7 +35325,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-38.38337019831682,174.6560619229548</t>
+          <t>-38.38337046655191,174.65606264815105</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -35461,7 +35461,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-38.38337927998831,174.65608647603176</t>
+          <t>-38.38338219225316,174.65609434959356</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -35673,7 +35673,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-38.383395910546035,174.65613143822205</t>
+          <t>-38.38339437777647,174.6561272942405</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -35753,7 +35753,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-38.38334628705512,174.65599727690736</t>
+          <t>-38.383344907558126,174.65599354732896</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -35881,7 +35881,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-38.383380966036455,174.65609103440957</t>
+          <t>-38.383379126711205,174.65608606163377</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -36113,7 +36113,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-38.383400662130676,174.6561442845658</t>
+          <t>-38.38340169674973,174.65614708175377</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -36265,7 +36265,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-38.38330283284129,174.65587979525452</t>
+          <t>-38.38330179821568,174.65587699807398</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -36409,7 +36409,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-38.38337836032562,174.65608398964392</t>
+          <t>-38.38338188569899,174.65609352079755</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-38.383301070145755,174.65587502968773</t>
+          <t>-38.383303867466836,174.65588259243512</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -36665,7 +36665,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-38.383337818474466,174.65597438144218</t>
+          <t>-38.383336400657335,174.6559705482653</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -36777,7 +36777,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-38.383325786184514,174.65594185124274</t>
+          <t>-38.38332812366833,174.65594817080296</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -36905,7 +36905,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-38.38334870117455,174.65600380366985</t>
+          <t>-38.383348739493904,174.65600390726928</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-38.38336812907447,174.65605632858365</t>
+          <t>-38.3833698151238,174.6560608869601</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -37185,7 +37185,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-38.38335966050569,174.65603343310502</t>
+          <t>-38.38336153815256,174.65603850947767</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -37309,7 +37309,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-38.38335655663995,174.65602504155083</t>
+          <t>-38.383359852102316,174.65603395110222</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -37437,7 +37437,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-38.38330026543686,174.65587285410297</t>
+          <t>-38.38329854106052,174.65586819213576</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-38.3832711042911,174.65579401508677</t>
+          <t>-38.38327079773475,174.65579318629327</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -37697,7 +37697,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-38.38333858486203,174.65597645342976</t>
+          <t>-38.383339044694566,174.65597769662233</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-38.38329765971253,174.6558658093526</t>
+          <t>-38.38329654844759,174.65586280497394</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -38373,7 +38373,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-38.38328305998428,174.65582633803996</t>
+          <t>-38.383282715108635,174.65582540564694</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -38489,7 +38489,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-38.383332223843986,174.65595925593414</t>
+          <t>-38.38333122753972,174.65595656235072</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -38613,7 +38613,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-38.38336613647047,174.65605094141173</t>
+          <t>-38.383364028908254,174.65604524344175</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -38729,7 +38729,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-38.38333295191244,174.65596122432203</t>
+          <t>-38.38333490620132,174.65596650788976</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -38861,7 +38861,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-38.38340196498428,174.65614780695068</t>
+          <t>-38.3834037276684,174.65615257253037</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -39153,7 +39153,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-38.38337414520422,174.65607259370057</t>
+          <t>-38.38337655931935,174.65607912046798</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -39285,7 +39285,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-38.383363377479874,174.6560434822511</t>
+          <t>-38.383366749579416,174.65605259900306</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -39497,7 +39497,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-38.38331179959377,174.6559040374891</t>
+          <t>-38.38331019017702,174.65589968631835</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -39865,7 +39865,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-38.38335475563117,174.65602017237774</t>
+          <t>-38.383355023866535,174.6560208975737</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -39993,7 +39993,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-38.38335211159661,174.65601302401762</t>
+          <t>-38.38335525378256,174.65602151917025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -40133,7 +40133,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-38.383333526703325,174.6559627783125</t>
+          <t>-38.383335480992116,174.65596806188032</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -40285,7 +40285,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-38.3833670944532,174.6560535313982</t>
+          <t>-38.38336847394821,174.6560572609788</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -40541,7 +40541,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-38.38336360739578,174.65604410384782</t>
+          <t>-38.38336368403442,174.6560443110467</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -40693,7 +40693,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-38.38329149027523,174.65584912987214</t>
+          <t>-38.383290532287845,174.65584653989094</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-38.383387250396076,174.65610802472872</t>
+          <t>-38.38338939627439,174.65611382630178</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -40981,7 +40981,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-38.383391235598424,174.65611879907894</t>
+          <t>-38.383394646011155,174.65612801943726</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -41133,7 +41133,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-38.383419055347936,174.6561940123636</t>
+          <t>-38.38342173769029,174.65620126433618</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -41257,7 +41257,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-38.38333804839073,174.65597500303846</t>
+          <t>-38.3833403858727,174.65598132260075</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -41361,7 +41361,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-38.38341721602718,174.6561890395827</t>
+          <t>-38.38341936190137,174.65619484116044</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -41477,7 +41477,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-38.383338469903904,174.65597614263163</t>
+          <t>-38.38333892973643,174.6559773858242</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -41597,7 +41597,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-38.38333896805582,174.65597748942358</t>
+          <t>-38.38333720536438,174.65597272385216</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -41725,7 +41725,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-38.38334762823263,174.6560009028865</t>
+          <t>-38.38334766655199,174.65600100648587</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -41861,7 +41861,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-38.38332111121585,174.65592921212348</t>
+          <t>-38.38332049810512,174.6559275545342</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -42089,7 +42089,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-38.38340085372681,174.65614480256355</t>
+          <t>-38.38340353607231,174.65615205453258</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -42221,7 +42221,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-38.38340035557688,174.65614345576938</t>
+          <t>-38.383400930365255,174.65614500976267</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -42449,7 +42449,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-38.383393802987854,174.6561257402475</t>
+          <t>-38.38339315156072,174.65612397905542</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -42581,7 +42581,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-38.38340886244272,174.65616645487262</t>
+          <t>-38.383407291355226,174.6561622072901</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -42717,7 +42717,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-38.383377747217125,174.6560823320521</t>
+          <t>-38.38337782385569,174.65608253925106</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -42849,7 +42849,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-38.38334253175748,174.6559871241665</t>
+          <t>-38.383340922343926,174.65598277299216</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -42981,7 +42981,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-38.3833684356289,174.65605715737934</t>
+          <t>-38.383367975797235,174.6560559141858</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-38.38339410954178,174.65612656904378</t>
+          <t>-38.38339242349507,174.65612201066435</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -43253,7 +43253,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-38.383384836282616,174.65610149795944</t>
+          <t>-38.38338487460188,174.65610160155896</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -43521,7 +43521,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-38.383423078861306,174.65620489032264</t>
+          <t>-38.383424688266366,174.65620924150662</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -43605,7 +43605,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-38.38335188168053,174.65601240242114</t>
+          <t>-38.38335479395052,174.65602027597714</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -43729,7 +43729,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-38.383386484010884,174.65610595273844</t>
+          <t>-38.383388974762596,174.65611268670705</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -43849,7 +43849,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-38.383366519663554,174.6560519774063</t>
+          <t>-38.38336594487391,174.65605042341446</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -43981,7 +43981,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-38.38339709844232,174.6561346498078</t>
+          <t>-38.38339694516539,174.65613423540964</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -44085,7 +44085,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-38.383341880328196,174.65598536297685</t>
+          <t>-38.383344064532125,174.65599126814223</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -44305,7 +44305,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-38.38336648134425,174.65605187380686</t>
+          <t>-38.383367669242794,174.6560550853901</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -44449,7 +44449,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-38.38331946348066,174.65592475735235</t>
+          <t>-38.383318888689274,174.65592320336248</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -44581,7 +44581,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-38.383363454118516,174.65604368945</t>
+          <t>-38.38336517848767,174.65604835142534</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -44693,7 +44693,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-38.38336935529218,174.6560596437665</t>
+          <t>-38.38337027495541,174.6560621301537</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -45109,7 +45109,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-38.38338180906046,174.65609331359857</t>
+          <t>-38.383384951240394,174.65610180875797</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -45245,7 +45245,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-38.383390967363674,174.65611807388228</t>
+          <t>-38.383389051401096,174.65611289390608</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -45333,7 +45333,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-38.383377478982155,174.65608160685565</t>
+          <t>-38.38337571629506,174.65607684127932</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-38.383356020169266,174.6560235911588</t>
+          <t>-38.38335904739647,174.656031775514</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -45749,7 +45749,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-38.383388744847075,174.6561120651099</t>
+          <t>-38.3833886298893,174.65611175431135</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -45885,7 +45885,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-38.38337146285367,174.65606534173727</t>
+          <t>-38.38336943193078,174.65605985096545</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -46021,7 +46021,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-38.3833773640243,174.6560812960572</t>
+          <t>-38.38338023797022,174.65608906601912</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -46281,7 +46281,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-38.3833808893979,174.6560908272106</t>
+          <t>-38.383381770741174,174.65609320999909</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -46417,7 +46417,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-38.3833771341086,174.65608067446027</t>
+          <t>-38.38337629108436,174.65607839527158</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -46673,7 +46673,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-38.38339568063059,174.6561308166248</t>
+          <t>-38.38339499088431,174.6561289518331</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -46949,7 +46949,7 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-38.38334540570983,174.65599489412114</t>
+          <t>-38.38334509915493,174.65599406532596</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -47081,7 +47081,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-38.38334437108705,174.6559920969374</t>
+          <t>-38.383344102851495,174.65599137174164</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -47345,7 +47345,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-38.38337226755889,174.65606751732622</t>
+          <t>-38.38337031327471,174.65606223375318</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -47621,7 +47621,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-38.383396983484616,174.65613433900918</t>
+          <t>-38.38339709844232,174.6561346498078</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -47753,7 +47753,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-38.38340384262606,174.65615288332907</t>
+          <t>-38.38340541371389,174.65615713091123</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -47901,7 +47901,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-38.383369316972875,174.65605954016704</t>
+          <t>-38.38336805243586,174.6560561213847</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -48025,7 +48025,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-38.38340928395397,174.65616759446797</t>
+          <t>-38.38341173638284,174.6561742248411</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -48161,7 +48161,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-38.38344664513306,174.65626860410646</t>
+          <t>-38.38344668345218,174.65626870770615</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -48249,7 +48249,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-38.38339246181432,174.65612211426387</t>
+          <t>-38.38339138887542,174.65611921347704</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -48389,7 +48389,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-38.38336038857286,174.6560354014944</t>
+          <t>-38.383359813782995,174.65603384750278</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -48541,7 +48541,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-38.38341219621321,174.65617546803614</t>
+          <t>-38.383414648641605,174.65618209840983</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -48689,7 +48689,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-38.38336471865591,174.65604710823192</t>
+          <t>-38.383365293445614,174.6560486622237</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -48841,7 +48841,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-38.38337927998831,174.65608647603176</t>
+          <t>-38.383379126711205,174.65608606163377</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -48993,7 +48993,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-38.383385372752294,174.65610294835258</t>
+          <t>-38.38338782518493,174.65610957872147</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-38.383382307210965,174.65609466039209</t>
+          <t>-38.38338571762568,174.65610388074816</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -49257,7 +49257,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-38.38340073876913,174.6561444917649</t>
+          <t>-38.38340246313415,174.6561491537449</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -49633,7 +49633,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-38.38337579293364,174.65607704847827</t>
+          <t>-38.383374911590025,174.65607466569017</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -49749,7 +49749,7 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-38.383321187854705,174.65592941932218</t>
+          <t>-38.383321532729475,174.65593035171617</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -49817,7 +49817,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-38.383457834309766,174.65629885521795</t>
+          <t>-38.38345760439525,174.65629823361968</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -49937,7 +49937,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-38.38342878841659,174.65622032666656</t>
+          <t>-38.38343101092749,174.65622633544538</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -50061,7 +50061,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-38.38331942516124,174.655924653753</t>
+          <t>-38.383318160620156,174.6559212349753</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -50173,7 +50173,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-38.383362419496926,174.6560408922649</t>
+          <t>-38.38336502521042,174.65604793702752</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -50297,7 +50297,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-38.38335452571514,174.65601955078117</t>
+          <t>-38.38335303126085,174.6560155104037</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -50449,7 +50449,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-38.38337973981964,174.65608771922567</t>
+          <t>-38.383381464186996,174.65609238120305</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -50709,7 +50709,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-38.383381042675,174.65609124160855</t>
+          <t>-38.38338081275936,174.65609062001158</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -50861,7 +50861,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-38.38339579558832,174.6561311274234</t>
+          <t>-38.38339560399212,174.65613060942573</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -51001,7 +51001,7 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-38.383414993514315,174.65618303080615</t>
+          <t>-38.38341487855675,174.65618272000737</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -51129,7 +51129,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-38.3833808893979,174.6560908272106</t>
+          <t>-38.38338269040367,174.6560956963871</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -51241,7 +51241,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-38.38337625276507,174.6560782916721</t>
+          <t>-38.38337897343409,174.65608564723578</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -51381,7 +51381,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-38.38339947423465,174.6561410729797</t>
+          <t>-38.38340246313415,174.6561491537449</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -51505,7 +51505,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-38.3833974049962,174.65613547860414</t>
+          <t>-38.3833975199539,174.65613578940278</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -51769,7 +51769,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-38.383383035277085,174.65609662878265</t>
+          <t>-38.3833854877101,174.6561032591511</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -51889,7 +51889,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-38.38334360469975,174.6559900249495</t>
+          <t>-38.38334548234856,174.65599510131995</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -52041,7 +52041,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-38.38335605848861,174.65602369475826</t>
+          <t>-38.38335877916116,174.65603105031795</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -52193,7 +52193,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-38.38338717375755,174.6561078175297</t>
+          <t>-38.38338533443304,174.65610284475306</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -52457,7 +52457,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-38.383385257794515,174.65610263755406</t>
+          <t>-38.383387250396076,174.65610802472872</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -52609,7 +52609,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-38.38335172840315,174.65601198802347</t>
+          <t>-38.383350502184044,174.65600867284218</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -52761,7 +52761,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-38.38336284100944,174.65604203185882</t>
+          <t>-38.38336399058894,174.65604513984232</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -52853,7 +52853,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-38.38341185134043,174.65617453563988</t>
+          <t>-38.383413728981,174.65617961201963</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-38.38338391662025,174.65609901157126</t>
+          <t>-38.3833863690531,174.6561056419399</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -53229,7 +53229,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-38.38339487592659,174.65612864103448</t>
+          <t>-38.383394914245834,174.656128744634</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -53377,7 +53377,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-38.383378743518406,174.65608502563884</t>
+          <t>-38.38338154082554,174.65609258840206</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -53513,7 +53513,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-38.383378322006344,174.65608388604446</t>
+          <t>-38.38337629108436,174.65607839527158</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -53653,7 +53653,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-38.3833649485718,174.65604772982863</t>
+          <t>-38.38336376067305,174.65604451824558</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -54089,7 +54089,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-38.38336115495933,174.65603747348322</t>
+          <t>-38.3833629942867,174.65604244625663</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -54205,7 +54205,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-38.38338958787065,174.6561143442994</t>
+          <t>-38.38338916635886,174.65611320470464</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-38.38338928131662,174.65611351550322</t>
+          <t>-38.383390967363674,174.65611807388228</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -54505,7 +54505,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-38.38344189356245,174.6562557577468</t>
+          <t>-38.38344059071218,174.65625223535815</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -54657,7 +54657,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-38.38340407254135,174.65615350492644</t>
+          <t>-38.383402386495725,174.65614894654578</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -54809,7 +54809,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-38.38336789915863,174.65605570698688</t>
+          <t>-38.38337107966069,174.65606430574255</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -55037,7 +55037,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-38.383362802690115,174.65604192825938</t>
+          <t>-38.3833643737821,174.65604617583682</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -55181,7 +55181,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-38.38339311324148,174.65612387545588</t>
+          <t>-38.383391235598424,174.65611879907894</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -55321,7 +55321,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-38.38338912803961,174.65611310110512</t>
+          <t>-38.38338939627439,174.65611382630178</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -55417,7 +55417,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-38.38339916768082,174.6561402441833</t>
+          <t>-38.383399512553886,174.65614117657924</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -55557,7 +55557,7 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-38.383413958896156,174.65618023361716</t>
+          <t>-38.38341549166379,174.65618437760088</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -55657,7 +55657,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-38.383374605035705,174.65607383689434</t>
+          <t>-38.383372382516775,174.65606782812463</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -55789,7 +55789,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-38.38334835630037,174.65600287127518</t>
+          <t>-38.3833518433612,174.6560122988217</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -56013,7 +56013,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-38.38339529743822,174.65612978062939</t>
+          <t>-38.383397328357724,174.65613527140505</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -56113,7 +56113,7 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-38.38340123691905,174.6561458385591</t>
+          <t>-38.38340139019593,174.65614625295734</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -56245,7 +56245,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-38.383379509903975,174.65608709762873</t>
+          <t>-38.383379816458195,174.65608792642468</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -56397,7 +56397,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-38.383344141170866,174.655991475341</t>
+          <t>-38.38334471596132,174.65599302933197</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -56505,7 +56505,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-38.383398937765456,174.656139622586</t>
+          <t>-38.38339912936159,174.65614014058374</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -56657,7 +56657,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-38.38336218958101,174.65604027066823</t>
+          <t>-38.38336548504217,174.65604918022098</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -56773,7 +56773,7 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-38.38339602550374,174.65613174902066</t>
+          <t>-38.383394646011155,174.65612801943726</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -56817,7 +56817,7 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-38.38340284632636,174.6561501897405</t>
+          <t>-38.3834057585868,174.65615806330732</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -57109,7 +57109,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-38.383371309576475,174.6560649273394</t>
+          <t>-38.38337395360778,174.65607207570318</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -57205,7 +57205,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-38.38340253977262,174.65614936094403</t>
+          <t>-38.3834051837986,174.6561565093138</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -57345,7 +57345,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-38.383395335757456,174.65612988422893</t>
+          <t>-38.383393917945575,174.6561260510461</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -57565,7 +57565,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-38.383395757269085,174.6561310238239</t>
+          <t>-38.38339897608468,174.65613972618556</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -57685,7 +57685,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-38.38338514283672,174.6561023267555</t>
+          <t>-38.383383380150505,174.65609756117817</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -57989,7 +57989,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-38.38346595795356,174.6563208183594</t>
+          <t>-38.38346499997692,174.65631822836605</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -58109,7 +58109,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-38.38336812907447,174.65605632858365</t>
+          <t>-38.383365983193215,174.6560505270139</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-38.38337678923505,174.6560797420649</t>
+          <t>-38.383379816458195,174.65608792642468</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -58365,7 +58365,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-38.38339863121161,174.65613879378964</t>
+          <t>-38.38339767323083,174.65613620380097</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -58497,7 +58497,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-38.383360810085435,174.65603654108824</t>
+          <t>-38.38336245781625,174.65604099586434</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -58641,7 +58641,7 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-38.38337579293364,174.65607704847827</t>
+          <t>-38.383376521000066,174.6560790168685</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -58761,7 +58761,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-38.38335222655464,174.6560133348159</t>
+          <t>-38.3833527247061,174.65601468160833</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -58981,7 +58981,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-38.3833554070599,174.65602193356796</t>
+          <t>-38.383353759328344,174.6560174787927</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -59117,7 +59117,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-38.38336111664001,174.6560373698838</t>
+          <t>-38.3833599670603,174.65603426190054</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -59193,7 +59193,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-38.38338081275936,174.65609062001158</t>
+          <t>-38.383378551922014,174.6560845076414</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -59297,7 +59297,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-38.383353529412304,174.65601685719616</t>
+          <t>-38.38335625008529,174.6560242127554</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -59449,7 +59449,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-38.38337989309676,174.65608813362365</t>
+          <t>-38.38338081275936,174.65609062001158</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -59577,7 +59577,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-38.38339142719466,174.6561193170766</t>
+          <t>-38.38339165711015,174.65611993867375</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -59689,7 +59689,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-38.38337299562547,174.65606948571624</t>
+          <t>-38.3833708114256,174.65606358054626</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -59789,7 +59789,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-38.38335475563117,174.65602017237774</t>
+          <t>-38.383357054791304,174.65602638834343</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -60433,7 +60433,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-38.3833773640243,174.6560812960572</t>
+          <t>-38.38337973981964,174.65608771922567</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -60633,7 +60633,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-38.38334015595647,174.65598070100444</t>
+          <t>-38.38334253175748,174.6559871241665</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -60837,7 +60837,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-38.383333986535995,174.65596402150493</t>
+          <t>-38.38333233880216,174.65595956673224</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -60989,7 +60989,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-38.38336701781456,174.65605332419926</t>
+          <t>-38.38336977680449,174.6560607833606</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -61197,7 +61197,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-38.38337249747465,174.65606813892308</t>
+          <t>-38.38337341713769,174.6560706253105</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -61321,7 +61321,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-38.38335211159661,174.65601302401762</t>
+          <t>-38.383351690083806,174.65601188442403</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -61473,7 +61473,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-38.38335778285858,174.65602835673266</t>
+          <t>-38.383359737144346,174.65603364030392</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -61613,7 +61613,7 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-38.383425033138856,174.6562101739032</t>
+          <t>-38.3834238452447,174.656206962315</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -61689,7 +61689,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-38.38334295327053,174.6559882637598</t>
+          <t>-38.38334260839621,174.65598733136528</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -61837,7 +61837,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-38.38339614046145,174.65613205981927</t>
+          <t>-38.383394454414955,174.65612750143958</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -61997,7 +61997,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-38.38339326651846,174.656124289854</t>
+          <t>-38.383396293738386,174.65613247421743</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -62137,7 +62137,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-38.38339273004903,174.65612283946058</t>
+          <t>-38.38339433945723,174.65612719064097</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -62261,7 +62261,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-38.38341874879449,174.65619318356676</t>
+          <t>-38.3834174076231,174.65618955758072</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -62349,7 +62349,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-38.38336977680449,174.6560607833606</t>
+          <t>-38.38337184604664,174.656066377732</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -62537,7 +62537,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-38.383399742469244,174.65614179817655</t>
+          <t>-38.383402079941945,174.65614811774932</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -62745,7 +62745,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-38.38347569099291,174.65634713269554</t>
+          <t>-38.383473889997894,174.65634226350684</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -62821,7 +62821,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-38.38333628569919,174.65597023746716</t>
+          <t>-38.38333912133332,174.65597790382108</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -62973,7 +62973,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-38.38337602284935,174.65607767007518</t>
+          <t>-38.38337517982505,174.65607539088657</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -63117,7 +63117,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-38.38334391125467,174.65599085374464</t>
+          <t>-38.38334394957404,174.65599095734405</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -63265,7 +63265,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-38.38342549296884,174.65621141709866</t>
+          <t>-38.38342806035263,174.65621835827358</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -63369,7 +63369,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-38.383373762011324,174.65607155770576</t>
+          <t>-38.38337698083146,174.6560802600623</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -63521,7 +63521,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-38.38335644168196,174.65602473075253</t>
+          <t>-38.38335598184993,174.6560234875594</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -63945,7 +63945,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-38.383348394619716,174.6560029748746</t>
+          <t>-38.38334705344228,174.6559993488954</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -64097,7 +64097,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-38.383442774902264,174.65625814053922</t>
+          <t>-38.38344534228319,174.65626508171738</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -64193,7 +64193,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-38.3833974049962,174.65613547860414</t>
+          <t>-38.383400930365255,174.65614500976267</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -64389,7 +64389,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-38.38336943193078,174.65605985096545</t>
+          <t>-38.38336870386403,174.6560578825756</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -64509,7 +64509,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-38.38340165843051,174.6561469781542</t>
+          <t>-38.38340453237195,174.6561547481212</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -64705,7 +64705,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-38.38337299562547,174.65606948571624</t>
+          <t>-38.3833722292396,174.65606741372673</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -64841,7 +64841,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-38.38341752258064,174.6561898683795</t>
+          <t>-38.383419476858904,174.65619515195925</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -64973,7 +64973,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-38.383361653110526,174.656038820276</t>
+          <t>-38.383359545547705,174.65603312230672</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -65057,7 +65057,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-38.38340326783777,174.65615132933564</t>
+          <t>-38.38340568194838,174.65615785610817</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -65209,7 +65209,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-38.38337107966069,174.65606430574255</t>
+          <t>-38.3833698917624,174.656061094159</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -65349,7 +65349,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-38.38336349243783,174.65604379304946</t>
+          <t>-38.383363837311684,174.6560447254445</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -65489,7 +65489,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-38.38339131223692,174.656119006278</t>
+          <t>-38.3833914655139,174.6561194206761</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -65825,7 +65825,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-38.38339479928811,174.6561284338354</t>
+          <t>-38.38339372634937,174.65612553304842</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -65977,7 +65977,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-38.38338610081828,174.6561049167433</t>
+          <t>-38.383386330733835,174.65610553834037</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -66125,7 +66125,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-38.38342951648055,174.6562222950596</t>
+          <t>-38.38343135579984,174.65622726784213</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -66369,7 +66369,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-38.38333233880216,174.65595956673224</t>
+          <t>-38.383335519311494,174.6559681654797</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -66521,7 +66521,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-38.38342204424368,174.65620209313306</t>
+          <t>-38.383423768606356,174.65620675511576</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -66673,7 +66673,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-38.38337403024636,174.65607228290213</t>
+          <t>-38.38337471999358,174.65607414769278</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -66825,7 +66825,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-38.383390162659424,174.65611589829223</t>
+          <t>-38.38339058417117,174.65611703788701</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -66977,7 +66977,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-38.38337226755889,174.65606751732622</t>
+          <t>-38.38337586957221,174.65607725567725</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -67125,7 +67125,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-38.3833886298893,174.65611175431135</t>
+          <t>-38.383387863504176,174.656109682321</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -67273,7 +67273,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-38.38338318855417,174.65609704318064</t>
+          <t>-38.383382115614616,174.65609414239458</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -67421,7 +67421,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-38.38338606249902,174.65610481314377</t>
+          <t>-38.3833876719079,174.65610916432342</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -67561,7 +67561,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-38.383359545547705,174.65603312230672</t>
+          <t>-38.3833584342872,174.65603011792302</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -67657,7 +67657,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-38.383407904462565,174.65616386488324</t>
+          <t>-38.383410816722055,174.65617173845115</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -67729,7 +67729,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-38.3833697384852,174.65606067976117</t>
+          <t>-38.3833710413414,174.65606420214309</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -67861,7 +67861,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-38.38343124084239,174.65622695704323</t>
+          <t>-38.38342963143801,174.6562226058585</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -67997,7 +67997,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-38.38336310924466,174.65604275705496</t>
+          <t>-38.38336663462149,174.65605228820468</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -68145,7 +68145,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-38.38337924166903,174.65608637243227</t>
+          <t>-38.38337732570502,174.6560811924577</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -68253,7 +68253,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-38.38338150250627,174.65609248480254</t>
+          <t>-38.38338445308997,174.65610046196434</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -68405,7 +68405,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-38.383369125376376,174.6560590221697</t>
+          <t>-38.383368895460556,174.6560584005729</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -68557,7 +68557,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-38.38338008469312,174.65608865162113</t>
+          <t>-38.38338188569899,174.65609352079755</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -68709,7 +68709,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-38.38336330084124,174.6560432750522</t>
+          <t>-38.38336356907646,174.65604400024836</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -68861,7 +68861,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-38.38339912936159,174.65614014058374</t>
+          <t>-38.383401888345844,174.65614759975156</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -69013,7 +69013,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-38.383377478982155,174.65608160685565</t>
+          <t>-38.38338100435572,174.65609113800906</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -69161,7 +69161,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-38.383375333102194,174.6560758052845</t>
+          <t>-38.38337437511998,174.65607321529745</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -69309,7 +69309,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-38.383398286338526,174.65613786139372</t>
+          <t>-38.383398592892384,174.6561386901901</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -69413,7 +69413,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-38.38335333781559,174.65601633919906</t>
+          <t>-38.383353682689666,174.65601727159384</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -69549,7 +69549,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>-38.383299269130546,174.65587016052189</t>
+          <t>-38.383302066451954,174.65587772326893</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -69685,7 +69685,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-38.38333751191941,174.65597355264717</t>
+          <t>-38.3833403858727,174.65598132260075</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -69821,7 +69821,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-38.38337479663216,174.65607435489173</t>
+          <t>-38.38337357041487,174.6560710397084</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -69965,7 +69965,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-38.38334080738581,174.655982462194</t>
+          <t>-38.383342378479995,174.65598670976894</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -70109,7 +70109,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-38.38341518511027,174.6561835488041</t>
+          <t>-38.38341671787777,174.65618769278794</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-38.38336226621964,174.65604047786712</t>
+          <t>-38.38336571495804,174.65604980181772</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
